--- a/coba_rnn - Copy.xlsx
+++ b/coba_rnn - Copy.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="225">
   <si>
     <t>num_cell(output)</t>
   </si>
@@ -683,22 +683,6 @@
     <t>L = E</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">MengUpdate Bobot dengan algoritma </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stochastic gradient descent</t>
-    </r>
-  </si>
-  <si>
     <t>Refrence  :</t>
   </si>
   <si>
@@ -721,6 +705,25 @@
   </si>
   <si>
     <t>JADI tanda tanya tersebut terjawabkan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dilakukan optimasi dengan menggunakan algoritma </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stochastic gradient descent (SGD)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m2cg32uEeZw&amp;list=WL&amp;index=27&amp;t=0s</t>
   </si>
 </sst>
 </file>
@@ -2045,20 +2048,26 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="14" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2078,8 +2087,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2090,33 +2120,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="14" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1 2" xfId="22"/>
@@ -2382,8 +2385,8 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="327846" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -2471,7 +2474,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -2933,8 +2936,8 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="327846" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -3022,7 +3025,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -16040,13 +16043,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>357868</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>87306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16152,13 +16155,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>374196</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>70756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>125186</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>62813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16208,13 +16211,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>363311</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>100692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>92749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16264,13 +16267,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>366032</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>122685</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16320,13 +16323,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>355147</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>106137</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>125406</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16376,13 +16379,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>344262</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>87306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16426,6 +16429,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590044</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="0"/>
+          <a:ext cx="4047619" cy="1028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16601,6 +16642,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303707</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="2886075"/>
+          <a:ext cx="8742857" cy="6638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16844,8 +16923,8 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="327846" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -16933,7 +17012,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -17757,7 +17836,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17934,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="118">
-        <f t="shared" ref="V4:V9" si="0">(O4-$O$13)/$O$14</f>
+        <f t="shared" ref="V4:V8" si="0">(O4-$O$13)/$O$14</f>
         <v>0.16505359665184405</v>
       </c>
     </row>
@@ -18398,7 +18477,7 @@
         <v>1E-8</v>
       </c>
       <c r="V14" s="118">
-        <f t="shared" ref="V13:V16" si="1">(O10-$O$13)/$O$14</f>
+        <f t="shared" ref="V14" si="1">(O10-$O$13)/$O$14</f>
         <v>1.2294009939837888E-2</v>
       </c>
     </row>
@@ -18496,7 +18575,7 @@
       <c r="T18" s="45"/>
       <c r="U18" s="113"/>
       <c r="V18" s="86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X18" s="9">
         <f>'Hasil Prediksi'!$C$9</f>
@@ -18586,7 +18665,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -19749,16 +19828,16 @@
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="126" t="s">
+      <c r="H36" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="30"/>
@@ -19997,7 +20076,7 @@
       <c r="Q41" s="30"/>
       <c r="R41" s="30"/>
       <c r="S41" s="93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="T41" s="85">
         <f t="array" ref="T41:T44">MMULT($A29:$D32,I40:I43)</f>
@@ -20508,7 +20587,7 @@
     </row>
     <row r="11" spans="1:51" ht="15.75">
       <c r="A11" s="92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="38">
         <f>'Input prediksi'!T41</f>
@@ -20531,7 +20610,7 @@
       <c r="L11" s="39"/>
       <c r="M11" s="30"/>
       <c r="N11" s="92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O11" s="38">
         <f>'Input prediksi'!U41</f>
@@ -20553,7 +20632,7 @@
       <c r="X11" s="38"/>
       <c r="Y11" s="39"/>
       <c r="AA11" s="92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AB11" s="38">
         <f>'Input prediksi'!V41</f>
@@ -20575,7 +20654,7 @@
       <c r="AK11" s="38"/>
       <c r="AL11" s="39"/>
       <c r="AN11" s="92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AO11" s="38">
         <f>'Input prediksi'!W41</f>
@@ -22434,14 +22513,14 @@
     <row r="42" spans="1:51">
       <c r="A42" s="37"/>
       <c r="B42" s="38"/>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
@@ -22449,42 +22528,42 @@
       <c r="M42" s="30"/>
       <c r="N42" s="37"/>
       <c r="O42" s="38"/>
-      <c r="P42" s="127" t="s">
+      <c r="P42" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151"/>
+      <c r="S42" s="151"/>
+      <c r="T42" s="151"/>
+      <c r="U42" s="151"/>
       <c r="V42" s="38"/>
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
       <c r="Y42" s="39"/>
       <c r="AA42" s="37"/>
       <c r="AB42" s="38"/>
-      <c r="AC42" s="127" t="s">
+      <c r="AC42" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="AD42" s="127"/>
-      <c r="AE42" s="127"/>
-      <c r="AF42" s="127"/>
-      <c r="AG42" s="127"/>
-      <c r="AH42" s="127"/>
+      <c r="AD42" s="151"/>
+      <c r="AE42" s="151"/>
+      <c r="AF42" s="151"/>
+      <c r="AG42" s="151"/>
+      <c r="AH42" s="151"/>
       <c r="AI42" s="38"/>
       <c r="AJ42" s="38"/>
       <c r="AK42" s="38"/>
       <c r="AL42" s="39"/>
       <c r="AN42" s="37"/>
       <c r="AO42" s="38"/>
-      <c r="AP42" s="127" t="s">
+      <c r="AP42" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="AQ42" s="127"/>
-      <c r="AR42" s="127"/>
-      <c r="AS42" s="127"/>
-      <c r="AT42" s="127"/>
-      <c r="AU42" s="127"/>
+      <c r="AQ42" s="151"/>
+      <c r="AR42" s="151"/>
+      <c r="AS42" s="151"/>
+      <c r="AT42" s="151"/>
+      <c r="AU42" s="151"/>
       <c r="AV42" s="38"/>
       <c r="AW42" s="38"/>
       <c r="AX42" s="38"/>
@@ -23115,144 +23194,144 @@
     <row r="55" spans="1:51">
       <c r="A55" s="37"/>
       <c r="B55" s="38"/>
-      <c r="C55" s="128" t="s">
+      <c r="C55" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="128" t="s">
+      <c r="D55" s="153"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="130"/>
+      <c r="I55" s="153"/>
+      <c r="J55" s="153"/>
+      <c r="K55" s="153"/>
+      <c r="L55" s="154"/>
       <c r="M55" s="30"/>
       <c r="N55" s="37"/>
       <c r="O55" s="38"/>
-      <c r="P55" s="128" t="s">
+      <c r="P55" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="Q55" s="129"/>
-      <c r="R55" s="129"/>
-      <c r="S55" s="129"/>
-      <c r="T55" s="130"/>
-      <c r="U55" s="128" t="s">
+      <c r="Q55" s="153"/>
+      <c r="R55" s="153"/>
+      <c r="S55" s="153"/>
+      <c r="T55" s="154"/>
+      <c r="U55" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="V55" s="129"/>
-      <c r="W55" s="129"/>
-      <c r="X55" s="129"/>
-      <c r="Y55" s="130"/>
+      <c r="V55" s="153"/>
+      <c r="W55" s="153"/>
+      <c r="X55" s="153"/>
+      <c r="Y55" s="154"/>
       <c r="AA55" s="37"/>
       <c r="AB55" s="38"/>
-      <c r="AC55" s="128" t="s">
+      <c r="AC55" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="AD55" s="129"/>
-      <c r="AE55" s="129"/>
-      <c r="AF55" s="129"/>
-      <c r="AG55" s="130"/>
-      <c r="AH55" s="128" t="s">
+      <c r="AD55" s="153"/>
+      <c r="AE55" s="153"/>
+      <c r="AF55" s="153"/>
+      <c r="AG55" s="154"/>
+      <c r="AH55" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="129"/>
-      <c r="AJ55" s="129"/>
-      <c r="AK55" s="129"/>
-      <c r="AL55" s="130"/>
+      <c r="AI55" s="153"/>
+      <c r="AJ55" s="153"/>
+      <c r="AK55" s="153"/>
+      <c r="AL55" s="154"/>
       <c r="AN55" s="37"/>
       <c r="AO55" s="38"/>
-      <c r="AP55" s="128" t="s">
+      <c r="AP55" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="AQ55" s="129"/>
-      <c r="AR55" s="129"/>
-      <c r="AS55" s="129"/>
-      <c r="AT55" s="130"/>
-      <c r="AU55" s="128" t="s">
+      <c r="AQ55" s="153"/>
+      <c r="AR55" s="153"/>
+      <c r="AS55" s="153"/>
+      <c r="AT55" s="154"/>
+      <c r="AU55" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="AV55" s="129"/>
-      <c r="AW55" s="129"/>
-      <c r="AX55" s="129"/>
-      <c r="AY55" s="130"/>
+      <c r="AV55" s="153"/>
+      <c r="AW55" s="153"/>
+      <c r="AX55" s="153"/>
+      <c r="AY55" s="154"/>
     </row>
     <row r="56" spans="1:51" ht="15.75" thickBot="1">
       <c r="A56" s="37"/>
       <c r="B56" s="38"/>
-      <c r="C56" s="131">
+      <c r="C56" s="145">
         <f>PRODUCT(C54,D30)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="134">
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="148">
         <f>PRODUCT(D23,D18)</f>
         <v>-8.7731382760084353E-2</v>
       </c>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="135"/>
-      <c r="L56" s="136"/>
+      <c r="I56" s="149"/>
+      <c r="J56" s="149"/>
+      <c r="K56" s="149"/>
+      <c r="L56" s="150"/>
       <c r="M56" s="30"/>
       <c r="N56" s="37"/>
       <c r="O56" s="38"/>
-      <c r="P56" s="131">
+      <c r="P56" s="145">
         <f>PRODUCT(Q30,D57)</f>
         <v>-3.8762504878581468E-2</v>
       </c>
-      <c r="Q56" s="132"/>
-      <c r="R56" s="132"/>
-      <c r="S56" s="132"/>
-      <c r="T56" s="133"/>
-      <c r="U56" s="134">
+      <c r="Q56" s="146"/>
+      <c r="R56" s="146"/>
+      <c r="S56" s="146"/>
+      <c r="T56" s="147"/>
+      <c r="U56" s="148">
         <f>PRODUCT(Q23,Q18)</f>
         <v>-9.8223525142903653E-2</v>
       </c>
-      <c r="V56" s="135"/>
-      <c r="W56" s="135"/>
-      <c r="X56" s="135"/>
-      <c r="Y56" s="136"/>
+      <c r="V56" s="149"/>
+      <c r="W56" s="149"/>
+      <c r="X56" s="149"/>
+      <c r="Y56" s="150"/>
       <c r="AA56" s="37"/>
       <c r="AB56" s="38"/>
-      <c r="AC56" s="131">
+      <c r="AC56" s="145">
         <f>PRODUCT(Q57,AD30)</f>
         <v>-6.0284696063832757E-2</v>
       </c>
-      <c r="AD56" s="132"/>
-      <c r="AE56" s="132"/>
-      <c r="AF56" s="132"/>
-      <c r="AG56" s="133"/>
-      <c r="AH56" s="134">
+      <c r="AD56" s="146"/>
+      <c r="AE56" s="146"/>
+      <c r="AF56" s="146"/>
+      <c r="AG56" s="147"/>
+      <c r="AH56" s="148">
         <f>PRODUCT(AD23,AD18)</f>
         <v>-0.10277500139111377</v>
       </c>
-      <c r="AI56" s="135"/>
-      <c r="AJ56" s="135"/>
-      <c r="AK56" s="135"/>
-      <c r="AL56" s="136"/>
+      <c r="AI56" s="149"/>
+      <c r="AJ56" s="149"/>
+      <c r="AK56" s="149"/>
+      <c r="AL56" s="150"/>
       <c r="AN56" s="37"/>
       <c r="AO56" s="38"/>
-      <c r="AP56" s="131">
+      <c r="AP56" s="145">
         <f>PRODUCT(AD57,AQ30)</f>
         <v>-7.1445774204077758E-2</v>
       </c>
-      <c r="AQ56" s="132"/>
-      <c r="AR56" s="132"/>
-      <c r="AS56" s="132"/>
-      <c r="AT56" s="133"/>
-      <c r="AU56" s="134">
+      <c r="AQ56" s="146"/>
+      <c r="AR56" s="146"/>
+      <c r="AS56" s="146"/>
+      <c r="AT56" s="147"/>
+      <c r="AU56" s="148">
         <f>PRODUCT(AQ23,AQ18)</f>
         <v>-0.10320274221781402</v>
       </c>
-      <c r="AV56" s="135"/>
-      <c r="AW56" s="135"/>
-      <c r="AX56" s="135"/>
-      <c r="AY56" s="136"/>
+      <c r="AV56" s="149"/>
+      <c r="AW56" s="149"/>
+      <c r="AX56" s="149"/>
+      <c r="AY56" s="150"/>
     </row>
     <row r="57" spans="1:51">
       <c r="A57" s="37"/>
@@ -24328,6 +24407,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P42:U42"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="U55:Y55"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="U56:Y56"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
     <mergeCell ref="AC55:AG55"/>
     <mergeCell ref="AH55:AL55"/>
     <mergeCell ref="AC56:AG56"/>
@@ -24338,16 +24427,6 @@
     <mergeCell ref="AP56:AT56"/>
     <mergeCell ref="AU56:AY56"/>
     <mergeCell ref="AC42:AH42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P42:U42"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="U55:Y55"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="U56:Y56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24431,32 +24510,32 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" t="s">
         <v>220</v>
       </c>
-      <c r="D8" t="s">
-        <v>221</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="160">
+      <c r="B9" s="142">
         <v>41061</v>
       </c>
-      <c r="C9" s="161">
+      <c r="C9" s="143">
         <f>E2+B7</f>
         <v>22.957691403972905</v>
       </c>
-      <c r="E9" s="160">
+      <c r="E9" s="142">
         <f>'Data split dan Normalisasi data'!Q17</f>
         <v>41061</v>
       </c>
-      <c r="F9" s="161">
+      <c r="F9" s="143">
         <f>'Data split dan Normalisasi data'!$R$17</f>
         <v>27.719999000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -24650,16 +24729,16 @@
       <c r="K35" s="65"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="H36" s="126" t="s">
+      <c r="H36" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1">
       <c r="A37" s="67" t="s">
@@ -25010,7 +25089,7 @@
         <f>'Data split dan Normalisasi data'!V9</f>
         <v>2.929636411195399E-2</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="136">
         <f>'FORWARD 1 (LSTM)'!$BO$89</f>
         <v>-0.2407206932719145</v>
       </c>
@@ -25164,16 +25243,16 @@
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
-      <c r="H52" s="126" t="s">
+      <c r="H52" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="126"/>
-      <c r="J52" s="126"/>
-      <c r="K52" s="126"/>
-      <c r="L52" s="126"/>
-      <c r="M52" s="126"/>
-      <c r="N52" s="126"/>
-      <c r="O52" s="126"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="144"/>
+      <c r="N52" s="144"/>
+      <c r="O52" s="144"/>
       <c r="P52" s="30"/>
       <c r="Q52" s="30"/>
       <c r="R52" s="30"/>
@@ -28788,84 +28867,84 @@
     <row r="59" spans="1:77">
       <c r="A59" s="13"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="127" t="s">
+      <c r="C59" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="127"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="151"/>
+      <c r="F59" s="151"/>
+      <c r="G59" s="151"/>
+      <c r="H59" s="151"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
       <c r="L59" s="12"/>
       <c r="N59" s="37"/>
       <c r="O59" s="38"/>
-      <c r="P59" s="127" t="s">
+      <c r="P59" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="Q59" s="127"/>
-      <c r="R59" s="127"/>
-      <c r="S59" s="127"/>
-      <c r="T59" s="127"/>
-      <c r="U59" s="127"/>
+      <c r="Q59" s="151"/>
+      <c r="R59" s="151"/>
+      <c r="S59" s="151"/>
+      <c r="T59" s="151"/>
+      <c r="U59" s="151"/>
       <c r="V59" s="38"/>
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
       <c r="Y59" s="39"/>
       <c r="AA59" s="37"/>
       <c r="AB59" s="38"/>
-      <c r="AC59" s="127" t="s">
+      <c r="AC59" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="AD59" s="127"/>
-      <c r="AE59" s="127"/>
-      <c r="AF59" s="127"/>
-      <c r="AG59" s="127"/>
-      <c r="AH59" s="127"/>
+      <c r="AD59" s="151"/>
+      <c r="AE59" s="151"/>
+      <c r="AF59" s="151"/>
+      <c r="AG59" s="151"/>
+      <c r="AH59" s="151"/>
       <c r="AI59" s="38"/>
       <c r="AJ59" s="38"/>
       <c r="AK59" s="38"/>
       <c r="AL59" s="39"/>
       <c r="AN59" s="37"/>
       <c r="AO59" s="38"/>
-      <c r="AP59" s="127" t="s">
+      <c r="AP59" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="AQ59" s="127"/>
-      <c r="AR59" s="127"/>
-      <c r="AS59" s="127"/>
-      <c r="AT59" s="127"/>
-      <c r="AU59" s="127"/>
+      <c r="AQ59" s="151"/>
+      <c r="AR59" s="151"/>
+      <c r="AS59" s="151"/>
+      <c r="AT59" s="151"/>
+      <c r="AU59" s="151"/>
       <c r="AV59" s="38"/>
       <c r="AW59" s="38"/>
       <c r="AX59" s="38"/>
       <c r="AY59" s="39"/>
       <c r="BA59" s="37"/>
       <c r="BB59" s="38"/>
-      <c r="BC59" s="127" t="s">
+      <c r="BC59" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="BD59" s="127"/>
-      <c r="BE59" s="127"/>
-      <c r="BF59" s="127"/>
-      <c r="BG59" s="127"/>
-      <c r="BH59" s="127"/>
+      <c r="BD59" s="151"/>
+      <c r="BE59" s="151"/>
+      <c r="BF59" s="151"/>
+      <c r="BG59" s="151"/>
+      <c r="BH59" s="151"/>
       <c r="BI59" s="38"/>
       <c r="BJ59" s="38"/>
       <c r="BK59" s="38"/>
       <c r="BL59" s="39"/>
       <c r="BN59" s="37"/>
       <c r="BO59" s="38"/>
-      <c r="BP59" s="127" t="s">
+      <c r="BP59" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="BQ59" s="127"/>
-      <c r="BR59" s="127"/>
-      <c r="BS59" s="127"/>
-      <c r="BT59" s="127"/>
-      <c r="BU59" s="127"/>
+      <c r="BQ59" s="151"/>
+      <c r="BR59" s="151"/>
+      <c r="BS59" s="151"/>
+      <c r="BT59" s="151"/>
+      <c r="BU59" s="151"/>
       <c r="BV59" s="38"/>
       <c r="BW59" s="38"/>
       <c r="BX59" s="38"/>
@@ -29772,210 +29851,210 @@
     <row r="72" spans="1:77">
       <c r="A72" s="13"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="128" t="s">
+      <c r="C72" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="129"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="129"/>
-      <c r="G72" s="130"/>
-      <c r="H72" s="128" t="s">
+      <c r="D72" s="153"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="129"/>
-      <c r="J72" s="129"/>
-      <c r="K72" s="129"/>
-      <c r="L72" s="130"/>
+      <c r="I72" s="153"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="153"/>
+      <c r="L72" s="154"/>
       <c r="N72" s="37"/>
       <c r="O72" s="38"/>
-      <c r="P72" s="128" t="s">
+      <c r="P72" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="Q72" s="129"/>
-      <c r="R72" s="129"/>
-      <c r="S72" s="129"/>
-      <c r="T72" s="130"/>
-      <c r="U72" s="128" t="s">
+      <c r="Q72" s="153"/>
+      <c r="R72" s="153"/>
+      <c r="S72" s="153"/>
+      <c r="T72" s="154"/>
+      <c r="U72" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="V72" s="129"/>
-      <c r="W72" s="129"/>
-      <c r="X72" s="129"/>
-      <c r="Y72" s="130"/>
+      <c r="V72" s="153"/>
+      <c r="W72" s="153"/>
+      <c r="X72" s="153"/>
+      <c r="Y72" s="154"/>
       <c r="AA72" s="37"/>
       <c r="AB72" s="38"/>
-      <c r="AC72" s="128" t="s">
+      <c r="AC72" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="AD72" s="129"/>
-      <c r="AE72" s="129"/>
-      <c r="AF72" s="129"/>
-      <c r="AG72" s="130"/>
-      <c r="AH72" s="128" t="s">
+      <c r="AD72" s="153"/>
+      <c r="AE72" s="153"/>
+      <c r="AF72" s="153"/>
+      <c r="AG72" s="154"/>
+      <c r="AH72" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="AI72" s="129"/>
-      <c r="AJ72" s="129"/>
-      <c r="AK72" s="129"/>
-      <c r="AL72" s="130"/>
+      <c r="AI72" s="153"/>
+      <c r="AJ72" s="153"/>
+      <c r="AK72" s="153"/>
+      <c r="AL72" s="154"/>
       <c r="AN72" s="37"/>
       <c r="AO72" s="38"/>
-      <c r="AP72" s="128" t="s">
+      <c r="AP72" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="AQ72" s="129"/>
-      <c r="AR72" s="129"/>
-      <c r="AS72" s="129"/>
-      <c r="AT72" s="130"/>
-      <c r="AU72" s="128" t="s">
+      <c r="AQ72" s="153"/>
+      <c r="AR72" s="153"/>
+      <c r="AS72" s="153"/>
+      <c r="AT72" s="154"/>
+      <c r="AU72" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="AV72" s="129"/>
-      <c r="AW72" s="129"/>
-      <c r="AX72" s="129"/>
-      <c r="AY72" s="130"/>
+      <c r="AV72" s="153"/>
+      <c r="AW72" s="153"/>
+      <c r="AX72" s="153"/>
+      <c r="AY72" s="154"/>
       <c r="BA72" s="37"/>
       <c r="BB72" s="38"/>
-      <c r="BC72" s="128" t="s">
+      <c r="BC72" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="BD72" s="129"/>
-      <c r="BE72" s="129"/>
-      <c r="BF72" s="129"/>
-      <c r="BG72" s="130"/>
-      <c r="BH72" s="128" t="s">
+      <c r="BD72" s="153"/>
+      <c r="BE72" s="153"/>
+      <c r="BF72" s="153"/>
+      <c r="BG72" s="154"/>
+      <c r="BH72" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="BI72" s="129"/>
-      <c r="BJ72" s="129"/>
-      <c r="BK72" s="129"/>
-      <c r="BL72" s="130"/>
+      <c r="BI72" s="153"/>
+      <c r="BJ72" s="153"/>
+      <c r="BK72" s="153"/>
+      <c r="BL72" s="154"/>
       <c r="BN72" s="37"/>
       <c r="BO72" s="38"/>
-      <c r="BP72" s="128" t="s">
+      <c r="BP72" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="BQ72" s="129"/>
-      <c r="BR72" s="129"/>
-      <c r="BS72" s="129"/>
-      <c r="BT72" s="130"/>
-      <c r="BU72" s="128" t="s">
+      <c r="BQ72" s="153"/>
+      <c r="BR72" s="153"/>
+      <c r="BS72" s="153"/>
+      <c r="BT72" s="154"/>
+      <c r="BU72" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="BV72" s="129"/>
-      <c r="BW72" s="129"/>
-      <c r="BX72" s="129"/>
-      <c r="BY72" s="130"/>
+      <c r="BV72" s="153"/>
+      <c r="BW72" s="153"/>
+      <c r="BX72" s="153"/>
+      <c r="BY72" s="154"/>
     </row>
     <row r="73" spans="1:77" ht="15.75" thickBot="1">
       <c r="A73" s="13"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="131">
+      <c r="C73" s="145">
         <f>PRODUCT(C71,D47)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="132"/>
-      <c r="E73" s="132"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="133"/>
-      <c r="H73" s="134">
+      <c r="D73" s="146"/>
+      <c r="E73" s="146"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="147"/>
+      <c r="H73" s="148">
         <f>PRODUCT(D40,D35)</f>
         <v>-0.15914104345003202</v>
       </c>
-      <c r="I73" s="135"/>
-      <c r="J73" s="135"/>
-      <c r="K73" s="135"/>
-      <c r="L73" s="136"/>
+      <c r="I73" s="149"/>
+      <c r="J73" s="149"/>
+      <c r="K73" s="149"/>
+      <c r="L73" s="150"/>
       <c r="N73" s="37"/>
       <c r="O73" s="38"/>
-      <c r="P73" s="131">
+      <c r="P73" s="145">
         <f>PRODUCT(Q47,D74)</f>
         <v>-6.9668155644557389E-2</v>
       </c>
-      <c r="Q73" s="132"/>
-      <c r="R73" s="132"/>
-      <c r="S73" s="132"/>
-      <c r="T73" s="133"/>
-      <c r="U73" s="134">
+      <c r="Q73" s="146"/>
+      <c r="R73" s="146"/>
+      <c r="S73" s="146"/>
+      <c r="T73" s="147"/>
+      <c r="U73" s="148">
         <f>PRODUCT(Q40,Q35)</f>
         <v>-0.17696166752410394</v>
       </c>
-      <c r="V73" s="135"/>
-      <c r="W73" s="135"/>
-      <c r="X73" s="135"/>
-      <c r="Y73" s="136"/>
+      <c r="V73" s="149"/>
+      <c r="W73" s="149"/>
+      <c r="X73" s="149"/>
+      <c r="Y73" s="150"/>
       <c r="AA73" s="37"/>
       <c r="AB73" s="38"/>
-      <c r="AC73" s="131">
+      <c r="AC73" s="145">
         <f>PRODUCT(Q74,AD47)</f>
         <v>-0.10744158263873792</v>
       </c>
-      <c r="AD73" s="132"/>
-      <c r="AE73" s="132"/>
-      <c r="AF73" s="132"/>
-      <c r="AG73" s="133"/>
-      <c r="AH73" s="134">
+      <c r="AD73" s="146"/>
+      <c r="AE73" s="146"/>
+      <c r="AF73" s="146"/>
+      <c r="AG73" s="147"/>
+      <c r="AH73" s="148">
         <f>PRODUCT(AD40,AD35)</f>
         <v>-0.1871706217285404</v>
       </c>
-      <c r="AI73" s="135"/>
-      <c r="AJ73" s="135"/>
-      <c r="AK73" s="135"/>
-      <c r="AL73" s="136"/>
+      <c r="AI73" s="149"/>
+      <c r="AJ73" s="149"/>
+      <c r="AK73" s="149"/>
+      <c r="AL73" s="150"/>
       <c r="AN73" s="37"/>
       <c r="AO73" s="38"/>
-      <c r="AP73" s="131">
+      <c r="AP73" s="145">
         <f>PRODUCT(AD74,AQ47)</f>
         <v>-0.12761573903347123</v>
       </c>
-      <c r="AQ73" s="132"/>
-      <c r="AR73" s="132"/>
-      <c r="AS73" s="132"/>
-      <c r="AT73" s="133"/>
-      <c r="AU73" s="134">
+      <c r="AQ73" s="146"/>
+      <c r="AR73" s="146"/>
+      <c r="AS73" s="146"/>
+      <c r="AT73" s="147"/>
+      <c r="AU73" s="148">
         <f>PRODUCT(AQ40,AQ35)</f>
         <v>-0.18965682363364356</v>
       </c>
-      <c r="AV73" s="135"/>
-      <c r="AW73" s="135"/>
-      <c r="AX73" s="135"/>
-      <c r="AY73" s="136"/>
+      <c r="AV73" s="149"/>
+      <c r="AW73" s="149"/>
+      <c r="AX73" s="149"/>
+      <c r="AY73" s="150"/>
       <c r="BA73" s="37"/>
       <c r="BB73" s="38"/>
-      <c r="BC73" s="131">
+      <c r="BC73" s="145">
         <f>PRODUCT(AQ74,BD47)</f>
         <v>-0.1369062256468544</v>
       </c>
-      <c r="BD73" s="132"/>
-      <c r="BE73" s="132"/>
-      <c r="BF73" s="132"/>
-      <c r="BG73" s="133"/>
-      <c r="BH73" s="134">
+      <c r="BD73" s="146"/>
+      <c r="BE73" s="146"/>
+      <c r="BF73" s="146"/>
+      <c r="BG73" s="147"/>
+      <c r="BH73" s="148">
         <f>PRODUCT(BD40,BD35)</f>
         <v>-0.19055389055354507</v>
       </c>
-      <c r="BI73" s="135"/>
-      <c r="BJ73" s="135"/>
-      <c r="BK73" s="135"/>
-      <c r="BL73" s="136"/>
+      <c r="BI73" s="149"/>
+      <c r="BJ73" s="149"/>
+      <c r="BK73" s="149"/>
+      <c r="BL73" s="150"/>
       <c r="BN73" s="37"/>
       <c r="BO73" s="38"/>
-      <c r="BP73" s="131">
+      <c r="BP73" s="145">
         <f>PRODUCT(BD74,BQ47)</f>
         <v>-0.14132266673598051</v>
       </c>
-      <c r="BQ73" s="132"/>
-      <c r="BR73" s="132"/>
-      <c r="BS73" s="132"/>
-      <c r="BT73" s="133"/>
-      <c r="BU73" s="134">
+      <c r="BQ73" s="146"/>
+      <c r="BR73" s="146"/>
+      <c r="BS73" s="146"/>
+      <c r="BT73" s="147"/>
+      <c r="BU73" s="148">
         <f>PRODUCT(BQ40,BQ35)</f>
         <v>-0.19276759307663355</v>
       </c>
-      <c r="BV73" s="135"/>
-      <c r="BW73" s="135"/>
-      <c r="BX73" s="135"/>
-      <c r="BY73" s="136"/>
+      <c r="BV73" s="149"/>
+      <c r="BW73" s="149"/>
+      <c r="BX73" s="149"/>
+      <c r="BY73" s="150"/>
     </row>
     <row r="74" spans="1:77">
       <c r="A74" s="13"/>
@@ -31337,11 +31416,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="AU73:AY73"/>
-    <mergeCell ref="BH73:BL73"/>
-    <mergeCell ref="BC73:BG73"/>
+    <mergeCell ref="P59:U59"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="U72:Y72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="AP59:AU59"/>
+    <mergeCell ref="AP72:AT72"/>
+    <mergeCell ref="AU72:AY72"/>
+    <mergeCell ref="AC59:AH59"/>
+    <mergeCell ref="AC72:AG72"/>
+    <mergeCell ref="AH72:AL72"/>
+    <mergeCell ref="BP59:BU59"/>
+    <mergeCell ref="BP72:BT72"/>
+    <mergeCell ref="BU72:BY72"/>
+    <mergeCell ref="BC59:BH59"/>
+    <mergeCell ref="BC72:BG72"/>
+    <mergeCell ref="BH72:BL72"/>
     <mergeCell ref="BP73:BT73"/>
     <mergeCell ref="BU73:BY73"/>
     <mergeCell ref="P73:T73"/>
@@ -31349,24 +31441,11 @@
     <mergeCell ref="AC73:AG73"/>
     <mergeCell ref="AH73:AL73"/>
     <mergeCell ref="AP73:AT73"/>
-    <mergeCell ref="BP59:BU59"/>
-    <mergeCell ref="BP72:BT72"/>
-    <mergeCell ref="BU72:BY72"/>
-    <mergeCell ref="BC59:BH59"/>
-    <mergeCell ref="BC72:BG72"/>
-    <mergeCell ref="BH72:BL72"/>
-    <mergeCell ref="AP59:AU59"/>
-    <mergeCell ref="AP72:AT72"/>
-    <mergeCell ref="AU72:AY72"/>
-    <mergeCell ref="AC59:AH59"/>
-    <mergeCell ref="AC72:AG72"/>
-    <mergeCell ref="AH72:AL72"/>
-    <mergeCell ref="P59:U59"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="U72:Y72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="AU73:AY73"/>
+    <mergeCell ref="BH73:BL73"/>
+    <mergeCell ref="BC73:BG73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31448,7 +31527,7 @@
   <dimension ref="B13:AH38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="Y46" sqref="Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31676,10 +31755,10 @@
       <c r="U32" t="s">
         <v>202</v>
       </c>
-      <c r="V32" s="127" t="s">
+      <c r="V32" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="W32" s="127"/>
+      <c r="W32" s="151"/>
       <c r="X32" s="47"/>
       <c r="Y32" s="47" t="s">
         <v>59</v>
@@ -31903,7 +31982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE263"/>
   <sheetViews>
-    <sheetView topLeftCell="CZ68" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -33321,10 +33400,10 @@
       <c r="AE20" s="39"/>
       <c r="AF20" s="38"/>
       <c r="AG20" s="38"/>
-      <c r="AH20" s="138" t="s">
+      <c r="AH20" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="AI20" s="138"/>
+      <c r="AI20" s="159"/>
       <c r="AJ20" s="81"/>
       <c r="AK20" s="38"/>
       <c r="AL20" s="38"/>
@@ -33337,10 +33416,10 @@
       <c r="AS20" s="38"/>
       <c r="AY20" s="37"/>
       <c r="AZ20" s="38"/>
-      <c r="BA20" s="138" t="s">
+      <c r="BA20" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="BB20" s="138"/>
+      <c r="BB20" s="159"/>
       <c r="BC20" s="81"/>
       <c r="BD20" s="38"/>
       <c r="BE20" s="38"/>
@@ -33353,10 +33432,10 @@
       <c r="BL20" s="38"/>
       <c r="BR20" s="37"/>
       <c r="BS20" s="38"/>
-      <c r="BT20" s="138" t="s">
+      <c r="BT20" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="BU20" s="138"/>
+      <c r="BU20" s="159"/>
       <c r="BV20" s="81"/>
       <c r="BW20" s="38"/>
       <c r="BX20" s="38"/>
@@ -33369,10 +33448,10 @@
       <c r="CE20" s="38"/>
       <c r="CK20" s="37"/>
       <c r="CL20" s="38"/>
-      <c r="CM20" s="138" t="s">
+      <c r="CM20" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="CN20" s="138"/>
+      <c r="CN20" s="159"/>
       <c r="CO20" s="81"/>
       <c r="CP20" s="38"/>
       <c r="CQ20" s="38"/>
@@ -33385,10 +33464,10 @@
       <c r="CX20" s="38"/>
       <c r="DD20" s="37"/>
       <c r="DE20" s="38"/>
-      <c r="DF20" s="138" t="s">
+      <c r="DF20" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="DG20" s="138"/>
+      <c r="DG20" s="159"/>
       <c r="DH20" s="81"/>
       <c r="DI20" s="38"/>
       <c r="DJ20" s="38"/>
@@ -33401,10 +33480,10 @@
       <c r="DQ20" s="38"/>
       <c r="DW20" s="37"/>
       <c r="DX20" s="38"/>
-      <c r="DY20" s="138" t="s">
+      <c r="DY20" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="DZ20" s="138"/>
+      <c r="DZ20" s="159"/>
       <c r="EA20" s="81"/>
       <c r="EB20" s="38"/>
       <c r="EC20" s="38"/>
@@ -33838,11 +33917,11 @@
       <c r="AB24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="AC24" s="127" t="s">
+      <c r="AC24" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="139"/>
+      <c r="AD24" s="151"/>
+      <c r="AE24" s="160"/>
       <c r="AF24" s="38"/>
       <c r="AG24" s="38"/>
       <c r="AH24" s="38"/>
@@ -33864,11 +33943,11 @@
       <c r="AU24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="AV24" s="127" t="s">
+      <c r="AV24" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="AW24" s="127"/>
-      <c r="AX24" s="139"/>
+      <c r="AW24" s="151"/>
+      <c r="AX24" s="160"/>
       <c r="AY24" s="38"/>
       <c r="AZ24" s="38"/>
       <c r="BA24" s="38"/>
@@ -33890,11 +33969,11 @@
       <c r="BN24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="BO24" s="127" t="s">
+      <c r="BO24" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="BP24" s="127"/>
-      <c r="BQ24" s="139"/>
+      <c r="BP24" s="151"/>
+      <c r="BQ24" s="160"/>
       <c r="BR24" s="38"/>
       <c r="BS24" s="38"/>
       <c r="BT24" s="38"/>
@@ -33916,11 +33995,11 @@
       <c r="CG24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="CH24" s="127" t="s">
+      <c r="CH24" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="CI24" s="127"/>
-      <c r="CJ24" s="139"/>
+      <c r="CI24" s="151"/>
+      <c r="CJ24" s="160"/>
       <c r="CK24" s="38"/>
       <c r="CL24" s="38"/>
       <c r="CM24" s="38"/>
@@ -33942,11 +34021,11 @@
       <c r="CZ24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="DA24" s="127" t="s">
+      <c r="DA24" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="DB24" s="127"/>
-      <c r="DC24" s="139"/>
+      <c r="DB24" s="151"/>
+      <c r="DC24" s="160"/>
       <c r="DD24" s="38"/>
       <c r="DE24" s="38"/>
       <c r="DF24" s="38"/>
@@ -33968,11 +34047,11 @@
       <c r="DS24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="DT24" s="127" t="s">
+      <c r="DT24" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="DU24" s="127"/>
-      <c r="DV24" s="139"/>
+      <c r="DU24" s="151"/>
+      <c r="DV24" s="160"/>
       <c r="DW24" s="38"/>
       <c r="DX24" s="38"/>
       <c r="DY24" s="38"/>
@@ -34118,20 +34197,20 @@
       <c r="EE25" s="45"/>
     </row>
     <row r="26" spans="22:135">
-      <c r="V26" s="140"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
+      <c r="V26" s="161"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="151"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="37"/>
       <c r="AB26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AC26" s="127" t="s">
+      <c r="AC26" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="139"/>
+      <c r="AD26" s="151"/>
+      <c r="AE26" s="160"/>
       <c r="AF26" s="38"/>
       <c r="AG26" s="38"/>
       <c r="AH26" s="38"/>
@@ -34141,20 +34220,20 @@
       <c r="AL26" s="38"/>
       <c r="AM26" s="73"/>
       <c r="AN26" s="30"/>
-      <c r="AO26" s="140"/>
-      <c r="AP26" s="127"/>
-      <c r="AQ26" s="127"/>
+      <c r="AO26" s="161"/>
+      <c r="AP26" s="151"/>
+      <c r="AQ26" s="151"/>
       <c r="AR26" s="38"/>
       <c r="AS26" s="38"/>
       <c r="AT26" s="37"/>
       <c r="AU26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AV26" s="127" t="s">
+      <c r="AV26" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="AW26" s="127"/>
-      <c r="AX26" s="139"/>
+      <c r="AW26" s="151"/>
+      <c r="AX26" s="160"/>
       <c r="AY26" s="38"/>
       <c r="AZ26" s="38"/>
       <c r="BA26" s="38"/>
@@ -34164,20 +34243,20 @@
       <c r="BE26" s="38"/>
       <c r="BF26" s="73"/>
       <c r="BG26" s="30"/>
-      <c r="BH26" s="140"/>
-      <c r="BI26" s="127"/>
-      <c r="BJ26" s="127"/>
+      <c r="BH26" s="161"/>
+      <c r="BI26" s="151"/>
+      <c r="BJ26" s="151"/>
       <c r="BK26" s="38"/>
       <c r="BL26" s="38"/>
       <c r="BM26" s="37"/>
       <c r="BN26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="BO26" s="127" t="s">
+      <c r="BO26" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="BP26" s="127"/>
-      <c r="BQ26" s="139"/>
+      <c r="BP26" s="151"/>
+      <c r="BQ26" s="160"/>
       <c r="BR26" s="38"/>
       <c r="BS26" s="38"/>
       <c r="BT26" s="38"/>
@@ -34187,20 +34266,20 @@
       <c r="BX26" s="38"/>
       <c r="BY26" s="73"/>
       <c r="BZ26" s="30"/>
-      <c r="CA26" s="140"/>
-      <c r="CB26" s="127"/>
-      <c r="CC26" s="127"/>
+      <c r="CA26" s="161"/>
+      <c r="CB26" s="151"/>
+      <c r="CC26" s="151"/>
       <c r="CD26" s="38"/>
       <c r="CE26" s="38"/>
       <c r="CF26" s="37"/>
       <c r="CG26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="CH26" s="127" t="s">
+      <c r="CH26" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="CI26" s="127"/>
-      <c r="CJ26" s="139"/>
+      <c r="CI26" s="151"/>
+      <c r="CJ26" s="160"/>
       <c r="CK26" s="38"/>
       <c r="CL26" s="38"/>
       <c r="CM26" s="38"/>
@@ -34210,20 +34289,20 @@
       <c r="CQ26" s="38"/>
       <c r="CR26" s="73"/>
       <c r="CS26" s="30"/>
-      <c r="CT26" s="140"/>
-      <c r="CU26" s="127"/>
-      <c r="CV26" s="127"/>
+      <c r="CT26" s="161"/>
+      <c r="CU26" s="151"/>
+      <c r="CV26" s="151"/>
       <c r="CW26" s="38"/>
       <c r="CX26" s="38"/>
       <c r="CY26" s="37"/>
       <c r="CZ26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="DA26" s="127" t="s">
+      <c r="DA26" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="DB26" s="127"/>
-      <c r="DC26" s="139"/>
+      <c r="DB26" s="151"/>
+      <c r="DC26" s="160"/>
       <c r="DD26" s="38"/>
       <c r="DE26" s="38"/>
       <c r="DF26" s="38"/>
@@ -34233,20 +34312,20 @@
       <c r="DJ26" s="38"/>
       <c r="DK26" s="73"/>
       <c r="DL26" s="30"/>
-      <c r="DM26" s="140"/>
-      <c r="DN26" s="127"/>
-      <c r="DO26" s="127"/>
+      <c r="DM26" s="161"/>
+      <c r="DN26" s="151"/>
+      <c r="DO26" s="151"/>
       <c r="DP26" s="38"/>
       <c r="DQ26" s="38"/>
       <c r="DR26" s="37"/>
       <c r="DS26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="DT26" s="127" t="s">
+      <c r="DT26" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="DU26" s="127"/>
-      <c r="DV26" s="139"/>
+      <c r="DU26" s="151"/>
+      <c r="DV26" s="160"/>
       <c r="DW26" s="38"/>
       <c r="DX26" s="38"/>
       <c r="DY26" s="38"/>
@@ -34532,11 +34611,11 @@
       <c r="EE28" s="45"/>
     </row>
     <row r="29" spans="22:135">
-      <c r="V29" s="140"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
+      <c r="V29" s="161"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
       <c r="AA29" s="37"/>
       <c r="AB29" s="38"/>
       <c r="AC29" s="38">
@@ -34554,11 +34633,11 @@
       <c r="AL29" s="38"/>
       <c r="AM29" s="73"/>
       <c r="AN29" s="30"/>
-      <c r="AO29" s="127"/>
-      <c r="AP29" s="127"/>
-      <c r="AQ29" s="127"/>
-      <c r="AR29" s="127"/>
-      <c r="AS29" s="127"/>
+      <c r="AO29" s="151"/>
+      <c r="AP29" s="151"/>
+      <c r="AQ29" s="151"/>
+      <c r="AR29" s="151"/>
+      <c r="AS29" s="151"/>
       <c r="AT29" s="38"/>
       <c r="AU29" s="38"/>
       <c r="AV29" s="38">
@@ -34576,11 +34655,11 @@
       <c r="BE29" s="38"/>
       <c r="BF29" s="73"/>
       <c r="BG29" s="30"/>
-      <c r="BH29" s="140"/>
-      <c r="BI29" s="127"/>
-      <c r="BJ29" s="127"/>
-      <c r="BK29" s="127"/>
-      <c r="BL29" s="127"/>
+      <c r="BH29" s="161"/>
+      <c r="BI29" s="151"/>
+      <c r="BJ29" s="151"/>
+      <c r="BK29" s="151"/>
+      <c r="BL29" s="151"/>
       <c r="BM29" s="37"/>
       <c r="BN29" s="38"/>
       <c r="BO29" s="38">
@@ -34598,11 +34677,11 @@
       <c r="BX29" s="38"/>
       <c r="BY29" s="73"/>
       <c r="BZ29" s="30"/>
-      <c r="CA29" s="140"/>
-      <c r="CB29" s="127"/>
-      <c r="CC29" s="127"/>
-      <c r="CD29" s="127"/>
-      <c r="CE29" s="127"/>
+      <c r="CA29" s="161"/>
+      <c r="CB29" s="151"/>
+      <c r="CC29" s="151"/>
+      <c r="CD29" s="151"/>
+      <c r="CE29" s="151"/>
       <c r="CF29" s="37"/>
       <c r="CG29" s="38"/>
       <c r="CH29" s="38">
@@ -34620,11 +34699,11 @@
       <c r="CQ29" s="38"/>
       <c r="CR29" s="73"/>
       <c r="CS29" s="30"/>
-      <c r="CT29" s="140"/>
-      <c r="CU29" s="127"/>
-      <c r="CV29" s="127"/>
-      <c r="CW29" s="127"/>
-      <c r="CX29" s="127"/>
+      <c r="CT29" s="161"/>
+      <c r="CU29" s="151"/>
+      <c r="CV29" s="151"/>
+      <c r="CW29" s="151"/>
+      <c r="CX29" s="151"/>
       <c r="CY29" s="37"/>
       <c r="CZ29" s="38"/>
       <c r="DA29" s="38">
@@ -34642,11 +34721,11 @@
       <c r="DJ29" s="38"/>
       <c r="DK29" s="73"/>
       <c r="DL29" s="30"/>
-      <c r="DM29" s="140"/>
-      <c r="DN29" s="127"/>
-      <c r="DO29" s="127"/>
-      <c r="DP29" s="127"/>
-      <c r="DQ29" s="127"/>
+      <c r="DM29" s="161"/>
+      <c r="DN29" s="151"/>
+      <c r="DO29" s="151"/>
+      <c r="DP29" s="151"/>
+      <c r="DQ29" s="151"/>
       <c r="DR29" s="37"/>
       <c r="DS29" s="38"/>
       <c r="DT29" s="38">
@@ -35530,10 +35609,10 @@
       <c r="AA36" s="54">
         <v>4</v>
       </c>
-      <c r="AB36" s="141" t="s">
+      <c r="AB36" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="AC36" s="141"/>
+      <c r="AC36" s="157"/>
       <c r="AD36" s="35"/>
       <c r="AE36" s="35"/>
       <c r="AF36" s="35"/>
@@ -35557,10 +35636,10 @@
       <c r="AT36" s="54">
         <v>4</v>
       </c>
-      <c r="AU36" s="141" t="s">
+      <c r="AU36" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="AV36" s="141"/>
+      <c r="AV36" s="157"/>
       <c r="AW36" s="35"/>
       <c r="AX36" s="35"/>
       <c r="AY36" s="35"/>
@@ -35584,10 +35663,10 @@
       <c r="BM36" s="54">
         <v>4</v>
       </c>
-      <c r="BN36" s="141" t="s">
+      <c r="BN36" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="BO36" s="141"/>
+      <c r="BO36" s="157"/>
       <c r="BP36" s="35"/>
       <c r="BQ36" s="35"/>
       <c r="BR36" s="35"/>
@@ -35611,10 +35690,10 @@
       <c r="CF36" s="54">
         <v>4</v>
       </c>
-      <c r="CG36" s="141" t="s">
+      <c r="CG36" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="CH36" s="141"/>
+      <c r="CH36" s="157"/>
       <c r="CI36" s="35"/>
       <c r="CJ36" s="35"/>
       <c r="CK36" s="35"/>
@@ -35638,10 +35717,10 @@
       <c r="CY36" s="54">
         <v>4</v>
       </c>
-      <c r="CZ36" s="141" t="s">
+      <c r="CZ36" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="DA36" s="141"/>
+      <c r="DA36" s="157"/>
       <c r="DB36" s="35"/>
       <c r="DC36" s="35"/>
       <c r="DD36" s="35"/>
@@ -35665,10 +35744,10 @@
       <c r="DR36" s="54">
         <v>4</v>
       </c>
-      <c r="DS36" s="141" t="s">
+      <c r="DS36" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="DT36" s="141"/>
+      <c r="DT36" s="157"/>
       <c r="DU36" s="35"/>
       <c r="DV36" s="35"/>
       <c r="DW36" s="35"/>
@@ -35994,10 +36073,10 @@
       <c r="AA39" s="50">
         <v>5</v>
       </c>
-      <c r="AB39" s="142" t="s">
+      <c r="AB39" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="AC39" s="142"/>
+      <c r="AC39" s="155"/>
       <c r="AD39" s="38"/>
       <c r="AE39" s="38"/>
       <c r="AF39" s="38"/>
@@ -36017,10 +36096,10 @@
       <c r="AT39" s="111">
         <v>5</v>
       </c>
-      <c r="AU39" s="142" t="s">
+      <c r="AU39" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="AV39" s="142"/>
+      <c r="AV39" s="155"/>
       <c r="AW39" s="38"/>
       <c r="AX39" s="38"/>
       <c r="AY39" s="38"/>
@@ -36040,10 +36119,10 @@
       <c r="BM39" s="111">
         <v>5</v>
       </c>
-      <c r="BN39" s="142" t="s">
+      <c r="BN39" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="BO39" s="142"/>
+      <c r="BO39" s="155"/>
       <c r="BP39" s="38"/>
       <c r="BQ39" s="38"/>
       <c r="BR39" s="38"/>
@@ -36063,10 +36142,10 @@
       <c r="CF39" s="111">
         <v>5</v>
       </c>
-      <c r="CG39" s="142" t="s">
+      <c r="CG39" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="CH39" s="142"/>
+      <c r="CH39" s="155"/>
       <c r="CI39" s="38"/>
       <c r="CJ39" s="38"/>
       <c r="CK39" s="38"/>
@@ -36086,10 +36165,10 @@
       <c r="CY39" s="111">
         <v>5</v>
       </c>
-      <c r="CZ39" s="142" t="s">
+      <c r="CZ39" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="DA39" s="142"/>
+      <c r="DA39" s="155"/>
       <c r="DB39" s="38"/>
       <c r="DC39" s="38"/>
       <c r="DD39" s="38"/>
@@ -36109,10 +36188,10 @@
       <c r="DR39" s="111">
         <v>5</v>
       </c>
-      <c r="DS39" s="142" t="s">
+      <c r="DS39" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="DT39" s="142"/>
+      <c r="DT39" s="155"/>
       <c r="DU39" s="38"/>
       <c r="DV39" s="38"/>
       <c r="DW39" s="38"/>
@@ -36473,10 +36552,10 @@
       <c r="AA42" s="50">
         <v>6</v>
       </c>
-      <c r="AB42" s="142" t="s">
+      <c r="AB42" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="AC42" s="142"/>
+      <c r="AC42" s="155"/>
       <c r="AD42" s="38"/>
       <c r="AE42" s="38"/>
       <c r="AF42" s="38"/>
@@ -36501,10 +36580,10 @@
       <c r="AT42" s="50">
         <v>6</v>
       </c>
-      <c r="AU42" s="142" t="s">
+      <c r="AU42" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="AV42" s="142"/>
+      <c r="AV42" s="155"/>
       <c r="AW42" s="38"/>
       <c r="AX42" s="38"/>
       <c r="AY42" s="38"/>
@@ -36529,10 +36608,10 @@
       <c r="BM42" s="50">
         <v>6</v>
       </c>
-      <c r="BN42" s="142" t="s">
+      <c r="BN42" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="BO42" s="142"/>
+      <c r="BO42" s="155"/>
       <c r="BP42" s="38"/>
       <c r="BQ42" s="38"/>
       <c r="BR42" s="38"/>
@@ -36557,10 +36636,10 @@
       <c r="CF42" s="50">
         <v>6</v>
       </c>
-      <c r="CG42" s="142" t="s">
+      <c r="CG42" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="CH42" s="142"/>
+      <c r="CH42" s="155"/>
       <c r="CI42" s="38"/>
       <c r="CJ42" s="38"/>
       <c r="CK42" s="38"/>
@@ -36585,10 +36664,10 @@
       <c r="CY42" s="50">
         <v>6</v>
       </c>
-      <c r="CZ42" s="142" t="s">
+      <c r="CZ42" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="DA42" s="142"/>
+      <c r="DA42" s="155"/>
       <c r="DB42" s="38"/>
       <c r="DC42" s="38"/>
       <c r="DD42" s="38"/>
@@ -36613,10 +36692,10 @@
       <c r="DR42" s="50">
         <v>6</v>
       </c>
-      <c r="DS42" s="142" t="s">
+      <c r="DS42" s="155" t="s">
         <v>86</v>
       </c>
-      <c r="DT42" s="142"/>
+      <c r="DT42" s="155"/>
       <c r="DU42" s="38"/>
       <c r="DV42" s="38"/>
       <c r="DW42" s="38"/>
@@ -36977,10 +37056,10 @@
       <c r="AA45" s="50">
         <v>7</v>
       </c>
-      <c r="AB45" s="142" t="s">
+      <c r="AB45" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="AC45" s="142"/>
+      <c r="AC45" s="155"/>
       <c r="AD45" s="38"/>
       <c r="AE45" s="38"/>
       <c r="AF45" s="38"/>
@@ -37005,10 +37084,10 @@
       <c r="AT45" s="50">
         <v>7</v>
       </c>
-      <c r="AU45" s="142" t="s">
+      <c r="AU45" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="AV45" s="142"/>
+      <c r="AV45" s="155"/>
       <c r="AW45" s="38"/>
       <c r="AX45" s="38"/>
       <c r="AY45" s="38"/>
@@ -37033,10 +37112,10 @@
       <c r="BM45" s="50">
         <v>7</v>
       </c>
-      <c r="BN45" s="142" t="s">
+      <c r="BN45" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="BO45" s="142"/>
+      <c r="BO45" s="155"/>
       <c r="BP45" s="38"/>
       <c r="BQ45" s="38"/>
       <c r="BR45" s="38"/>
@@ -37061,10 +37140,10 @@
       <c r="CF45" s="50">
         <v>7</v>
       </c>
-      <c r="CG45" s="142" t="s">
+      <c r="CG45" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="CH45" s="142"/>
+      <c r="CH45" s="155"/>
       <c r="CI45" s="38"/>
       <c r="CJ45" s="38"/>
       <c r="CK45" s="38"/>
@@ -37089,10 +37168,10 @@
       <c r="CY45" s="50">
         <v>7</v>
       </c>
-      <c r="CZ45" s="142" t="s">
+      <c r="CZ45" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="DA45" s="142"/>
+      <c r="DA45" s="155"/>
       <c r="DB45" s="38"/>
       <c r="DC45" s="38"/>
       <c r="DD45" s="38"/>
@@ -37117,10 +37196,10 @@
       <c r="DR45" s="50">
         <v>7</v>
       </c>
-      <c r="DS45" s="142" t="s">
+      <c r="DS45" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="DT45" s="142"/>
+      <c r="DT45" s="155"/>
       <c r="DU45" s="38"/>
       <c r="DV45" s="38"/>
       <c r="DW45" s="38"/>
@@ -37146,11 +37225,11 @@
       <c r="Z46" s="42"/>
       <c r="AA46" s="37"/>
       <c r="AB46" s="38"/>
-      <c r="AC46" s="143" t="s">
+      <c r="AC46" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="AD46" s="143"/>
-      <c r="AE46" s="143"/>
+      <c r="AD46" s="158"/>
+      <c r="AE46" s="158"/>
       <c r="AF46" s="38"/>
       <c r="AG46" s="37"/>
       <c r="AH46" s="38"/>
@@ -37172,11 +37251,11 @@
       <c r="AS46" s="38"/>
       <c r="AT46" s="37"/>
       <c r="AU46" s="38"/>
-      <c r="AV46" s="143" t="s">
+      <c r="AV46" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="AW46" s="143"/>
-      <c r="AX46" s="143"/>
+      <c r="AW46" s="158"/>
+      <c r="AX46" s="158"/>
       <c r="AY46" s="38"/>
       <c r="AZ46" s="37"/>
       <c r="BA46" s="38"/>
@@ -37198,11 +37277,11 @@
       <c r="BL46" s="38"/>
       <c r="BM46" s="37"/>
       <c r="BN46" s="38"/>
-      <c r="BO46" s="143" t="s">
+      <c r="BO46" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="BP46" s="143"/>
-      <c r="BQ46" s="143"/>
+      <c r="BP46" s="158"/>
+      <c r="BQ46" s="158"/>
       <c r="BR46" s="38"/>
       <c r="BS46" s="37"/>
       <c r="BT46" s="38"/>
@@ -37224,11 +37303,11 @@
       <c r="CE46" s="38"/>
       <c r="CF46" s="37"/>
       <c r="CG46" s="38"/>
-      <c r="CH46" s="143" t="s">
+      <c r="CH46" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="CI46" s="143"/>
-      <c r="CJ46" s="143"/>
+      <c r="CI46" s="158"/>
+      <c r="CJ46" s="158"/>
       <c r="CK46" s="38"/>
       <c r="CL46" s="37"/>
       <c r="CM46" s="38"/>
@@ -37250,11 +37329,11 @@
       <c r="CX46" s="38"/>
       <c r="CY46" s="37"/>
       <c r="CZ46" s="38"/>
-      <c r="DA46" s="143" t="s">
+      <c r="DA46" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="DB46" s="143"/>
-      <c r="DC46" s="143"/>
+      <c r="DB46" s="158"/>
+      <c r="DC46" s="158"/>
       <c r="DD46" s="38"/>
       <c r="DE46" s="37"/>
       <c r="DF46" s="38"/>
@@ -37276,11 +37355,11 @@
       <c r="DQ46" s="38"/>
       <c r="DR46" s="37"/>
       <c r="DS46" s="38"/>
-      <c r="DT46" s="143" t="s">
+      <c r="DT46" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="DU46" s="143"/>
-      <c r="DV46" s="143"/>
+      <c r="DU46" s="158"/>
+      <c r="DV46" s="158"/>
       <c r="DW46" s="38"/>
       <c r="DX46" s="37"/>
       <c r="DY46" s="38"/>
@@ -37678,10 +37757,10 @@
       <c r="AA50" s="54">
         <v>8</v>
       </c>
-      <c r="AB50" s="141" t="s">
+      <c r="AB50" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="AC50" s="141"/>
+      <c r="AC50" s="157"/>
       <c r="AD50" s="35"/>
       <c r="AE50" s="38"/>
       <c r="AF50" s="35"/>
@@ -37701,10 +37780,10 @@
       <c r="AT50" s="54">
         <v>8</v>
       </c>
-      <c r="AU50" s="141" t="s">
+      <c r="AU50" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="AV50" s="141"/>
+      <c r="AV50" s="157"/>
       <c r="AW50" s="35"/>
       <c r="AX50" s="38"/>
       <c r="AY50" s="35"/>
@@ -37724,10 +37803,10 @@
       <c r="BM50" s="54">
         <v>8</v>
       </c>
-      <c r="BN50" s="141" t="s">
+      <c r="BN50" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="BO50" s="141"/>
+      <c r="BO50" s="157"/>
       <c r="BP50" s="35"/>
       <c r="BQ50" s="38"/>
       <c r="BR50" s="35"/>
@@ -37747,10 +37826,10 @@
       <c r="CF50" s="54">
         <v>8</v>
       </c>
-      <c r="CG50" s="141" t="s">
+      <c r="CG50" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="CH50" s="141"/>
+      <c r="CH50" s="157"/>
       <c r="CI50" s="35"/>
       <c r="CJ50" s="38"/>
       <c r="CK50" s="35"/>
@@ -37770,10 +37849,10 @@
       <c r="CY50" s="54">
         <v>8</v>
       </c>
-      <c r="CZ50" s="141" t="s">
+      <c r="CZ50" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="DA50" s="141"/>
+      <c r="DA50" s="157"/>
       <c r="DB50" s="35"/>
       <c r="DC50" s="38"/>
       <c r="DD50" s="35"/>
@@ -37793,10 +37872,10 @@
       <c r="DR50" s="54">
         <v>8</v>
       </c>
-      <c r="DS50" s="141" t="s">
+      <c r="DS50" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="DT50" s="141"/>
+      <c r="DT50" s="157"/>
       <c r="DU50" s="35"/>
       <c r="DV50" s="38"/>
       <c r="DW50" s="35"/>
@@ -38914,10 +38993,10 @@
       <c r="AA59" s="50">
         <v>9</v>
       </c>
-      <c r="AB59" s="142" t="s">
+      <c r="AB59" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="AC59" s="142"/>
+      <c r="AC59" s="155"/>
       <c r="AD59" s="35"/>
       <c r="AE59" s="38"/>
       <c r="AF59" s="38"/>
@@ -38937,10 +39016,10 @@
       <c r="AT59" s="50">
         <v>9</v>
       </c>
-      <c r="AU59" s="142" t="s">
+      <c r="AU59" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="AV59" s="142"/>
+      <c r="AV59" s="155"/>
       <c r="AW59" s="35"/>
       <c r="AX59" s="38"/>
       <c r="AY59" s="38"/>
@@ -38960,10 +39039,10 @@
       <c r="BM59" s="50">
         <v>9</v>
       </c>
-      <c r="BN59" s="142" t="s">
+      <c r="BN59" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="BO59" s="142"/>
+      <c r="BO59" s="155"/>
       <c r="BP59" s="35"/>
       <c r="BQ59" s="38"/>
       <c r="BR59" s="38"/>
@@ -38983,10 +39062,10 @@
       <c r="CF59" s="50">
         <v>9</v>
       </c>
-      <c r="CG59" s="142" t="s">
+      <c r="CG59" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="CH59" s="142"/>
+      <c r="CH59" s="155"/>
       <c r="CI59" s="35"/>
       <c r="CJ59" s="38"/>
       <c r="CK59" s="38"/>
@@ -39006,10 +39085,10 @@
       <c r="CY59" s="50">
         <v>9</v>
       </c>
-      <c r="CZ59" s="142" t="s">
+      <c r="CZ59" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="DA59" s="142"/>
+      <c r="DA59" s="155"/>
       <c r="DB59" s="35"/>
       <c r="DC59" s="38"/>
       <c r="DD59" s="38"/>
@@ -39029,10 +39108,10 @@
       <c r="DR59" s="50">
         <v>9</v>
       </c>
-      <c r="DS59" s="142" t="s">
+      <c r="DS59" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="DT59" s="142"/>
+      <c r="DT59" s="155"/>
       <c r="DU59" s="35"/>
       <c r="DV59" s="38"/>
       <c r="DW59" s="38"/>
@@ -41800,20 +41879,20 @@
       <c r="AA80" s="56">
         <v>12</v>
       </c>
-      <c r="AB80" s="137" t="s">
+      <c r="AB80" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="AC80" s="137"/>
+      <c r="AC80" s="156"/>
       <c r="AD80" s="38"/>
       <c r="AE80" s="38"/>
       <c r="AF80" s="38"/>
       <c r="AG80" s="60">
         <v>13</v>
       </c>
-      <c r="AH80" s="137" t="s">
+      <c r="AH80" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="AI80" s="137"/>
+      <c r="AI80" s="156"/>
       <c r="AJ80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41829,20 +41908,20 @@
       <c r="AT80" s="56">
         <v>12</v>
       </c>
-      <c r="AU80" s="137" t="s">
+      <c r="AU80" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="AV80" s="137"/>
+      <c r="AV80" s="156"/>
       <c r="AW80" s="38"/>
       <c r="AX80" s="38"/>
       <c r="AY80" s="38"/>
       <c r="AZ80" s="60">
         <v>13</v>
       </c>
-      <c r="BA80" s="137" t="s">
+      <c r="BA80" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="BB80" s="137"/>
+      <c r="BB80" s="156"/>
       <c r="BC80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41858,20 +41937,20 @@
       <c r="BM80" s="56">
         <v>12</v>
       </c>
-      <c r="BN80" s="137" t="s">
+      <c r="BN80" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="BO80" s="137"/>
+      <c r="BO80" s="156"/>
       <c r="BP80" s="38"/>
       <c r="BQ80" s="38"/>
       <c r="BR80" s="38"/>
       <c r="BS80" s="60">
         <v>13</v>
       </c>
-      <c r="BT80" s="137" t="s">
+      <c r="BT80" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="BU80" s="137"/>
+      <c r="BU80" s="156"/>
       <c r="BV80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41887,20 +41966,20 @@
       <c r="CF80" s="56">
         <v>12</v>
       </c>
-      <c r="CG80" s="137" t="s">
+      <c r="CG80" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="CH80" s="137"/>
+      <c r="CH80" s="156"/>
       <c r="CI80" s="38"/>
       <c r="CJ80" s="38"/>
       <c r="CK80" s="38"/>
       <c r="CL80" s="60">
         <v>13</v>
       </c>
-      <c r="CM80" s="137" t="s">
+      <c r="CM80" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="CN80" s="137"/>
+      <c r="CN80" s="156"/>
       <c r="CO80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41916,20 +41995,20 @@
       <c r="CY80" s="56">
         <v>12</v>
       </c>
-      <c r="CZ80" s="137" t="s">
+      <c r="CZ80" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="DA80" s="137"/>
+      <c r="DA80" s="156"/>
       <c r="DB80" s="38"/>
       <c r="DC80" s="38"/>
       <c r="DD80" s="38"/>
       <c r="DE80" s="60">
         <v>13</v>
       </c>
-      <c r="DF80" s="137" t="s">
+      <c r="DF80" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="DG80" s="137"/>
+      <c r="DG80" s="156"/>
       <c r="DH80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41945,20 +42024,20 @@
       <c r="DR80" s="56">
         <v>12</v>
       </c>
-      <c r="DS80" s="137" t="s">
+      <c r="DS80" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="DT80" s="137"/>
+      <c r="DT80" s="156"/>
       <c r="DU80" s="38"/>
       <c r="DV80" s="38"/>
       <c r="DW80" s="38"/>
       <c r="DX80" s="60">
         <v>13</v>
       </c>
-      <c r="DY80" s="137" t="s">
+      <c r="DY80" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="DZ80" s="137"/>
+      <c r="DZ80" s="156"/>
       <c r="EA80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41975,12 +42054,12 @@
       <c r="Z81" s="38"/>
       <c r="AA81" s="38"/>
       <c r="AB81" s="38"/>
-      <c r="AC81" s="127" t="s">
+      <c r="AC81" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="AD81" s="127"/>
-      <c r="AE81" s="127"/>
-      <c r="AF81" s="127"/>
+      <c r="AD81" s="151"/>
+      <c r="AE81" s="151"/>
+      <c r="AF81" s="151"/>
       <c r="AG81" s="38"/>
       <c r="AH81" s="38"/>
       <c r="AI81" s="38" t="s">
@@ -41998,12 +42077,12 @@
       <c r="AS81" s="38"/>
       <c r="AT81" s="38"/>
       <c r="AU81" s="38"/>
-      <c r="AV81" s="127" t="s">
+      <c r="AV81" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="AW81" s="127"/>
-      <c r="AX81" s="127"/>
-      <c r="AY81" s="127"/>
+      <c r="AW81" s="151"/>
+      <c r="AX81" s="151"/>
+      <c r="AY81" s="151"/>
       <c r="AZ81" s="38"/>
       <c r="BA81" s="38"/>
       <c r="BB81" s="38" t="s">
@@ -42021,12 +42100,12 @@
       <c r="BL81" s="38"/>
       <c r="BM81" s="38"/>
       <c r="BN81" s="38"/>
-      <c r="BO81" s="127" t="s">
+      <c r="BO81" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="BP81" s="127"/>
-      <c r="BQ81" s="127"/>
-      <c r="BR81" s="127"/>
+      <c r="BP81" s="151"/>
+      <c r="BQ81" s="151"/>
+      <c r="BR81" s="151"/>
       <c r="BS81" s="38"/>
       <c r="BT81" s="38"/>
       <c r="BU81" s="38" t="s">
@@ -42044,12 +42123,12 @@
       <c r="CE81" s="38"/>
       <c r="CF81" s="38"/>
       <c r="CG81" s="38"/>
-      <c r="CH81" s="127" t="s">
+      <c r="CH81" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="CI81" s="127"/>
-      <c r="CJ81" s="127"/>
-      <c r="CK81" s="127"/>
+      <c r="CI81" s="151"/>
+      <c r="CJ81" s="151"/>
+      <c r="CK81" s="151"/>
       <c r="CL81" s="38"/>
       <c r="CM81" s="38"/>
       <c r="CN81" s="38" t="s">
@@ -42067,12 +42146,12 @@
       <c r="CX81" s="38"/>
       <c r="CY81" s="38"/>
       <c r="CZ81" s="38"/>
-      <c r="DA81" s="127" t="s">
+      <c r="DA81" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="DB81" s="127"/>
-      <c r="DC81" s="127"/>
-      <c r="DD81" s="127"/>
+      <c r="DB81" s="151"/>
+      <c r="DC81" s="151"/>
+      <c r="DD81" s="151"/>
       <c r="DE81" s="38"/>
       <c r="DF81" s="38"/>
       <c r="DG81" s="38" t="s">
@@ -42090,12 +42169,12 @@
       <c r="DQ81" s="38"/>
       <c r="DR81" s="38"/>
       <c r="DS81" s="38"/>
-      <c r="DT81" s="127" t="s">
+      <c r="DT81" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="DU81" s="127"/>
-      <c r="DV81" s="127"/>
-      <c r="DW81" s="127"/>
+      <c r="DU81" s="151"/>
+      <c r="DV81" s="151"/>
+      <c r="DW81" s="151"/>
       <c r="DX81" s="38"/>
       <c r="DY81" s="38"/>
       <c r="DZ81" s="38" t="s">
@@ -43978,10 +44057,10 @@
       <c r="AA95" s="28">
         <v>15</v>
       </c>
-      <c r="AB95" s="142" t="s">
+      <c r="AB95" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="AC95" s="142"/>
+      <c r="AC95" s="155"/>
       <c r="AD95" s="38"/>
       <c r="AE95" s="38"/>
       <c r="AF95" s="38"/>
@@ -44001,10 +44080,10 @@
       <c r="AT95" s="28">
         <v>15</v>
       </c>
-      <c r="AU95" s="142" t="s">
+      <c r="AU95" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="AV95" s="142"/>
+      <c r="AV95" s="155"/>
       <c r="AW95" s="38"/>
       <c r="AX95" s="38"/>
       <c r="AY95" s="38"/>
@@ -44024,10 +44103,10 @@
       <c r="BM95" s="28">
         <v>15</v>
       </c>
-      <c r="BN95" s="142" t="s">
+      <c r="BN95" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="BO95" s="142"/>
+      <c r="BO95" s="155"/>
       <c r="BP95" s="38"/>
       <c r="BQ95" s="38"/>
       <c r="BR95" s="38"/>
@@ -44047,10 +44126,10 @@
       <c r="CF95" s="28">
         <v>15</v>
       </c>
-      <c r="CG95" s="142" t="s">
+      <c r="CG95" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="CH95" s="142"/>
+      <c r="CH95" s="155"/>
       <c r="CI95" s="38"/>
       <c r="CJ95" s="38"/>
       <c r="CK95" s="38"/>
@@ -44070,10 +44149,10 @@
       <c r="CY95" s="28">
         <v>15</v>
       </c>
-      <c r="CZ95" s="142" t="s">
+      <c r="CZ95" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="DA95" s="142"/>
+      <c r="DA95" s="155"/>
       <c r="DB95" s="38"/>
       <c r="DC95" s="38"/>
       <c r="DD95" s="38"/>
@@ -44093,10 +44172,10 @@
       <c r="DR95" s="28">
         <v>15</v>
       </c>
-      <c r="DS95" s="142" t="s">
+      <c r="DS95" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="DT95" s="142"/>
+      <c r="DT95" s="155"/>
       <c r="DU95" s="38"/>
       <c r="DV95" s="38"/>
       <c r="DW95" s="38"/>
@@ -45099,19 +45178,19 @@
       <c r="AB103" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AC103" s="155">
+      <c r="AC103" s="137">
         <f>'BPTT hidden ke input'!O36</f>
         <v>-0.21354602441433568</v>
       </c>
-      <c r="AD103" s="155">
+      <c r="AD103" s="137">
         <f>'BPTT hidden ke input'!P36</f>
         <v>-2.135460244143357E-9</v>
       </c>
-      <c r="AE103" s="155">
+      <c r="AE103" s="137">
         <f>'BPTT hidden ke input'!Q36</f>
         <v>-2.3404599589224872E-2</v>
       </c>
-      <c r="AF103" s="155">
+      <c r="AF103" s="137">
         <f>'BPTT hidden ke input'!R36</f>
         <v>5.0725089420321619E-2</v>
       </c>
@@ -45123,7 +45202,7 @@
       <c r="AL103" s="45"/>
       <c r="AM103" s="88"/>
       <c r="AN103" s="65"/>
-      <c r="AO103" s="156"/>
+      <c r="AO103" s="138"/>
       <c r="AP103" s="45"/>
       <c r="AQ103" s="45"/>
       <c r="AR103" s="45"/>
@@ -45132,17 +45211,17 @@
       <c r="AU103" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AV103" s="155">
+      <c r="AV103" s="137">
         <f t="array" ref="AV103:AY106">MMULT(AV82:AV85,AT98:AW98)</f>
         <v>-0.32833561467687378</v>
       </c>
-      <c r="AW103" s="155">
+      <c r="AW103" s="137">
         <v>-3.2833561467687378E-9</v>
       </c>
-      <c r="AX103" s="155">
+      <c r="AX103" s="137">
         <v>-4.5604554379654737E-2</v>
       </c>
-      <c r="AY103" s="155">
+      <c r="AY103" s="137">
         <v>7.5058581929849849E-2</v>
       </c>
       <c r="AZ103" s="45"/>
@@ -45153,7 +45232,7 @@
       <c r="BE103" s="45"/>
       <c r="BF103" s="88"/>
       <c r="BG103" s="65"/>
-      <c r="BH103" s="156"/>
+      <c r="BH103" s="138"/>
       <c r="BI103" s="45"/>
       <c r="BJ103" s="45"/>
       <c r="BK103" s="45"/>
@@ -45162,17 +45241,17 @@
       <c r="BN103" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="BO103" s="155">
+      <c r="BO103" s="137">
         <f t="array" ref="BO103:BR106">MMULT(BO82:BO85,BM98:BP98)</f>
         <v>-0.38717221809025804</v>
       </c>
-      <c r="BP103" s="155">
+      <c r="BP103" s="137">
         <v>-3.8717221809025807E-9</v>
       </c>
-      <c r="BQ103" s="155">
+      <c r="BQ103" s="137">
         <v>-4.3345464123105019E-2</v>
       </c>
-      <c r="BR103" s="155">
+      <c r="BR103" s="137">
         <v>8.1651244710060883E-2</v>
       </c>
       <c r="BS103" s="45"/>
@@ -45183,7 +45262,7 @@
       <c r="BX103" s="45"/>
       <c r="BY103" s="88"/>
       <c r="BZ103" s="65"/>
-      <c r="CA103" s="156"/>
+      <c r="CA103" s="138"/>
       <c r="CB103" s="45"/>
       <c r="CC103" s="45"/>
       <c r="CD103" s="45"/>
@@ -45192,17 +45271,17 @@
       <c r="CG103" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="CH103" s="155">
+      <c r="CH103" s="137">
         <f t="array" ref="CH103:CK106">MMULT(CH82:CH85,CF98:CI98)</f>
         <v>-0.42013836927864595</v>
       </c>
-      <c r="CI103" s="155">
+      <c r="CI103" s="137">
         <v>-4.2013836927864596E-9</v>
       </c>
-      <c r="CJ103" s="155">
+      <c r="CJ103" s="137">
         <v>-3.6046399456812955E-2</v>
       </c>
-      <c r="CK103" s="155">
+      <c r="CK103" s="137">
         <v>7.5488833963578791E-2</v>
       </c>
       <c r="CL103" s="45"/>
@@ -45213,7 +45292,7 @@
       <c r="CQ103" s="45"/>
       <c r="CR103" s="88"/>
       <c r="CS103" s="65"/>
-      <c r="CT103" s="156"/>
+      <c r="CT103" s="138"/>
       <c r="CU103" s="45"/>
       <c r="CV103" s="45"/>
       <c r="CW103" s="45"/>
@@ -45222,17 +45301,17 @@
       <c r="CZ103" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="DA103" s="155">
+      <c r="DA103" s="137">
         <f t="array" ref="DA103:DD106">MMULT(DA82:DA85,CY98:DB98)</f>
         <v>-0.44581181586925966</v>
       </c>
-      <c r="DB103" s="155">
+      <c r="DB103" s="137">
         <v>-4.4581181586925968E-9</v>
       </c>
-      <c r="DC103" s="155">
+      <c r="DC103" s="137">
         <v>-7.3582843639110954E-2</v>
       </c>
-      <c r="DD103" s="155">
+      <c r="DD103" s="137">
         <v>5.2683726026660438E-2</v>
       </c>
       <c r="DE103" s="45"/>
@@ -45243,7 +45322,7 @@
       <c r="DJ103" s="45"/>
       <c r="DK103" s="88"/>
       <c r="DL103" s="65"/>
-      <c r="DM103" s="156"/>
+      <c r="DM103" s="138"/>
       <c r="DN103" s="45"/>
       <c r="DO103" s="45"/>
       <c r="DP103" s="45"/>
@@ -45252,17 +45331,17 @@
       <c r="DS103" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="DT103" s="155">
+      <c r="DT103" s="137">
         <f t="array" ref="DT103:DW106">MMULT(DT82:DT85,DR98:DU98)</f>
         <v>-0.47268250344232254</v>
       </c>
-      <c r="DU103" s="155">
+      <c r="DU103" s="137">
         <v>-4.7268250344232258E-9</v>
       </c>
-      <c r="DV103" s="155">
+      <c r="DV103" s="137">
         <v>-0.12994750486996626</v>
       </c>
-      <c r="DW103" s="155">
+      <c r="DW103" s="137">
         <v>0</v>
       </c>
       <c r="DX103" s="45"/>
@@ -45282,19 +45361,19 @@
       <c r="Z104" s="38"/>
       <c r="AA104" s="38"/>
       <c r="AB104" s="45"/>
-      <c r="AC104" s="155">
+      <c r="AC104" s="137">
         <f>'BPTT hidden ke input'!O37</f>
         <v>1.9904112184216772E-2</v>
       </c>
-      <c r="AD104" s="155">
+      <c r="AD104" s="137">
         <f>'BPTT hidden ke input'!P37</f>
         <v>1.9904112184216772E-10</v>
       </c>
-      <c r="AE104" s="155">
+      <c r="AE104" s="137">
         <f>'BPTT hidden ke input'!Q37</f>
         <v>2.1814865302607457E-3</v>
       </c>
-      <c r="AF104" s="155">
+      <c r="AF104" s="137">
         <f>'BPTT hidden ke input'!R37</f>
         <v>-4.7279637874107399E-3</v>
       </c>
@@ -45306,23 +45385,23 @@
       <c r="AL104" s="45"/>
       <c r="AM104" s="88"/>
       <c r="AN104" s="65"/>
-      <c r="AO104" s="156"/>
+      <c r="AO104" s="138"/>
       <c r="AP104" s="45"/>
       <c r="AQ104" s="45"/>
       <c r="AR104" s="45"/>
       <c r="AS104" s="45"/>
       <c r="AT104" s="45"/>
       <c r="AU104" s="45"/>
-      <c r="AV104" s="155">
+      <c r="AV104" s="137">
         <v>3.0526025234106666E-2</v>
       </c>
-      <c r="AW104" s="155">
+      <c r="AW104" s="137">
         <v>3.0526025234106668E-10</v>
       </c>
-      <c r="AX104" s="155">
+      <c r="AX104" s="137">
         <v>4.2399475279389608E-3</v>
       </c>
-      <c r="AY104" s="155">
+      <c r="AY104" s="137">
         <v>-6.9783479574146911E-3</v>
       </c>
       <c r="AZ104" s="45"/>
@@ -45333,23 +45412,23 @@
       <c r="BE104" s="45"/>
       <c r="BF104" s="88"/>
       <c r="BG104" s="65"/>
-      <c r="BH104" s="156"/>
+      <c r="BH104" s="138"/>
       <c r="BI104" s="45"/>
       <c r="BJ104" s="45"/>
       <c r="BK104" s="45"/>
       <c r="BL104" s="45"/>
       <c r="BM104" s="45"/>
       <c r="BN104" s="45"/>
-      <c r="BO104" s="155">
+      <c r="BO104" s="137">
         <v>3.5364024821476464E-2</v>
       </c>
-      <c r="BP104" s="155">
+      <c r="BP104" s="137">
         <v>3.5364024821476464E-10</v>
       </c>
-      <c r="BQ104" s="155">
+      <c r="BQ104" s="137">
         <v>3.9591427213162261E-3</v>
       </c>
-      <c r="BR104" s="155">
+      <c r="BR104" s="137">
         <v>-7.4579644657197502E-3</v>
       </c>
       <c r="BS104" s="45"/>
@@ -45360,23 +45439,23 @@
       <c r="BX104" s="45"/>
       <c r="BY104" s="88"/>
       <c r="BZ104" s="65"/>
-      <c r="CA104" s="156"/>
+      <c r="CA104" s="138"/>
       <c r="CB104" s="45"/>
       <c r="CC104" s="45"/>
       <c r="CD104" s="45"/>
       <c r="CE104" s="45"/>
       <c r="CF104" s="45"/>
       <c r="CG104" s="45"/>
-      <c r="CH104" s="155">
+      <c r="CH104" s="137">
         <v>3.730361074704458E-2</v>
       </c>
-      <c r="CI104" s="155">
+      <c r="CI104" s="137">
         <v>3.7303610747044578E-10</v>
       </c>
-      <c r="CJ104" s="155">
+      <c r="CJ104" s="137">
         <v>3.2005190491840511E-3</v>
       </c>
-      <c r="CK104" s="155">
+      <c r="CK104" s="137">
         <v>-6.7025682104696763E-3</v>
       </c>
       <c r="CL104" s="45"/>
@@ -45387,23 +45466,23 @@
       <c r="CQ104" s="45"/>
       <c r="CR104" s="88"/>
       <c r="CS104" s="65"/>
-      <c r="CT104" s="156"/>
+      <c r="CT104" s="138"/>
       <c r="CU104" s="45"/>
       <c r="CV104" s="45"/>
       <c r="CW104" s="45"/>
       <c r="CX104" s="45"/>
       <c r="CY104" s="45"/>
       <c r="CZ104" s="45"/>
-      <c r="DA104" s="155">
+      <c r="DA104" s="137">
         <v>3.810405245689346E-2</v>
       </c>
-      <c r="DB104" s="155">
+      <c r="DB104" s="137">
         <v>3.8104052456893459E-10</v>
       </c>
-      <c r="DC104" s="155">
+      <c r="DC104" s="137">
         <v>6.2892109050208004E-3</v>
       </c>
-      <c r="DD104" s="155">
+      <c r="DD104" s="137">
         <v>-4.5029391072335069E-3</v>
       </c>
       <c r="DE104" s="45"/>
@@ -45414,23 +45493,23 @@
       <c r="DJ104" s="45"/>
       <c r="DK104" s="88"/>
       <c r="DL104" s="65"/>
-      <c r="DM104" s="156"/>
+      <c r="DM104" s="138"/>
       <c r="DN104" s="45"/>
       <c r="DO104" s="45"/>
       <c r="DP104" s="45"/>
       <c r="DQ104" s="45"/>
       <c r="DR104" s="45"/>
       <c r="DS104" s="45"/>
-      <c r="DT104" s="155">
+      <c r="DT104" s="137">
         <v>3.7068018625051075E-2</v>
       </c>
-      <c r="DU104" s="155">
+      <c r="DU104" s="137">
         <v>3.7068018625051077E-10</v>
       </c>
-      <c r="DV104" s="155">
+      <c r="DV104" s="137">
         <v>1.0190553903983436E-2</v>
       </c>
-      <c r="DW104" s="155">
+      <c r="DW104" s="137">
         <v>0</v>
       </c>
       <c r="DX104" s="45"/>
@@ -45450,19 +45529,19 @@
       <c r="Z105" s="38"/>
       <c r="AA105" s="38"/>
       <c r="AB105" s="45"/>
-      <c r="AC105" s="155">
+      <c r="AC105" s="137">
         <f>'BPTT hidden ke input'!O38</f>
         <v>2.6894179590235073E-2</v>
       </c>
-      <c r="AD105" s="155">
+      <c r="AD105" s="137">
         <f>'BPTT hidden ke input'!P38</f>
         <v>2.6894179590235074E-10</v>
       </c>
-      <c r="AE105" s="155">
+      <c r="AE105" s="137">
         <f>'BPTT hidden ke input'!Q38</f>
         <v>2.9475964552206383E-3</v>
       </c>
-      <c r="AF105" s="155">
+      <c r="AF105" s="137">
         <f>'BPTT hidden ke input'!R38</f>
         <v>-6.3883636716829516E-3</v>
       </c>
@@ -45474,23 +45553,23 @@
       <c r="AL105" s="45"/>
       <c r="AM105" s="88"/>
       <c r="AN105" s="65"/>
-      <c r="AO105" s="156"/>
+      <c r="AO105" s="138"/>
       <c r="AP105" s="45"/>
       <c r="AQ105" s="45"/>
       <c r="AR105" s="45"/>
       <c r="AS105" s="45"/>
       <c r="AT105" s="45"/>
       <c r="AU105" s="45"/>
-      <c r="AV105" s="155">
+      <c r="AV105" s="137">
         <v>4.0136482556054683E-2</v>
       </c>
-      <c r="AW105" s="155">
+      <c r="AW105" s="137">
         <v>4.0136482556054684E-10</v>
       </c>
-      <c r="AX105" s="155">
+      <c r="AX105" s="137">
         <v>5.5748030963288118E-3</v>
       </c>
-      <c r="AY105" s="155">
+      <c r="AY105" s="137">
         <v>-9.1753295397893689E-3</v>
       </c>
       <c r="AZ105" s="45"/>
@@ -45501,23 +45580,23 @@
       <c r="BE105" s="45"/>
       <c r="BF105" s="88"/>
       <c r="BG105" s="65"/>
-      <c r="BH105" s="156"/>
+      <c r="BH105" s="138"/>
       <c r="BI105" s="45"/>
       <c r="BJ105" s="45"/>
       <c r="BK105" s="45"/>
       <c r="BL105" s="45"/>
       <c r="BM105" s="45"/>
       <c r="BN105" s="45"/>
-      <c r="BO105" s="155">
+      <c r="BO105" s="137">
         <v>4.3770783322686947E-2</v>
       </c>
-      <c r="BP105" s="155">
+      <c r="BP105" s="137">
         <v>4.377078332268695E-10</v>
       </c>
-      <c r="BQ105" s="155">
+      <c r="BQ105" s="137">
         <v>4.9003126503034322E-3</v>
       </c>
-      <c r="BR105" s="155">
+      <c r="BR105" s="137">
         <v>-9.2308765279191674E-3</v>
       </c>
       <c r="BS105" s="45"/>
@@ -45528,23 +45607,23 @@
       <c r="BX105" s="45"/>
       <c r="BY105" s="88"/>
       <c r="BZ105" s="65"/>
-      <c r="CA105" s="156"/>
+      <c r="CA105" s="138"/>
       <c r="CB105" s="45"/>
       <c r="CC105" s="45"/>
       <c r="CD105" s="45"/>
       <c r="CE105" s="45"/>
       <c r="CF105" s="45"/>
       <c r="CG105" s="45"/>
-      <c r="CH105" s="155">
+      <c r="CH105" s="137">
         <v>3.9555688542212732E-2</v>
       </c>
-      <c r="CI105" s="155">
+      <c r="CI105" s="137">
         <v>3.9555688542212733E-10</v>
       </c>
-      <c r="CJ105" s="155">
+      <c r="CJ105" s="137">
         <v>3.3937394302500081E-3</v>
       </c>
-      <c r="CK105" s="155">
+      <c r="CK105" s="137">
         <v>-7.1072128208736329E-3</v>
       </c>
       <c r="CL105" s="45"/>
@@ -45555,23 +45634,23 @@
       <c r="CQ105" s="45"/>
       <c r="CR105" s="88"/>
       <c r="CS105" s="65"/>
-      <c r="CT105" s="156"/>
+      <c r="CT105" s="138"/>
       <c r="CU105" s="45"/>
       <c r="CV105" s="45"/>
       <c r="CW105" s="45"/>
       <c r="CX105" s="45"/>
       <c r="CY105" s="45"/>
       <c r="CZ105" s="45"/>
-      <c r="DA105" s="155">
+      <c r="DA105" s="137">
         <v>2.7128906643012436E-2</v>
       </c>
-      <c r="DB105" s="155">
+      <c r="DB105" s="137">
         <v>2.7128906643012437E-10</v>
       </c>
-      <c r="DC105" s="155">
+      <c r="DC105" s="137">
         <v>4.4777236146613074E-3</v>
       </c>
-      <c r="DD105" s="155">
+      <c r="DD105" s="137">
         <v>-3.2059533509593272E-3</v>
       </c>
       <c r="DE105" s="45"/>
@@ -45582,23 +45661,23 @@
       <c r="DJ105" s="45"/>
       <c r="DK105" s="88"/>
       <c r="DL105" s="65"/>
-      <c r="DM105" s="156"/>
+      <c r="DM105" s="138"/>
       <c r="DN105" s="45"/>
       <c r="DO105" s="45"/>
       <c r="DP105" s="45"/>
       <c r="DQ105" s="45"/>
       <c r="DR105" s="45"/>
       <c r="DS105" s="45"/>
-      <c r="DT105" s="155">
+      <c r="DT105" s="137">
         <v>0</v>
       </c>
-      <c r="DU105" s="155">
+      <c r="DU105" s="137">
         <v>0</v>
       </c>
-      <c r="DV105" s="155">
+      <c r="DV105" s="137">
         <v>0</v>
       </c>
-      <c r="DW105" s="155">
+      <c r="DW105" s="137">
         <v>0</v>
       </c>
       <c r="DX105" s="45"/>
@@ -45618,19 +45697,19 @@
       <c r="Z106" s="38"/>
       <c r="AA106" s="38"/>
       <c r="AB106" s="45"/>
-      <c r="AC106" s="155">
+      <c r="AC106" s="137">
         <f>'BPTT hidden ke input'!O39</f>
         <v>3.0434795768048226E-2</v>
       </c>
-      <c r="AD106" s="155">
+      <c r="AD106" s="137">
         <f>'BPTT hidden ke input'!P39</f>
         <v>3.0434795768048227E-10</v>
       </c>
-      <c r="AE106" s="155">
+      <c r="AE106" s="137">
         <f>'BPTT hidden ke input'!Q39</f>
         <v>3.3356472474005265E-3</v>
       </c>
-      <c r="AF106" s="155">
+      <c r="AF106" s="137">
         <f>'BPTT hidden ke input'!R39</f>
         <v>-7.2293911397202024E-3</v>
       </c>
@@ -45642,23 +45721,23 @@
       <c r="AL106" s="45"/>
       <c r="AM106" s="88"/>
       <c r="AN106" s="65"/>
-      <c r="AO106" s="156"/>
+      <c r="AO106" s="138"/>
       <c r="AP106" s="45"/>
       <c r="AQ106" s="45"/>
       <c r="AR106" s="45"/>
       <c r="AS106" s="45"/>
       <c r="AT106" s="45"/>
       <c r="AU106" s="45"/>
-      <c r="AV106" s="155">
+      <c r="AV106" s="137">
         <v>3.2460304645557839E-2</v>
       </c>
-      <c r="AW106" s="155">
+      <c r="AW106" s="137">
         <v>3.2460304645557842E-10</v>
       </c>
-      <c r="AX106" s="155">
+      <c r="AX106" s="137">
         <v>4.5086115005993259E-3</v>
       </c>
-      <c r="AY106" s="155">
+      <c r="AY106" s="137">
         <v>-7.4205304779509122E-3</v>
       </c>
       <c r="AZ106" s="45"/>
@@ -45669,23 +45748,23 @@
       <c r="BE106" s="45"/>
       <c r="BF106" s="88"/>
       <c r="BG106" s="65"/>
-      <c r="BH106" s="156"/>
+      <c r="BH106" s="138"/>
       <c r="BI106" s="45"/>
       <c r="BJ106" s="45"/>
       <c r="BK106" s="45"/>
       <c r="BL106" s="45"/>
       <c r="BM106" s="45"/>
       <c r="BN106" s="45"/>
-      <c r="BO106" s="155">
+      <c r="BO106" s="137">
         <v>3.3130112178899759E-2</v>
       </c>
-      <c r="BP106" s="155">
+      <c r="BP106" s="137">
         <v>3.313011217889976E-10</v>
       </c>
-      <c r="BQ106" s="155">
+      <c r="BQ106" s="137">
         <v>3.7090473483047614E-3</v>
       </c>
-      <c r="BR106" s="155">
+      <c r="BR106" s="137">
         <v>-6.9868517687921841E-3</v>
       </c>
       <c r="BS106" s="45"/>
@@ -45696,23 +45775,23 @@
       <c r="BX106" s="45"/>
       <c r="BY106" s="88"/>
       <c r="BZ106" s="65"/>
-      <c r="CA106" s="156"/>
+      <c r="CA106" s="138"/>
       <c r="CB106" s="45"/>
       <c r="CC106" s="45"/>
       <c r="CD106" s="45"/>
       <c r="CE106" s="45"/>
       <c r="CF106" s="45"/>
       <c r="CG106" s="45"/>
-      <c r="CH106" s="155">
+      <c r="CH106" s="137">
         <v>3.2088251908660693E-2</v>
       </c>
-      <c r="CI106" s="155">
+      <c r="CI106" s="137">
         <v>3.2088251908660694E-10</v>
       </c>
-      <c r="CJ106" s="155">
+      <c r="CJ106" s="137">
         <v>2.7530595412086612E-3</v>
       </c>
-      <c r="CK106" s="155">
+      <c r="CK106" s="137">
         <v>-5.7654927462905594E-3</v>
       </c>
       <c r="CL106" s="45"/>
@@ -45723,23 +45802,23 @@
       <c r="CQ106" s="45"/>
       <c r="CR106" s="88"/>
       <c r="CS106" s="65"/>
-      <c r="CT106" s="156"/>
+      <c r="CT106" s="138"/>
       <c r="CU106" s="45"/>
       <c r="CV106" s="45"/>
       <c r="CW106" s="45"/>
       <c r="CX106" s="45"/>
       <c r="CY106" s="45"/>
       <c r="CZ106" s="45"/>
-      <c r="DA106" s="155">
+      <c r="DA106" s="137">
         <v>2.692506350390134E-2</v>
       </c>
-      <c r="DB106" s="155">
+      <c r="DB106" s="137">
         <v>2.6925063503901342E-10</v>
       </c>
-      <c r="DC106" s="155">
+      <c r="DC106" s="137">
         <v>4.4440785713982184E-3</v>
       </c>
-      <c r="DD106" s="155">
+      <c r="DD106" s="137">
         <v>-3.1818642270037322E-3</v>
       </c>
       <c r="DE106" s="45"/>
@@ -45750,23 +45829,23 @@
       <c r="DJ106" s="45"/>
       <c r="DK106" s="88"/>
       <c r="DL106" s="65"/>
-      <c r="DM106" s="156"/>
+      <c r="DM106" s="138"/>
       <c r="DN106" s="45"/>
       <c r="DO106" s="45"/>
       <c r="DP106" s="45"/>
       <c r="DQ106" s="45"/>
       <c r="DR106" s="45"/>
       <c r="DS106" s="45"/>
-      <c r="DT106" s="155">
+      <c r="DT106" s="137">
         <v>1.7462904283222426E-2</v>
       </c>
-      <c r="DU106" s="155">
+      <c r="DU106" s="137">
         <v>1.7462904283222427E-10</v>
       </c>
-      <c r="DV106" s="155">
+      <c r="DV106" s="137">
         <v>4.8008141254686811E-3</v>
       </c>
-      <c r="DW106" s="155">
+      <c r="DW106" s="137">
         <v>0</v>
       </c>
       <c r="DX106" s="45"/>
@@ -45785,112 +45864,112 @@
       <c r="Y107" s="78"/>
       <c r="Z107" s="78"/>
       <c r="AA107" s="78"/>
-      <c r="AB107" s="157"/>
-      <c r="AC107" s="157"/>
-      <c r="AD107" s="157"/>
-      <c r="AE107" s="157"/>
-      <c r="AF107" s="157"/>
-      <c r="AG107" s="157"/>
-      <c r="AH107" s="157"/>
-      <c r="AI107" s="157"/>
-      <c r="AJ107" s="157"/>
-      <c r="AK107" s="157"/>
-      <c r="AL107" s="157"/>
+      <c r="AB107" s="139"/>
+      <c r="AC107" s="139"/>
+      <c r="AD107" s="139"/>
+      <c r="AE107" s="139"/>
+      <c r="AF107" s="139"/>
+      <c r="AG107" s="139"/>
+      <c r="AH107" s="139"/>
+      <c r="AI107" s="139"/>
+      <c r="AJ107" s="139"/>
+      <c r="AK107" s="139"/>
+      <c r="AL107" s="139"/>
       <c r="AM107" s="89"/>
       <c r="AN107" s="65"/>
-      <c r="AO107" s="158"/>
-      <c r="AP107" s="157"/>
-      <c r="AQ107" s="157"/>
-      <c r="AR107" s="157"/>
-      <c r="AS107" s="157"/>
-      <c r="AT107" s="157"/>
-      <c r="AU107" s="157"/>
-      <c r="AV107" s="157"/>
-      <c r="AW107" s="157"/>
-      <c r="AX107" s="157"/>
-      <c r="AY107" s="157"/>
-      <c r="AZ107" s="157"/>
-      <c r="BA107" s="157"/>
-      <c r="BB107" s="157"/>
-      <c r="BC107" s="157"/>
-      <c r="BD107" s="157"/>
-      <c r="BE107" s="157"/>
+      <c r="AO107" s="140"/>
+      <c r="AP107" s="139"/>
+      <c r="AQ107" s="139"/>
+      <c r="AR107" s="139"/>
+      <c r="AS107" s="139"/>
+      <c r="AT107" s="139"/>
+      <c r="AU107" s="139"/>
+      <c r="AV107" s="139"/>
+      <c r="AW107" s="139"/>
+      <c r="AX107" s="139"/>
+      <c r="AY107" s="139"/>
+      <c r="AZ107" s="139"/>
+      <c r="BA107" s="139"/>
+      <c r="BB107" s="139"/>
+      <c r="BC107" s="139"/>
+      <c r="BD107" s="139"/>
+      <c r="BE107" s="139"/>
       <c r="BF107" s="89"/>
       <c r="BG107" s="65"/>
-      <c r="BH107" s="158"/>
-      <c r="BI107" s="157"/>
-      <c r="BJ107" s="157"/>
-      <c r="BK107" s="157"/>
-      <c r="BL107" s="157"/>
-      <c r="BM107" s="157"/>
-      <c r="BN107" s="157"/>
-      <c r="BO107" s="157"/>
-      <c r="BP107" s="157"/>
-      <c r="BQ107" s="157"/>
-      <c r="BR107" s="157"/>
-      <c r="BS107" s="157"/>
-      <c r="BT107" s="157"/>
-      <c r="BU107" s="157"/>
-      <c r="BV107" s="157"/>
-      <c r="BW107" s="157"/>
-      <c r="BX107" s="157"/>
+      <c r="BH107" s="140"/>
+      <c r="BI107" s="139"/>
+      <c r="BJ107" s="139"/>
+      <c r="BK107" s="139"/>
+      <c r="BL107" s="139"/>
+      <c r="BM107" s="139"/>
+      <c r="BN107" s="139"/>
+      <c r="BO107" s="139"/>
+      <c r="BP107" s="139"/>
+      <c r="BQ107" s="139"/>
+      <c r="BR107" s="139"/>
+      <c r="BS107" s="139"/>
+      <c r="BT107" s="139"/>
+      <c r="BU107" s="139"/>
+      <c r="BV107" s="139"/>
+      <c r="BW107" s="139"/>
+      <c r="BX107" s="139"/>
       <c r="BY107" s="89"/>
       <c r="BZ107" s="65"/>
-      <c r="CA107" s="158"/>
-      <c r="CB107" s="157"/>
-      <c r="CC107" s="157"/>
-      <c r="CD107" s="157"/>
-      <c r="CE107" s="157"/>
-      <c r="CF107" s="157"/>
-      <c r="CG107" s="157"/>
-      <c r="CH107" s="157"/>
-      <c r="CI107" s="157"/>
-      <c r="CJ107" s="157"/>
-      <c r="CK107" s="157"/>
-      <c r="CL107" s="157"/>
-      <c r="CM107" s="157"/>
-      <c r="CN107" s="157"/>
-      <c r="CO107" s="157"/>
-      <c r="CP107" s="157"/>
-      <c r="CQ107" s="157"/>
+      <c r="CA107" s="140"/>
+      <c r="CB107" s="139"/>
+      <c r="CC107" s="139"/>
+      <c r="CD107" s="139"/>
+      <c r="CE107" s="139"/>
+      <c r="CF107" s="139"/>
+      <c r="CG107" s="139"/>
+      <c r="CH107" s="139"/>
+      <c r="CI107" s="139"/>
+      <c r="CJ107" s="139"/>
+      <c r="CK107" s="139"/>
+      <c r="CL107" s="139"/>
+      <c r="CM107" s="139"/>
+      <c r="CN107" s="139"/>
+      <c r="CO107" s="139"/>
+      <c r="CP107" s="139"/>
+      <c r="CQ107" s="139"/>
       <c r="CR107" s="89"/>
       <c r="CS107" s="65"/>
-      <c r="CT107" s="158"/>
-      <c r="CU107" s="157"/>
-      <c r="CV107" s="157"/>
-      <c r="CW107" s="157"/>
-      <c r="CX107" s="157"/>
-      <c r="CY107" s="157"/>
-      <c r="CZ107" s="157"/>
-      <c r="DA107" s="157"/>
-      <c r="DB107" s="157"/>
-      <c r="DC107" s="157"/>
-      <c r="DD107" s="157"/>
-      <c r="DE107" s="157"/>
-      <c r="DF107" s="157"/>
-      <c r="DG107" s="157"/>
-      <c r="DH107" s="157"/>
-      <c r="DI107" s="157"/>
-      <c r="DJ107" s="157"/>
+      <c r="CT107" s="140"/>
+      <c r="CU107" s="139"/>
+      <c r="CV107" s="139"/>
+      <c r="CW107" s="139"/>
+      <c r="CX107" s="139"/>
+      <c r="CY107" s="139"/>
+      <c r="CZ107" s="139"/>
+      <c r="DA107" s="139"/>
+      <c r="DB107" s="139"/>
+      <c r="DC107" s="139"/>
+      <c r="DD107" s="139"/>
+      <c r="DE107" s="139"/>
+      <c r="DF107" s="139"/>
+      <c r="DG107" s="139"/>
+      <c r="DH107" s="139"/>
+      <c r="DI107" s="139"/>
+      <c r="DJ107" s="139"/>
       <c r="DK107" s="89"/>
       <c r="DL107" s="65"/>
-      <c r="DM107" s="158"/>
-      <c r="DN107" s="157"/>
-      <c r="DO107" s="157"/>
-      <c r="DP107" s="157"/>
-      <c r="DQ107" s="157"/>
-      <c r="DR107" s="157"/>
-      <c r="DS107" s="157"/>
-      <c r="DT107" s="157"/>
-      <c r="DU107" s="157"/>
-      <c r="DV107" s="157"/>
-      <c r="DW107" s="157"/>
-      <c r="DX107" s="157"/>
-      <c r="DY107" s="157"/>
-      <c r="DZ107" s="157"/>
-      <c r="EA107" s="157"/>
-      <c r="EB107" s="157"/>
-      <c r="EC107" s="157"/>
+      <c r="DM107" s="140"/>
+      <c r="DN107" s="139"/>
+      <c r="DO107" s="139"/>
+      <c r="DP107" s="139"/>
+      <c r="DQ107" s="139"/>
+      <c r="DR107" s="139"/>
+      <c r="DS107" s="139"/>
+      <c r="DT107" s="139"/>
+      <c r="DU107" s="139"/>
+      <c r="DV107" s="139"/>
+      <c r="DW107" s="139"/>
+      <c r="DX107" s="139"/>
+      <c r="DY107" s="139"/>
+      <c r="DZ107" s="139"/>
+      <c r="EA107" s="139"/>
+      <c r="EB107" s="139"/>
+      <c r="EC107" s="139"/>
       <c r="ED107" s="89"/>
       <c r="EE107" s="45"/>
     </row>
@@ -56972,38 +57051,54 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="BN95:BO95"/>
-    <mergeCell ref="CG95:CH95"/>
-    <mergeCell ref="CZ95:DA95"/>
-    <mergeCell ref="DS95:DT95"/>
-    <mergeCell ref="AV81:AY81"/>
-    <mergeCell ref="AU95:AV95"/>
-    <mergeCell ref="BA80:BB80"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="AH80:AI80"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="V29:Z29"/>
-    <mergeCell ref="BN80:BO80"/>
-    <mergeCell ref="BT80:BU80"/>
-    <mergeCell ref="BO81:BR81"/>
-    <mergeCell ref="BH26:BJ26"/>
-    <mergeCell ref="BH29:BL29"/>
-    <mergeCell ref="BO26:BQ26"/>
-    <mergeCell ref="BN36:BO36"/>
-    <mergeCell ref="BN39:BO39"/>
-    <mergeCell ref="BN42:BO42"/>
-    <mergeCell ref="BN45:BO45"/>
-    <mergeCell ref="BO46:BQ46"/>
-    <mergeCell ref="BN50:BO50"/>
-    <mergeCell ref="BN59:BO59"/>
+    <mergeCell ref="DS80:DT80"/>
+    <mergeCell ref="DY80:DZ80"/>
+    <mergeCell ref="DT81:DW81"/>
+    <mergeCell ref="DF80:DG80"/>
+    <mergeCell ref="DA81:DD81"/>
+    <mergeCell ref="CZ80:DA80"/>
+    <mergeCell ref="DY20:DZ20"/>
+    <mergeCell ref="DT24:DV24"/>
+    <mergeCell ref="DM26:DO26"/>
+    <mergeCell ref="DT26:DV26"/>
+    <mergeCell ref="DM29:DQ29"/>
+    <mergeCell ref="DS36:DT36"/>
+    <mergeCell ref="DS39:DT39"/>
+    <mergeCell ref="DS42:DT42"/>
+    <mergeCell ref="DS45:DT45"/>
+    <mergeCell ref="DT46:DV46"/>
+    <mergeCell ref="DS50:DT50"/>
+    <mergeCell ref="DS59:DT59"/>
+    <mergeCell ref="CM80:CN80"/>
+    <mergeCell ref="CH81:CK81"/>
+    <mergeCell ref="DF20:DG20"/>
+    <mergeCell ref="DA24:DC24"/>
+    <mergeCell ref="CT26:CV26"/>
+    <mergeCell ref="DA26:DC26"/>
+    <mergeCell ref="CT29:CX29"/>
+    <mergeCell ref="CZ36:DA36"/>
+    <mergeCell ref="CZ39:DA39"/>
+    <mergeCell ref="CZ42:DA42"/>
+    <mergeCell ref="CZ45:DA45"/>
+    <mergeCell ref="DA46:DC46"/>
+    <mergeCell ref="CZ50:DA50"/>
+    <mergeCell ref="CZ59:DA59"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="CM20:CN20"/>
+    <mergeCell ref="CH24:CJ24"/>
+    <mergeCell ref="CA26:CC26"/>
+    <mergeCell ref="CH26:CJ26"/>
+    <mergeCell ref="CA29:CE29"/>
+    <mergeCell ref="CG36:CH36"/>
+    <mergeCell ref="CG39:CH39"/>
+    <mergeCell ref="CG42:CH42"/>
+    <mergeCell ref="CG45:CH45"/>
+    <mergeCell ref="CH46:CJ46"/>
+    <mergeCell ref="CG50:CH50"/>
+    <mergeCell ref="CG59:CH59"/>
+    <mergeCell ref="CG80:CH80"/>
+    <mergeCell ref="BT20:BU20"/>
+    <mergeCell ref="BO24:BQ24"/>
     <mergeCell ref="AB95:AC95"/>
     <mergeCell ref="BA20:BB20"/>
     <mergeCell ref="AV24:AX24"/>
@@ -57020,54 +57115,38 @@
     <mergeCell ref="AU80:AV80"/>
     <mergeCell ref="AB50:AC50"/>
     <mergeCell ref="AB59:AC59"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="CM20:CN20"/>
-    <mergeCell ref="CH24:CJ24"/>
-    <mergeCell ref="CA26:CC26"/>
-    <mergeCell ref="CH26:CJ26"/>
-    <mergeCell ref="CA29:CE29"/>
-    <mergeCell ref="CG36:CH36"/>
-    <mergeCell ref="CG39:CH39"/>
-    <mergeCell ref="CG42:CH42"/>
-    <mergeCell ref="CG45:CH45"/>
-    <mergeCell ref="CH46:CJ46"/>
-    <mergeCell ref="CG50:CH50"/>
-    <mergeCell ref="CG59:CH59"/>
-    <mergeCell ref="CG80:CH80"/>
-    <mergeCell ref="BT20:BU20"/>
-    <mergeCell ref="BO24:BQ24"/>
-    <mergeCell ref="DS50:DT50"/>
-    <mergeCell ref="DS59:DT59"/>
-    <mergeCell ref="CM80:CN80"/>
-    <mergeCell ref="CH81:CK81"/>
-    <mergeCell ref="DF20:DG20"/>
-    <mergeCell ref="DA24:DC24"/>
-    <mergeCell ref="CT26:CV26"/>
-    <mergeCell ref="DA26:DC26"/>
-    <mergeCell ref="CT29:CX29"/>
-    <mergeCell ref="CZ36:DA36"/>
-    <mergeCell ref="CZ39:DA39"/>
-    <mergeCell ref="CZ42:DA42"/>
-    <mergeCell ref="CZ45:DA45"/>
-    <mergeCell ref="DA46:DC46"/>
-    <mergeCell ref="CZ50:DA50"/>
-    <mergeCell ref="CZ59:DA59"/>
-    <mergeCell ref="DS36:DT36"/>
-    <mergeCell ref="DS39:DT39"/>
-    <mergeCell ref="DS42:DT42"/>
-    <mergeCell ref="DS45:DT45"/>
-    <mergeCell ref="DT46:DV46"/>
-    <mergeCell ref="DY20:DZ20"/>
-    <mergeCell ref="DT24:DV24"/>
-    <mergeCell ref="DM26:DO26"/>
-    <mergeCell ref="DT26:DV26"/>
-    <mergeCell ref="DM29:DQ29"/>
-    <mergeCell ref="DS80:DT80"/>
-    <mergeCell ref="DY80:DZ80"/>
-    <mergeCell ref="DT81:DW81"/>
-    <mergeCell ref="DF80:DG80"/>
-    <mergeCell ref="DA81:DD81"/>
-    <mergeCell ref="CZ80:DA80"/>
+    <mergeCell ref="BN80:BO80"/>
+    <mergeCell ref="BT80:BU80"/>
+    <mergeCell ref="BO81:BR81"/>
+    <mergeCell ref="BH26:BJ26"/>
+    <mergeCell ref="BH29:BL29"/>
+    <mergeCell ref="BO26:BQ26"/>
+    <mergeCell ref="BN36:BO36"/>
+    <mergeCell ref="BN39:BO39"/>
+    <mergeCell ref="BN42:BO42"/>
+    <mergeCell ref="BN45:BO45"/>
+    <mergeCell ref="BO46:BQ46"/>
+    <mergeCell ref="BN50:BO50"/>
+    <mergeCell ref="BN59:BO59"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="BA80:BB80"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="AH80:AI80"/>
+    <mergeCell ref="BN95:BO95"/>
+    <mergeCell ref="CG95:CH95"/>
+    <mergeCell ref="CZ95:DA95"/>
+    <mergeCell ref="DS95:DT95"/>
+    <mergeCell ref="AV81:AY81"/>
+    <mergeCell ref="AU95:AV95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -57079,8 +57158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36:R39"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57991,24 +58070,24 @@
       <c r="J35" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="142" t="s">
+      <c r="L35" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="M35" s="142"/>
-      <c r="O35" s="142" t="s">
+      <c r="M35" s="155"/>
+      <c r="O35" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="P35" s="142"/>
+      <c r="P35" s="155"/>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="144">
+      <c r="B36" s="126">
         <f>'BACKPRO 1 (LSTM)'!AC82</f>
         <v>-0.21354602441433568</v>
       </c>
       <c r="C36" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="144">
+      <c r="D36" s="126">
         <f>'BACKPRO 1 (LSTM)'!AI82</f>
         <v>8.9849047581071567E-2</v>
       </c>
@@ -58032,17 +58111,17 @@
         <f>J36</f>
         <v>-4.9111448460139311E-2</v>
       </c>
-      <c r="O36" s="147">
+      <c r="O36" s="129">
         <f t="array" ref="O36:R39">MMULT(B36:B39,G25:J25)</f>
         <v>-0.21354602441433568</v>
       </c>
-      <c r="P36" s="148">
+      <c r="P36" s="130">
         <v>-2.135460244143357E-9</v>
       </c>
-      <c r="Q36" s="148">
+      <c r="Q36" s="130">
         <v>-2.3404599589224872E-2</v>
       </c>
-      <c r="R36" s="149">
+      <c r="R36" s="131">
         <v>5.0725089420321619E-2</v>
       </c>
       <c r="S36" t="s">
@@ -58050,11 +58129,11 @@
       </c>
     </row>
     <row r="37" spans="2:19">
-      <c r="B37" s="145">
+      <c r="B37" s="127">
         <f>'BACKPRO 1 (LSTM)'!AC83</f>
         <v>1.9904112184216772E-2</v>
       </c>
-      <c r="D37" s="145">
+      <c r="D37" s="127">
         <f>'BACKPRO 1 (LSTM)'!AI83</f>
         <v>-0.18101704279493691</v>
       </c>
@@ -58068,16 +58147,16 @@
       <c r="Q37" s="31">
         <v>2.1814865302607457E-3</v>
       </c>
-      <c r="R37" s="150">
+      <c r="R37" s="132">
         <v>-4.7279637874107399E-3</v>
       </c>
     </row>
     <row r="38" spans="2:19">
-      <c r="B38" s="145">
+      <c r="B38" s="127">
         <f>'BACKPRO 1 (LSTM)'!AC84</f>
         <v>2.6894179590235073E-2</v>
       </c>
-      <c r="D38" s="145">
+      <c r="D38" s="127">
         <f>'BACKPRO 1 (LSTM)'!AI84</f>
         <v>1.1529528060801878E-2</v>
       </c>
@@ -58091,42 +58170,42 @@
       <c r="Q38" s="31">
         <v>2.9475964552206383E-3</v>
       </c>
-      <c r="R38" s="150">
+      <c r="R38" s="132">
         <v>-6.3883636716829516E-3</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B39" s="146">
+      <c r="B39" s="128">
         <f>'BACKPRO 1 (LSTM)'!AC85</f>
         <v>3.0434795768048226E-2</v>
       </c>
-      <c r="D39" s="146">
+      <c r="D39" s="128">
         <f>'BACKPRO 1 (LSTM)'!AI85</f>
         <v>-4.9111448460139311E-2</v>
       </c>
       <c r="M39" s="30"/>
-      <c r="O39" s="151">
+      <c r="O39" s="133">
         <v>3.0434795768048226E-2</v>
       </c>
-      <c r="P39" s="152">
+      <c r="P39" s="134">
         <v>3.0434795768048227E-10</v>
       </c>
-      <c r="Q39" s="152">
+      <c r="Q39" s="134">
         <v>3.3356472474005265E-3</v>
       </c>
-      <c r="R39" s="153">
+      <c r="R39" s="135">
         <v>-7.2293911397202024E-3</v>
       </c>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="144">
+      <c r="B40" s="126">
         <f>'BACKPRO 1 (LSTM)'!AV82</f>
         <v>-0.32833561467687378</v>
       </c>
       <c r="C40" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="144">
+      <c r="D40" s="126">
         <f>'BACKPRO 1 (LSTM)'!BB82</f>
         <v>0.1262479803657052</v>
       </c>
@@ -58147,20 +58226,20 @@
         <v>-6.7311047187940953E-2</v>
       </c>
       <c r="M40" s="30">
-        <f t="shared" ref="M37:M40" si="0">J40</f>
+        <f t="shared" ref="M40" si="0">J40</f>
         <v>-6.7311047187940953E-2</v>
       </c>
-      <c r="O40" s="147">
+      <c r="O40" s="129">
         <f t="array" ref="O40:R43">MMULT(B40:B43,G26:J26)</f>
         <v>-0.32833561467687378</v>
       </c>
-      <c r="P40" s="148">
+      <c r="P40" s="130">
         <v>-3.2833561467687378E-9</v>
       </c>
-      <c r="Q40" s="148">
+      <c r="Q40" s="130">
         <v>-4.5604554379654737E-2</v>
       </c>
-      <c r="R40" s="149">
+      <c r="R40" s="131">
         <v>7.5058581929849849E-2</v>
       </c>
       <c r="S40" t="s">
@@ -58168,11 +58247,11 @@
       </c>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="145">
+      <c r="B41" s="127">
         <f>'BACKPRO 1 (LSTM)'!AV83</f>
         <v>3.0526025234106666E-2</v>
       </c>
-      <c r="D41" s="145">
+      <c r="D41" s="127">
         <f>'BACKPRO 1 (LSTM)'!BB83</f>
         <v>-0.27343838889570427</v>
       </c>
@@ -58185,16 +58264,16 @@
       <c r="Q41" s="31">
         <v>4.2399475279389608E-3</v>
       </c>
-      <c r="R41" s="150">
+      <c r="R41" s="132">
         <v>-6.9783479574146911E-3</v>
       </c>
     </row>
     <row r="42" spans="2:19">
-      <c r="B42" s="145">
+      <c r="B42" s="127">
         <f>'BACKPRO 1 (LSTM)'!AV84</f>
         <v>4.0136482556054683E-2</v>
       </c>
-      <c r="D42" s="145">
+      <c r="D42" s="127">
         <f>'BACKPRO 1 (LSTM)'!BB84</f>
         <v>4.8483256312441096E-3</v>
       </c>
@@ -58207,41 +58286,41 @@
       <c r="Q42" s="31">
         <v>5.5748030963288118E-3</v>
       </c>
-      <c r="R42" s="150">
+      <c r="R42" s="132">
         <v>-9.1753295397893689E-3</v>
       </c>
     </row>
     <row r="43" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B43" s="146">
+      <c r="B43" s="128">
         <f>'BACKPRO 1 (LSTM)'!AV85</f>
         <v>3.2460304645557839E-2</v>
       </c>
-      <c r="D43" s="146">
+      <c r="D43" s="128">
         <f>'BACKPRO 1 (LSTM)'!BB85</f>
         <v>-6.7311047187940953E-2</v>
       </c>
-      <c r="O43" s="151">
+      <c r="O43" s="133">
         <v>3.2460304645557839E-2</v>
       </c>
-      <c r="P43" s="152">
+      <c r="P43" s="134">
         <v>3.2460304645557842E-10</v>
       </c>
-      <c r="Q43" s="152">
+      <c r="Q43" s="134">
         <v>4.5086115005993259E-3</v>
       </c>
-      <c r="R43" s="153">
+      <c r="R43" s="135">
         <v>-7.4205304779509122E-3</v>
       </c>
     </row>
     <row r="44" spans="2:19">
-      <c r="B44" s="144">
+      <c r="B44" s="126">
         <f>'BACKPRO 1 (LSTM)'!BO82</f>
         <v>-0.38717221809025804</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="144">
+      <c r="D44" s="126">
         <f>'BACKPRO 1 (LSTM)'!BU82</f>
         <v>0.14471874010969438</v>
       </c>
@@ -58265,17 +58344,17 @@
         <f>J44</f>
         <v>-7.7260772295667565E-2</v>
       </c>
-      <c r="O44" s="147">
+      <c r="O44" s="129">
         <f t="array" ref="O44:R47">MMULT(B44:B47,G27:J27)</f>
         <v>-0.38717221809025804</v>
       </c>
-      <c r="P44" s="148">
+      <c r="P44" s="130">
         <v>-3.8717221809025807E-9</v>
       </c>
-      <c r="Q44" s="148">
+      <c r="Q44" s="130">
         <v>-4.3345464123105019E-2</v>
       </c>
-      <c r="R44" s="149">
+      <c r="R44" s="131">
         <v>8.1651244710060883E-2</v>
       </c>
       <c r="S44" t="s">
@@ -58283,11 +58362,11 @@
       </c>
     </row>
     <row r="45" spans="2:19">
-      <c r="B45" s="145">
+      <c r="B45" s="127">
         <f>'BACKPRO 1 (LSTM)'!BO83</f>
         <v>3.5364024821476464E-2</v>
       </c>
-      <c r="D45" s="145">
+      <c r="D45" s="127">
         <f>'BACKPRO 1 (LSTM)'!BU83</f>
         <v>-0.32042846308839862</v>
       </c>
@@ -58300,16 +58379,16 @@
       <c r="Q45" s="31">
         <v>3.9591427213162261E-3</v>
       </c>
-      <c r="R45" s="150">
+      <c r="R45" s="132">
         <v>-7.4579644657197502E-3</v>
       </c>
     </row>
     <row r="46" spans="2:19">
-      <c r="B46" s="145">
+      <c r="B46" s="127">
         <f>'BACKPRO 1 (LSTM)'!BO84</f>
         <v>4.3770783322686947E-2</v>
       </c>
-      <c r="D46" s="145">
+      <c r="D46" s="127">
         <f>'BACKPRO 1 (LSTM)'!BU84</f>
         <v>1.588397575380613E-3</v>
       </c>
@@ -58322,41 +58401,41 @@
       <c r="Q46" s="31">
         <v>4.9003126503034322E-3</v>
       </c>
-      <c r="R46" s="150">
+      <c r="R46" s="132">
         <v>-9.2308765279191674E-3</v>
       </c>
     </row>
     <row r="47" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B47" s="146">
+      <c r="B47" s="128">
         <f>'BACKPRO 1 (LSTM)'!BO85</f>
         <v>3.3130112178899759E-2</v>
       </c>
-      <c r="D47" s="146">
+      <c r="D47" s="128">
         <f>'BACKPRO 1 (LSTM)'!BU85</f>
         <v>-7.7260772295667565E-2</v>
       </c>
-      <c r="O47" s="151">
+      <c r="O47" s="133">
         <v>3.3130112178899759E-2</v>
       </c>
-      <c r="P47" s="152">
+      <c r="P47" s="134">
         <v>3.313011217889976E-10</v>
       </c>
-      <c r="Q47" s="152">
+      <c r="Q47" s="134">
         <v>3.7090473483047614E-3</v>
       </c>
-      <c r="R47" s="153">
+      <c r="R47" s="135">
         <v>-6.9868517687921841E-3</v>
       </c>
     </row>
     <row r="48" spans="2:19">
-      <c r="B48" s="144">
+      <c r="B48" s="126">
         <f>'BACKPRO 1 (LSTM)'!CH82</f>
         <v>-0.42013836927864595</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="144">
+      <c r="D48" s="126">
         <f>'BACKPRO 1 (LSTM)'!CN82</f>
         <v>0.15449461891958421</v>
       </c>
@@ -58380,17 +58459,17 @@
         <f>J48</f>
         <v>-8.3625385053804457E-2</v>
       </c>
-      <c r="O48" s="147">
+      <c r="O48" s="129">
         <f t="array" ref="O48:R51">MMULT(B48:B51,G28:J28)</f>
         <v>-0.42013836927864595</v>
       </c>
-      <c r="P48" s="148">
+      <c r="P48" s="130">
         <v>-4.2013836927864596E-9</v>
       </c>
-      <c r="Q48" s="148">
+      <c r="Q48" s="130">
         <v>-3.6046399456812955E-2</v>
       </c>
-      <c r="R48" s="149">
+      <c r="R48" s="131">
         <v>7.5488833963578791E-2</v>
       </c>
       <c r="S48" t="s">
@@ -58398,11 +58477,11 @@
       </c>
     </row>
     <row r="49" spans="2:19">
-      <c r="B49" s="145">
+      <c r="B49" s="127">
         <f>'BACKPRO 1 (LSTM)'!CH83</f>
         <v>3.730361074704458E-2</v>
       </c>
-      <c r="D49" s="145">
+      <c r="D49" s="127">
         <f>'BACKPRO 1 (LSTM)'!CN83</f>
         <v>-0.34540721344190495</v>
       </c>
@@ -58415,16 +58494,16 @@
       <c r="Q49" s="31">
         <v>3.2005190491840511E-3</v>
       </c>
-      <c r="R49" s="150">
+      <c r="R49" s="132">
         <v>-6.7025682104696763E-3</v>
       </c>
     </row>
     <row r="50" spans="2:19">
-      <c r="B50" s="145">
+      <c r="B50" s="127">
         <f>'BACKPRO 1 (LSTM)'!CH84</f>
         <v>3.9555688542212732E-2</v>
       </c>
-      <c r="D50" s="145">
+      <c r="D50" s="127">
         <f>'BACKPRO 1 (LSTM)'!CN84</f>
         <v>-6.9885908557280538E-4</v>
       </c>
@@ -58437,41 +58516,41 @@
       <c r="Q50" s="31">
         <v>3.3937394302500081E-3</v>
       </c>
-      <c r="R50" s="150">
+      <c r="R50" s="132">
         <v>-7.1072128208736329E-3</v>
       </c>
     </row>
     <row r="51" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B51" s="146">
+      <c r="B51" s="128">
         <f>'BACKPRO 1 (LSTM)'!CH85</f>
         <v>3.2088251908660693E-2</v>
       </c>
-      <c r="D51" s="146">
+      <c r="D51" s="128">
         <f>'BACKPRO 1 (LSTM)'!CN85</f>
         <v>-8.3625385053804457E-2</v>
       </c>
-      <c r="O51" s="151">
+      <c r="O51" s="133">
         <v>3.2088251908660693E-2</v>
       </c>
-      <c r="P51" s="152">
+      <c r="P51" s="134">
         <v>3.2088251908660694E-10</v>
       </c>
-      <c r="Q51" s="152">
+      <c r="Q51" s="134">
         <v>2.7530595412086612E-3</v>
       </c>
-      <c r="R51" s="153">
+      <c r="R51" s="135">
         <v>-5.7654927462905594E-3</v>
       </c>
     </row>
     <row r="52" spans="2:19">
-      <c r="B52" s="144">
+      <c r="B52" s="126">
         <f>'BACKPRO 1 (LSTM)'!DA82</f>
         <v>-0.44581181586925966</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="144">
+      <c r="D52" s="126">
         <f>'BACKPRO 1 (LSTM)'!DG82</f>
         <v>0.15971126856255149</v>
       </c>
@@ -58495,17 +58574,17 @@
         <f>J52</f>
         <v>-8.8350984600811339E-2</v>
       </c>
-      <c r="O52" s="147">
+      <c r="O52" s="129">
         <f t="array" ref="O52:R55">MMULT(B52:B55,G29:J29)</f>
         <v>-0.44581181586925966</v>
       </c>
-      <c r="P52" s="148">
+      <c r="P52" s="130">
         <v>-4.4581181586925968E-9</v>
       </c>
-      <c r="Q52" s="148">
+      <c r="Q52" s="130">
         <v>-7.3582843639110954E-2</v>
       </c>
-      <c r="R52" s="149">
+      <c r="R52" s="131">
         <v>5.2683726026660438E-2</v>
       </c>
       <c r="S52" t="s">
@@ -58513,11 +58592,11 @@
       </c>
     </row>
     <row r="53" spans="2:19">
-      <c r="B53" s="145">
+      <c r="B53" s="127">
         <f>'BACKPRO 1 (LSTM)'!DA83</f>
         <v>3.810405245689346E-2</v>
       </c>
-      <c r="D53" s="145">
+      <c r="D53" s="127">
         <f>'BACKPRO 1 (LSTM)'!DG83</f>
         <v>-0.36178741854528101</v>
       </c>
@@ -58530,16 +58609,16 @@
       <c r="Q53" s="31">
         <v>6.2892109050208004E-3</v>
       </c>
-      <c r="R53" s="150">
+      <c r="R53" s="132">
         <v>-4.5029391072335069E-3</v>
       </c>
     </row>
     <row r="54" spans="2:19">
-      <c r="B54" s="145">
+      <c r="B54" s="127">
         <f>'BACKPRO 1 (LSTM)'!DA84</f>
         <v>2.7128906643012436E-2</v>
       </c>
-      <c r="D54" s="145">
+      <c r="D54" s="127">
         <f>'BACKPRO 1 (LSTM)'!DG84</f>
         <v>-5.3812695252756435E-3</v>
       </c>
@@ -58552,41 +58631,41 @@
       <c r="Q54" s="31">
         <v>4.4777236146613074E-3</v>
       </c>
-      <c r="R54" s="150">
+      <c r="R54" s="132">
         <v>-3.2059533509593272E-3</v>
       </c>
     </row>
     <row r="55" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B55" s="146">
+      <c r="B55" s="128">
         <f>'BACKPRO 1 (LSTM)'!DA85</f>
         <v>2.692506350390134E-2</v>
       </c>
-      <c r="D55" s="146">
+      <c r="D55" s="128">
         <f>'BACKPRO 1 (LSTM)'!DG85</f>
         <v>-8.8350984600811339E-2</v>
       </c>
-      <c r="O55" s="151">
+      <c r="O55" s="133">
         <v>2.692506350390134E-2</v>
       </c>
-      <c r="P55" s="152">
+      <c r="P55" s="134">
         <v>2.6925063503901342E-10</v>
       </c>
-      <c r="Q55" s="152">
+      <c r="Q55" s="134">
         <v>4.4440785713982184E-3</v>
       </c>
-      <c r="R55" s="153">
+      <c r="R55" s="135">
         <v>-3.1818642270037322E-3</v>
       </c>
     </row>
     <row r="56" spans="2:19">
-      <c r="B56" s="144">
+      <c r="B56" s="126">
         <f>'BACKPRO 1 (LSTM)'!DT82</f>
         <v>-0.47268250344232254</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D56" s="144">
+      <c r="D56" s="126">
         <f>'BACKPRO 1 (LSTM)'!DZ82</f>
         <v>0.16303967462123412</v>
       </c>
@@ -58610,17 +58689,17 @@
         <f>J56</f>
         <v>-9.4582989165627296E-2</v>
       </c>
-      <c r="O56" s="147">
+      <c r="O56" s="129">
         <f t="array" ref="O56:R59">MMULT(B56:B59,G30:J30)</f>
         <v>-0.47268250344232254</v>
       </c>
-      <c r="P56" s="148">
+      <c r="P56" s="130">
         <v>-4.7268250344232258E-9</v>
       </c>
-      <c r="Q56" s="148">
+      <c r="Q56" s="130">
         <v>-0.12994750486996626</v>
       </c>
-      <c r="R56" s="149">
+      <c r="R56" s="131">
         <v>0</v>
       </c>
       <c r="S56" t="s">
@@ -58628,11 +58707,11 @@
       </c>
     </row>
     <row r="57" spans="2:19">
-      <c r="B57" s="145">
+      <c r="B57" s="127">
         <f>'BACKPRO 1 (LSTM)'!DT83</f>
         <v>3.7068018625051075E-2</v>
       </c>
-      <c r="D57" s="145">
+      <c r="D57" s="127">
         <f>'BACKPRO 1 (LSTM)'!DZ83</f>
         <v>-0.37571773147119703</v>
       </c>
@@ -58645,16 +58724,16 @@
       <c r="Q57" s="31">
         <v>1.0190553903983436E-2</v>
       </c>
-      <c r="R57" s="150">
+      <c r="R57" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:19">
-      <c r="B58" s="145">
+      <c r="B58" s="127">
         <f>'BACKPRO 1 (LSTM)'!DT84</f>
         <v>0</v>
       </c>
-      <c r="D58" s="145">
+      <c r="D58" s="127">
         <f>'BACKPRO 1 (LSTM)'!DZ84</f>
         <v>-1.2050492681467947E-2</v>
       </c>
@@ -58667,29 +58746,29 @@
       <c r="Q58" s="31">
         <v>0</v>
       </c>
-      <c r="R58" s="150">
+      <c r="R58" s="132">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B59" s="146">
+      <c r="B59" s="128">
         <f>'BACKPRO 1 (LSTM)'!DT85</f>
         <v>1.7462904283222426E-2</v>
       </c>
-      <c r="D59" s="146">
+      <c r="D59" s="128">
         <f>'BACKPRO 1 (LSTM)'!DZ85</f>
         <v>-9.4582989165627296E-2</v>
       </c>
-      <c r="O59" s="151">
+      <c r="O59" s="133">
         <v>1.7462904283222426E-2</v>
       </c>
-      <c r="P59" s="152">
+      <c r="P59" s="134">
         <v>1.7462904283222427E-10</v>
       </c>
-      <c r="Q59" s="152">
+      <c r="Q59" s="134">
         <v>4.8008141254686811E-3</v>
       </c>
-      <c r="R59" s="153">
+      <c r="R59" s="135">
         <v>0</v>
       </c>
     </row>
@@ -58705,134 +58784,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS63"/>
+  <dimension ref="A2:BS63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:71">
-      <c r="A1" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
     <row r="2" spans="1:71">
-      <c r="A2" s="38">
-        <f>'BPTT hidden ke input'!O36</f>
-        <v>-0.21354602441433568</v>
-      </c>
-      <c r="B2" s="38">
-        <f>'BPTT hidden ke input'!P36</f>
-        <v>-2.135460244143357E-9</v>
-      </c>
-      <c r="C2" s="38">
-        <f>'BPTT hidden ke input'!Q36</f>
-        <v>-2.3404599589224872E-2</v>
-      </c>
-      <c r="D2" s="38">
-        <f>'BPTT hidden ke input'!R36</f>
-        <v>5.0725089420321619E-2</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38">
-        <f>'BPTT hidden ke input'!O40</f>
-        <v>-0.32833561467687378</v>
-      </c>
-      <c r="G2" s="38">
-        <f>'BPTT hidden ke input'!P40</f>
-        <v>-3.2833561467687378E-9</v>
-      </c>
-      <c r="H2" s="38">
-        <f>'BPTT hidden ke input'!Q40</f>
-        <v>-4.5604554379654737E-2</v>
-      </c>
-      <c r="I2" s="38">
-        <f>'BPTT hidden ke input'!R40</f>
-        <v>7.5058581929849849E-2</v>
-      </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38">
-        <f>'BPTT hidden ke input'!O44</f>
-        <v>-0.38717221809025804</v>
-      </c>
-      <c r="L2" s="38">
-        <f>'BPTT hidden ke input'!P44</f>
-        <v>-3.8717221809025807E-9</v>
-      </c>
-      <c r="M2" s="38">
-        <f>'BPTT hidden ke input'!Q44</f>
-        <v>-4.3345464123105019E-2</v>
-      </c>
-      <c r="N2" s="38">
-        <f>'BPTT hidden ke input'!R44</f>
-        <v>8.1651244710060883E-2</v>
-      </c>
-      <c r="P2" s="38">
-        <f>'BPTT hidden ke input'!O48</f>
-        <v>-0.42013836927864595</v>
-      </c>
-      <c r="Q2" s="38">
-        <f>'BPTT hidden ke input'!P48</f>
-        <v>-4.2013836927864596E-9</v>
-      </c>
-      <c r="R2" s="38">
-        <f>'BPTT hidden ke input'!Q48</f>
-        <v>-3.6046399456812955E-2</v>
-      </c>
-      <c r="S2" s="38">
-        <f>'BPTT hidden ke input'!R48</f>
-        <v>7.5488833963578791E-2</v>
-      </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38">
-        <f>'BPTT hidden ke input'!O52</f>
-        <v>-0.44581181586925966</v>
-      </c>
-      <c r="V2" s="38">
-        <f>'BPTT hidden ke input'!P52</f>
-        <v>-4.4581181586925968E-9</v>
-      </c>
-      <c r="W2" s="38">
-        <f>'BPTT hidden ke input'!Q52</f>
-        <v>-7.3582843639110954E-2</v>
-      </c>
-      <c r="X2" s="38">
-        <f>'BPTT hidden ke input'!R52</f>
-        <v>5.2683726026660438E-2</v>
-      </c>
-      <c r="Z2" s="38">
-        <f>'BPTT hidden ke input'!O56</f>
-        <v>-0.47268250344232254</v>
-      </c>
-      <c r="AA2" s="38">
-        <f>'BPTT hidden ke input'!P56</f>
-        <v>-4.7268250344232258E-9</v>
-      </c>
-      <c r="AB2" s="38">
-        <f>'BPTT hidden ke input'!Q56</f>
-        <v>-0.12994750486996626</v>
-      </c>
-      <c r="AC2" s="38">
-        <f>'BPTT hidden ke input'!R56</f>
-        <v>0</v>
-      </c>
       <c r="AD2" s="38"/>
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
@@ -58865,105 +58825,6 @@
       <c r="BS2" s="38"/>
     </row>
     <row r="3" spans="1:71">
-      <c r="A3" s="38">
-        <f>'BPTT hidden ke input'!O37</f>
-        <v>1.9904112184216772E-2</v>
-      </c>
-      <c r="B3" s="38">
-        <f>'BPTT hidden ke input'!P37</f>
-        <v>1.9904112184216772E-10</v>
-      </c>
-      <c r="C3" s="38">
-        <f>'BPTT hidden ke input'!Q37</f>
-        <v>2.1814865302607457E-3</v>
-      </c>
-      <c r="D3" s="38">
-        <f>'BPTT hidden ke input'!R37</f>
-        <v>-4.7279637874107399E-3</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38">
-        <f>'BPTT hidden ke input'!O41</f>
-        <v>3.0526025234106666E-2</v>
-      </c>
-      <c r="G3" s="38">
-        <f>'BPTT hidden ke input'!P41</f>
-        <v>3.0526025234106668E-10</v>
-      </c>
-      <c r="H3" s="38">
-        <f>'BPTT hidden ke input'!Q41</f>
-        <v>4.2399475279389608E-3</v>
-      </c>
-      <c r="I3" s="38">
-        <f>'BPTT hidden ke input'!R41</f>
-        <v>-6.9783479574146911E-3</v>
-      </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38">
-        <f>'BPTT hidden ke input'!O45</f>
-        <v>3.5364024821476464E-2</v>
-      </c>
-      <c r="L3" s="38">
-        <f>'BPTT hidden ke input'!P45</f>
-        <v>3.5364024821476464E-10</v>
-      </c>
-      <c r="M3" s="38">
-        <f>'BPTT hidden ke input'!Q45</f>
-        <v>3.9591427213162261E-3</v>
-      </c>
-      <c r="N3" s="38">
-        <f>'BPTT hidden ke input'!R45</f>
-        <v>-7.4579644657197502E-3</v>
-      </c>
-      <c r="P3" s="38">
-        <f>'BPTT hidden ke input'!O49</f>
-        <v>3.730361074704458E-2</v>
-      </c>
-      <c r="Q3" s="38">
-        <f>'BPTT hidden ke input'!P49</f>
-        <v>3.7303610747044578E-10</v>
-      </c>
-      <c r="R3" s="38">
-        <f>'BPTT hidden ke input'!Q49</f>
-        <v>3.2005190491840511E-3</v>
-      </c>
-      <c r="S3" s="38">
-        <f>'BPTT hidden ke input'!R49</f>
-        <v>-6.7025682104696763E-3</v>
-      </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38">
-        <f>'BPTT hidden ke input'!O53</f>
-        <v>3.810405245689346E-2</v>
-      </c>
-      <c r="V3" s="38">
-        <f>'BPTT hidden ke input'!P53</f>
-        <v>3.8104052456893459E-10</v>
-      </c>
-      <c r="W3" s="38">
-        <f>'BPTT hidden ke input'!Q53</f>
-        <v>6.2892109050208004E-3</v>
-      </c>
-      <c r="X3" s="38">
-        <f>'BPTT hidden ke input'!R53</f>
-        <v>-4.5029391072335069E-3</v>
-      </c>
-      <c r="Z3" s="38">
-        <f>'BPTT hidden ke input'!O57</f>
-        <v>3.7068018625051075E-2</v>
-      </c>
-      <c r="AA3" s="38">
-        <f>'BPTT hidden ke input'!P57</f>
-        <v>3.7068018625051077E-10</v>
-      </c>
-      <c r="AB3" s="38">
-        <f>'BPTT hidden ke input'!Q57</f>
-        <v>1.0190553903983436E-2</v>
-      </c>
-      <c r="AC3" s="38">
-        <f>'BPTT hidden ke input'!R57</f>
-        <v>0</v>
-      </c>
       <c r="AD3" s="38"/>
       <c r="AE3" s="38"/>
       <c r="AF3" s="38"/>
@@ -58996,105 +58857,6 @@
       <c r="BS3" s="38"/>
     </row>
     <row r="4" spans="1:71">
-      <c r="A4" s="38">
-        <f>'BPTT hidden ke input'!O38</f>
-        <v>2.6894179590235073E-2</v>
-      </c>
-      <c r="B4" s="38">
-        <f>'BPTT hidden ke input'!P38</f>
-        <v>2.6894179590235074E-10</v>
-      </c>
-      <c r="C4" s="38">
-        <f>'BPTT hidden ke input'!Q38</f>
-        <v>2.9475964552206383E-3</v>
-      </c>
-      <c r="D4" s="38">
-        <f>'BPTT hidden ke input'!R38</f>
-        <v>-6.3883636716829516E-3</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38">
-        <f>'BPTT hidden ke input'!O42</f>
-        <v>4.0136482556054683E-2</v>
-      </c>
-      <c r="G4" s="38">
-        <f>'BPTT hidden ke input'!P42</f>
-        <v>4.0136482556054684E-10</v>
-      </c>
-      <c r="H4" s="38">
-        <f>'BPTT hidden ke input'!Q42</f>
-        <v>5.5748030963288118E-3</v>
-      </c>
-      <c r="I4" s="38">
-        <f>'BPTT hidden ke input'!R42</f>
-        <v>-9.1753295397893689E-3</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38">
-        <f>'BPTT hidden ke input'!O46</f>
-        <v>4.3770783322686947E-2</v>
-      </c>
-      <c r="L4" s="38">
-        <f>'BPTT hidden ke input'!P46</f>
-        <v>4.377078332268695E-10</v>
-      </c>
-      <c r="M4" s="38">
-        <f>'BPTT hidden ke input'!Q46</f>
-        <v>4.9003126503034322E-3</v>
-      </c>
-      <c r="N4" s="38">
-        <f>'BPTT hidden ke input'!R46</f>
-        <v>-9.2308765279191674E-3</v>
-      </c>
-      <c r="P4" s="38">
-        <f>'BPTT hidden ke input'!O50</f>
-        <v>3.9555688542212732E-2</v>
-      </c>
-      <c r="Q4" s="38">
-        <f>'BPTT hidden ke input'!P50</f>
-        <v>3.9555688542212733E-10</v>
-      </c>
-      <c r="R4" s="38">
-        <f>'BPTT hidden ke input'!Q50</f>
-        <v>3.3937394302500081E-3</v>
-      </c>
-      <c r="S4" s="38">
-        <f>'BPTT hidden ke input'!R50</f>
-        <v>-7.1072128208736329E-3</v>
-      </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38">
-        <f>'BPTT hidden ke input'!O54</f>
-        <v>2.7128906643012436E-2</v>
-      </c>
-      <c r="V4" s="38">
-        <f>'BPTT hidden ke input'!P54</f>
-        <v>2.7128906643012437E-10</v>
-      </c>
-      <c r="W4" s="38">
-        <f>'BPTT hidden ke input'!Q54</f>
-        <v>4.4777236146613074E-3</v>
-      </c>
-      <c r="X4" s="38">
-        <f>'BPTT hidden ke input'!R54</f>
-        <v>-3.2059533509593272E-3</v>
-      </c>
-      <c r="Z4" s="38">
-        <f>'BPTT hidden ke input'!O58</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="38">
-        <f>'BPTT hidden ke input'!P58</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="38">
-        <f>'BPTT hidden ke input'!Q58</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="38">
-        <f>'BPTT hidden ke input'!R58</f>
-        <v>0</v>
-      </c>
       <c r="AD4" s="38"/>
       <c r="AE4" s="38"/>
       <c r="AF4" s="38"/>
@@ -59127,105 +58889,6 @@
       <c r="BS4" s="38"/>
     </row>
     <row r="5" spans="1:71">
-      <c r="A5" s="38">
-        <f>'BPTT hidden ke input'!O39</f>
-        <v>3.0434795768048226E-2</v>
-      </c>
-      <c r="B5" s="38">
-        <f>'BPTT hidden ke input'!P39</f>
-        <v>3.0434795768048227E-10</v>
-      </c>
-      <c r="C5" s="38">
-        <f>'BPTT hidden ke input'!Q39</f>
-        <v>3.3356472474005265E-3</v>
-      </c>
-      <c r="D5" s="38">
-        <f>'BPTT hidden ke input'!R39</f>
-        <v>-7.2293911397202024E-3</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38">
-        <f>'BPTT hidden ke input'!O43</f>
-        <v>3.2460304645557839E-2</v>
-      </c>
-      <c r="G5" s="38">
-        <f>'BPTT hidden ke input'!P43</f>
-        <v>3.2460304645557842E-10</v>
-      </c>
-      <c r="H5" s="38">
-        <f>'BPTT hidden ke input'!Q43</f>
-        <v>4.5086115005993259E-3</v>
-      </c>
-      <c r="I5" s="38">
-        <f>'BPTT hidden ke input'!R43</f>
-        <v>-7.4205304779509122E-3</v>
-      </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38">
-        <f>'BPTT hidden ke input'!O47</f>
-        <v>3.3130112178899759E-2</v>
-      </c>
-      <c r="L5" s="38">
-        <f>'BPTT hidden ke input'!P47</f>
-        <v>3.313011217889976E-10</v>
-      </c>
-      <c r="M5" s="38">
-        <f>'BPTT hidden ke input'!Q47</f>
-        <v>3.7090473483047614E-3</v>
-      </c>
-      <c r="N5" s="38">
-        <f>'BPTT hidden ke input'!R47</f>
-        <v>-6.9868517687921841E-3</v>
-      </c>
-      <c r="P5" s="38">
-        <f>'BPTT hidden ke input'!O51</f>
-        <v>3.2088251908660693E-2</v>
-      </c>
-      <c r="Q5" s="38">
-        <f>'BPTT hidden ke input'!P51</f>
-        <v>3.2088251908660694E-10</v>
-      </c>
-      <c r="R5" s="38">
-        <f>'BPTT hidden ke input'!Q51</f>
-        <v>2.7530595412086612E-3</v>
-      </c>
-      <c r="S5" s="38">
-        <f>'BPTT hidden ke input'!R51</f>
-        <v>-5.7654927462905594E-3</v>
-      </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38">
-        <f>'BPTT hidden ke input'!O55</f>
-        <v>2.692506350390134E-2</v>
-      </c>
-      <c r="V5" s="38">
-        <f>'BPTT hidden ke input'!P55</f>
-        <v>2.6925063503901342E-10</v>
-      </c>
-      <c r="W5" s="38">
-        <f>'BPTT hidden ke input'!Q55</f>
-        <v>4.4440785713982184E-3</v>
-      </c>
-      <c r="X5" s="38">
-        <f>'BPTT hidden ke input'!R55</f>
-        <v>-3.1818642270037322E-3</v>
-      </c>
-      <c r="Z5" s="38">
-        <f>'BPTT hidden ke input'!O59</f>
-        <v>1.7462904283222426E-2</v>
-      </c>
-      <c r="AA5" s="38">
-        <f>'BPTT hidden ke input'!P59</f>
-        <v>1.7462904283222427E-10</v>
-      </c>
-      <c r="AB5" s="38">
-        <f>'BPTT hidden ke input'!Q59</f>
-        <v>4.8008141254686811E-3</v>
-      </c>
-      <c r="AC5" s="38">
-        <f>'BPTT hidden ke input'!R59</f>
-        <v>0</v>
-      </c>
       <c r="AD5" s="38"/>
       <c r="AE5" s="38"/>
       <c r="AF5" s="38"/>
@@ -59258,33 +58921,6 @@
       <c r="BS5" s="38"/>
     </row>
     <row r="6" spans="1:71">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
       <c r="AD6" s="38"/>
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
@@ -59317,35 +58953,6 @@
       <c r="BS6" s="38"/>
     </row>
     <row r="7" spans="1:71">
-      <c r="A7" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
       <c r="AD7" s="38"/>
       <c r="AE7" s="38"/>
       <c r="AF7" s="38"/>
@@ -59378,35 +58985,24 @@
       <c r="BS7" s="38"/>
     </row>
     <row r="8" spans="1:71">
-      <c r="A8" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
+      <c r="A8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="AD8" s="38"/>
       <c r="AE8" s="38"/>
       <c r="AF8" s="38"/>
@@ -59440,99 +59036,103 @@
     </row>
     <row r="9" spans="1:71">
       <c r="A9" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!O36</f>
+        <v>-0.21354602441433568</v>
       </c>
       <c r="B9" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!P36</f>
+        <v>-2.135460244143357E-9</v>
       </c>
       <c r="C9" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!Q36</f>
+        <v>-2.3404599589224872E-2</v>
       </c>
       <c r="D9" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!R36</f>
+        <v>5.0725089420321619E-2</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38">
-        <f>A17</f>
-        <v>-0.21354602441433568</v>
+        <f>'BPTT hidden ke input'!O40</f>
+        <v>-0.32833561467687378</v>
       </c>
       <c r="G9" s="38">
-        <f t="shared" ref="F9:I12" si="0">B17</f>
-        <v>-2.135460244143357E-9</v>
+        <f>'BPTT hidden ke input'!P40</f>
+        <v>-3.2833561467687378E-9</v>
       </c>
       <c r="H9" s="38">
-        <f t="shared" si="0"/>
-        <v>-2.3404599589224872E-2</v>
+        <f>'BPTT hidden ke input'!Q40</f>
+        <v>-4.5604554379654737E-2</v>
       </c>
       <c r="I9" s="38">
-        <f t="shared" si="0"/>
-        <v>5.0725089420321619E-2</v>
+        <f>'BPTT hidden ke input'!R40</f>
+        <v>7.5058581929849849E-2</v>
       </c>
       <c r="J9" s="38"/>
       <c r="K9" s="38">
-        <f t="shared" ref="K9:N12" si="1">F17</f>
-        <v>-0.54188163909120945</v>
+        <f>'BPTT hidden ke input'!O44</f>
+        <v>-0.38717221809025804</v>
       </c>
       <c r="L9" s="38">
-        <f t="shared" si="1"/>
-        <v>-5.4188163909120948E-9</v>
+        <f>'BPTT hidden ke input'!P44</f>
+        <v>-3.8717221809025807E-9</v>
       </c>
       <c r="M9" s="38">
-        <f t="shared" si="1"/>
-        <v>-6.9009153968879605E-2</v>
+        <f>'BPTT hidden ke input'!Q44</f>
+        <v>-4.3345464123105019E-2</v>
       </c>
       <c r="N9" s="38">
-        <f t="shared" si="1"/>
-        <v>0.12578367135017146</v>
+        <f>'BPTT hidden ke input'!R44</f>
+        <v>8.1651244710060883E-2</v>
       </c>
       <c r="P9" s="38">
-        <f t="shared" ref="P9:S12" si="2">K17</f>
-        <v>-0.92905385718146749</v>
+        <f>'BPTT hidden ke input'!O48</f>
+        <v>-0.42013836927864595</v>
       </c>
       <c r="Q9" s="38">
-        <f t="shared" si="2"/>
-        <v>-9.2905385718146764E-9</v>
+        <f>'BPTT hidden ke input'!P48</f>
+        <v>-4.2013836927864596E-9</v>
       </c>
       <c r="R9" s="38">
-        <f t="shared" si="2"/>
-        <v>-0.11235461809198463</v>
+        <f>'BPTT hidden ke input'!Q48</f>
+        <v>-3.6046399456812955E-2</v>
       </c>
       <c r="S9" s="38">
-        <f t="shared" si="2"/>
-        <v>0.20743491606023234</v>
+        <f>'BPTT hidden ke input'!R48</f>
+        <v>7.5488833963578791E-2</v>
       </c>
       <c r="T9" s="38"/>
       <c r="U9" s="38">
-        <f t="shared" ref="U9:X12" si="3">P17</f>
-        <v>-1.3491922264601135</v>
+        <f>'BPTT hidden ke input'!O52</f>
+        <v>-0.44581181586925966</v>
       </c>
       <c r="V9" s="38">
-        <f t="shared" si="3"/>
-        <v>-1.3491922264601136E-8</v>
+        <f>'BPTT hidden ke input'!P52</f>
+        <v>-4.4581181586925968E-9</v>
       </c>
       <c r="W9" s="38">
-        <f t="shared" si="3"/>
-        <v>-0.14840101754879759</v>
+        <f>'BPTT hidden ke input'!Q52</f>
+        <v>-7.3582843639110954E-2</v>
       </c>
       <c r="X9" s="38">
-        <f t="shared" si="3"/>
-        <v>0.28292375002381115</v>
+        <f>'BPTT hidden ke input'!R52</f>
+        <v>5.2683726026660438E-2</v>
       </c>
       <c r="Z9" s="38">
-        <f t="shared" ref="Z9:AC12" si="4">U17</f>
-        <v>-1.7950040423293732</v>
+        <f>'BPTT hidden ke input'!O56</f>
+        <v>-0.47268250344232254</v>
       </c>
       <c r="AA9" s="38">
-        <f t="shared" si="4"/>
-        <v>-1.7950040423293732E-8</v>
+        <f>'BPTT hidden ke input'!P56</f>
+        <v>-4.7268250344232258E-9</v>
       </c>
       <c r="AB9" s="38">
-        <f t="shared" si="4"/>
-        <v>-0.22198386118790853</v>
+        <f>'BPTT hidden ke input'!Q56</f>
+        <v>-0.12994750486996626</v>
       </c>
       <c r="AC9" s="38">
-        <f t="shared" si="4"/>
-        <v>0.33560747605047159</v>
+        <f>'BPTT hidden ke input'!R56</f>
+        <v>0</v>
       </c>
       <c r="AD9" s="38"/>
       <c r="AE9" s="38"/>
@@ -59567,99 +59167,103 @@
     </row>
     <row r="10" spans="1:71">
       <c r="A10" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!O37</f>
+        <v>1.9904112184216772E-2</v>
       </c>
       <c r="B10" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!P37</f>
+        <v>1.9904112184216772E-10</v>
       </c>
       <c r="C10" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!Q37</f>
+        <v>2.1814865302607457E-3</v>
       </c>
       <c r="D10" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!R37</f>
+        <v>-4.7279637874107399E-3</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38">
-        <f t="shared" si="0"/>
-        <v>1.9904112184216772E-2</v>
+        <f>'BPTT hidden ke input'!O41</f>
+        <v>3.0526025234106666E-2</v>
       </c>
       <c r="G10" s="38">
-        <f t="shared" si="0"/>
-        <v>1.9904112184216772E-10</v>
+        <f>'BPTT hidden ke input'!P41</f>
+        <v>3.0526025234106668E-10</v>
       </c>
       <c r="H10" s="38">
-        <f t="shared" si="0"/>
-        <v>2.1814865302607457E-3</v>
+        <f>'BPTT hidden ke input'!Q41</f>
+        <v>4.2399475279389608E-3</v>
       </c>
       <c r="I10" s="38">
-        <f t="shared" si="0"/>
-        <v>-4.7279637874107399E-3</v>
+        <f>'BPTT hidden ke input'!R41</f>
+        <v>-6.9783479574146911E-3</v>
       </c>
       <c r="J10" s="38"/>
       <c r="K10" s="38">
-        <f t="shared" si="1"/>
-        <v>5.0430137418323438E-2</v>
+        <f>'BPTT hidden ke input'!O45</f>
+        <v>3.5364024821476464E-2</v>
       </c>
       <c r="L10" s="38">
-        <f t="shared" si="1"/>
-        <v>5.0430137418323445E-10</v>
+        <f>'BPTT hidden ke input'!P45</f>
+        <v>3.5364024821476464E-10</v>
       </c>
       <c r="M10" s="38">
-        <f t="shared" si="1"/>
-        <v>6.4214340581997065E-3</v>
+        <f>'BPTT hidden ke input'!Q45</f>
+        <v>3.9591427213162261E-3</v>
       </c>
       <c r="N10" s="38">
-        <f t="shared" si="1"/>
-        <v>-1.1706311744825431E-2</v>
+        <f>'BPTT hidden ke input'!R45</f>
+        <v>-7.4579644657197502E-3</v>
       </c>
       <c r="P10" s="38">
-        <f t="shared" si="2"/>
-        <v>8.5794162239799909E-2</v>
+        <f>'BPTT hidden ke input'!O49</f>
+        <v>3.730361074704458E-2</v>
       </c>
       <c r="Q10" s="38">
-        <f t="shared" si="2"/>
-        <v>8.5794162239799909E-10</v>
+        <f>'BPTT hidden ke input'!P49</f>
+        <v>3.7303610747044578E-10</v>
       </c>
       <c r="R10" s="38">
-        <f t="shared" si="2"/>
-        <v>1.0380576779515933E-2</v>
+        <f>'BPTT hidden ke input'!Q49</f>
+        <v>3.2005190491840511E-3</v>
       </c>
       <c r="S10" s="38">
-        <f t="shared" si="2"/>
-        <v>-1.9164276210545179E-2</v>
+        <f>'BPTT hidden ke input'!R49</f>
+        <v>-6.7025682104696763E-3</v>
       </c>
       <c r="T10" s="38"/>
       <c r="U10" s="38">
-        <f t="shared" si="3"/>
-        <v>0.12309777298684449</v>
+        <f>'BPTT hidden ke input'!O53</f>
+        <v>3.810405245689346E-2</v>
       </c>
       <c r="V10" s="38">
-        <f t="shared" si="3"/>
-        <v>1.2309777298684448E-9</v>
+        <f>'BPTT hidden ke input'!P53</f>
+        <v>3.8104052456893459E-10</v>
       </c>
       <c r="W10" s="38">
-        <f t="shared" si="3"/>
-        <v>1.3581095828699985E-2</v>
+        <f>'BPTT hidden ke input'!Q53</f>
+        <v>6.2892109050208004E-3</v>
       </c>
       <c r="X10" s="38">
-        <f t="shared" si="3"/>
-        <v>-2.5866844421014855E-2</v>
+        <f>'BPTT hidden ke input'!R53</f>
+        <v>-4.5029391072335069E-3</v>
       </c>
       <c r="Z10" s="38">
-        <f t="shared" si="4"/>
-        <v>0.16120182544373796</v>
+        <f>'BPTT hidden ke input'!O57</f>
+        <v>3.7068018625051075E-2</v>
       </c>
       <c r="AA10" s="38">
-        <f t="shared" si="4"/>
-        <v>1.6120182544373794E-9</v>
+        <f>'BPTT hidden ke input'!P57</f>
+        <v>3.7068018625051077E-10</v>
       </c>
       <c r="AB10" s="38">
-        <f t="shared" si="4"/>
-        <v>1.9870306733720786E-2</v>
+        <f>'BPTT hidden ke input'!Q57</f>
+        <v>1.0190553903983436E-2</v>
       </c>
       <c r="AC10" s="38">
-        <f t="shared" si="4"/>
-        <v>-3.0369783528248363E-2</v>
+        <f>'BPTT hidden ke input'!R57</f>
+        <v>0</v>
       </c>
       <c r="AD10" s="38"/>
       <c r="AE10" s="38"/>
@@ -59694,99 +59298,103 @@
     </row>
     <row r="11" spans="1:71">
       <c r="A11" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!O38</f>
+        <v>2.6894179590235073E-2</v>
       </c>
       <c r="B11" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!P38</f>
+        <v>2.6894179590235074E-10</v>
       </c>
       <c r="C11" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!Q38</f>
+        <v>2.9475964552206383E-3</v>
       </c>
       <c r="D11" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!R38</f>
+        <v>-6.3883636716829516E-3</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38">
-        <f t="shared" si="0"/>
-        <v>2.6894179590235073E-2</v>
+        <f>'BPTT hidden ke input'!O42</f>
+        <v>4.0136482556054683E-2</v>
       </c>
       <c r="G11" s="38">
-        <f t="shared" si="0"/>
-        <v>2.6894179590235074E-10</v>
+        <f>'BPTT hidden ke input'!P42</f>
+        <v>4.0136482556054684E-10</v>
       </c>
       <c r="H11" s="38">
-        <f t="shared" si="0"/>
-        <v>2.9475964552206383E-3</v>
+        <f>'BPTT hidden ke input'!Q42</f>
+        <v>5.5748030963288118E-3</v>
       </c>
       <c r="I11" s="38">
-        <f t="shared" si="0"/>
-        <v>-6.3883636716829516E-3</v>
+        <f>'BPTT hidden ke input'!R42</f>
+        <v>-9.1753295397893689E-3</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38">
-        <f t="shared" si="1"/>
-        <v>6.7030662146289749E-2</v>
+        <f>'BPTT hidden ke input'!O46</f>
+        <v>4.3770783322686947E-2</v>
       </c>
       <c r="L11" s="38">
-        <f t="shared" si="1"/>
-        <v>6.7030662146289763E-10</v>
+        <f>'BPTT hidden ke input'!P46</f>
+        <v>4.377078332268695E-10</v>
       </c>
       <c r="M11" s="38">
-        <f t="shared" si="1"/>
-        <v>8.5223995515494502E-3</v>
+        <f>'BPTT hidden ke input'!Q46</f>
+        <v>4.9003126503034322E-3</v>
       </c>
       <c r="N11" s="38">
-        <f t="shared" si="1"/>
-        <v>-1.5563693211472321E-2</v>
+        <f>'BPTT hidden ke input'!R46</f>
+        <v>-9.2308765279191674E-3</v>
       </c>
       <c r="P11" s="38">
-        <f t="shared" si="2"/>
-        <v>0.11080144546897669</v>
+        <f>'BPTT hidden ke input'!O50</f>
+        <v>3.9555688542212732E-2</v>
       </c>
       <c r="Q11" s="38">
-        <f t="shared" si="2"/>
-        <v>1.108014454689767E-9</v>
+        <f>'BPTT hidden ke input'!P50</f>
+        <v>3.9555688542212733E-10</v>
       </c>
       <c r="R11" s="38">
-        <f t="shared" si="2"/>
-        <v>1.3422712201852881E-2</v>
+        <f>'BPTT hidden ke input'!Q50</f>
+        <v>3.3937394302500081E-3</v>
       </c>
       <c r="S11" s="38">
-        <f t="shared" si="2"/>
-        <v>-2.4794569739391488E-2</v>
+        <f>'BPTT hidden ke input'!R50</f>
+        <v>-7.1072128208736329E-3</v>
       </c>
       <c r="T11" s="38"/>
       <c r="U11" s="38">
-        <f t="shared" si="3"/>
-        <v>0.15035713401118941</v>
+        <f>'BPTT hidden ke input'!O54</f>
+        <v>2.7128906643012436E-2</v>
       </c>
       <c r="V11" s="38">
-        <f t="shared" si="3"/>
-        <v>1.5035713401118944E-9</v>
+        <f>'BPTT hidden ke input'!P54</f>
+        <v>2.7128906643012437E-10</v>
       </c>
       <c r="W11" s="38">
-        <f t="shared" si="3"/>
-        <v>1.681645163210289E-2</v>
+        <f>'BPTT hidden ke input'!Q54</f>
+        <v>4.4777236146613074E-3</v>
       </c>
       <c r="X11" s="38">
-        <f t="shared" si="3"/>
-        <v>-3.1901782560265123E-2</v>
+        <f>'BPTT hidden ke input'!R54</f>
+        <v>-3.2059533509593272E-3</v>
       </c>
       <c r="Z11" s="38">
-        <f t="shared" si="4"/>
-        <v>0.17748604065420184</v>
+        <f>'BPTT hidden ke input'!O58</f>
+        <v>0</v>
       </c>
       <c r="AA11" s="38">
-        <f t="shared" si="4"/>
-        <v>1.7748604065420188E-9</v>
+        <f>'BPTT hidden ke input'!P58</f>
+        <v>0</v>
       </c>
       <c r="AB11" s="38">
-        <f t="shared" si="4"/>
-        <v>2.1294175246764198E-2</v>
+        <f>'BPTT hidden ke input'!Q58</f>
+        <v>0</v>
       </c>
       <c r="AC11" s="38">
-        <f t="shared" si="4"/>
-        <v>-3.5107735911224451E-2</v>
+        <f>'BPTT hidden ke input'!R58</f>
+        <v>0</v>
       </c>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
@@ -59821,99 +59429,103 @@
     </row>
     <row r="12" spans="1:71">
       <c r="A12" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!O39</f>
+        <v>3.0434795768048226E-2</v>
       </c>
       <c r="B12" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!P39</f>
+        <v>3.0434795768048227E-10</v>
       </c>
       <c r="C12" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!Q39</f>
+        <v>3.3356472474005265E-3</v>
       </c>
       <c r="D12" s="38">
-        <v>0</v>
+        <f>'BPTT hidden ke input'!R39</f>
+        <v>-7.2293911397202024E-3</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38">
-        <f t="shared" si="0"/>
-        <v>3.0434795768048226E-2</v>
+        <f>'BPTT hidden ke input'!O43</f>
+        <v>3.2460304645557839E-2</v>
       </c>
       <c r="G12" s="38">
-        <f t="shared" si="0"/>
-        <v>3.0434795768048227E-10</v>
+        <f>'BPTT hidden ke input'!P43</f>
+        <v>3.2460304645557842E-10</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" si="0"/>
-        <v>3.3356472474005265E-3</v>
+        <f>'BPTT hidden ke input'!Q43</f>
+        <v>4.5086115005993259E-3</v>
       </c>
       <c r="I12" s="38">
-        <f t="shared" si="0"/>
-        <v>-7.2293911397202024E-3</v>
+        <f>'BPTT hidden ke input'!R43</f>
+        <v>-7.4205304779509122E-3</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38">
-        <f t="shared" si="1"/>
-        <v>6.2895100413606062E-2</v>
+        <f>'BPTT hidden ke input'!O47</f>
+        <v>3.3130112178899759E-2</v>
       </c>
       <c r="L12" s="38">
-        <f t="shared" si="1"/>
-        <v>6.2895100413606074E-10</v>
+        <f>'BPTT hidden ke input'!P47</f>
+        <v>3.313011217889976E-10</v>
       </c>
       <c r="M12" s="38">
-        <f t="shared" si="1"/>
-        <v>7.8442587479998528E-3</v>
+        <f>'BPTT hidden ke input'!Q47</f>
+        <v>3.7090473483047614E-3</v>
       </c>
       <c r="N12" s="38">
-        <f t="shared" si="1"/>
-        <v>-1.4649921617671115E-2</v>
+        <f>'BPTT hidden ke input'!R47</f>
+        <v>-6.9868517687921841E-3</v>
       </c>
       <c r="P12" s="38">
-        <f t="shared" si="2"/>
-        <v>9.6025212592505821E-2</v>
+        <f>'BPTT hidden ke input'!O51</f>
+        <v>3.2088251908660693E-2</v>
       </c>
       <c r="Q12" s="38">
-        <f t="shared" si="2"/>
-        <v>9.6025212592505833E-10</v>
+        <f>'BPTT hidden ke input'!P51</f>
+        <v>3.2088251908660694E-10</v>
       </c>
       <c r="R12" s="38">
-        <f t="shared" si="2"/>
-        <v>1.1553306096304615E-2</v>
+        <f>'BPTT hidden ke input'!Q51</f>
+        <v>2.7530595412086612E-3</v>
       </c>
       <c r="S12" s="38">
-        <f t="shared" si="2"/>
-        <v>-2.16367733864633E-2</v>
+        <f>'BPTT hidden ke input'!R51</f>
+        <v>-5.7654927462905594E-3</v>
       </c>
       <c r="T12" s="38"/>
       <c r="U12" s="38">
-        <f t="shared" si="3"/>
-        <v>0.12811346450116651</v>
+        <f>'BPTT hidden ke input'!O55</f>
+        <v>2.692506350390134E-2</v>
       </c>
       <c r="V12" s="38">
-        <f t="shared" si="3"/>
-        <v>1.2811346450116653E-9</v>
+        <f>'BPTT hidden ke input'!P55</f>
+        <v>2.6925063503901342E-10</v>
       </c>
       <c r="W12" s="38">
-        <f t="shared" si="3"/>
-        <v>1.4306365637513276E-2</v>
+        <f>'BPTT hidden ke input'!Q55</f>
+        <v>4.4440785713982184E-3</v>
       </c>
       <c r="X12" s="38">
-        <f t="shared" si="3"/>
-        <v>-2.7402266132753858E-2</v>
+        <f>'BPTT hidden ke input'!R55</f>
+        <v>-3.1818642270037322E-3</v>
       </c>
       <c r="Z12" s="38">
-        <f t="shared" si="4"/>
-        <v>0.15503852800506784</v>
+        <f>'BPTT hidden ke input'!O59</f>
+        <v>1.7462904283222426E-2</v>
       </c>
       <c r="AA12" s="38">
-        <f t="shared" si="4"/>
-        <v>1.5503852800506788E-9</v>
+        <f>'BPTT hidden ke input'!P59</f>
+        <v>1.7462904283222427E-10</v>
       </c>
       <c r="AB12" s="38">
-        <f t="shared" si="4"/>
-        <v>1.8750444208911494E-2</v>
+        <f>'BPTT hidden ke input'!Q59</f>
+        <v>4.8008141254686811E-3</v>
       </c>
       <c r="AC12" s="38">
-        <f t="shared" si="4"/>
-        <v>-3.0584130359757589E-2</v>
+        <f>'BPTT hidden ke input'!R59</f>
+        <v>0</v>
       </c>
       <c r="AD12" s="38"/>
       <c r="AE12" s="38"/>
@@ -60006,63 +59618,33 @@
       <c r="BS13" s="38"/>
     </row>
     <row r="14" spans="1:71">
-      <c r="A14" s="38" t="str">
-        <f>$F$14</f>
-        <v>E =</v>
-      </c>
-      <c r="B14" s="38">
-        <f>'BACKPRO 1 (LSTM)'!$V$24/6</f>
-        <v>2.2501421448655707E-2</v>
-      </c>
+      <c r="A14" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
-      <c r="F14" s="38" t="str">
-        <f>'BACKPRO 1 (LSTM)'!AO110</f>
-        <v>E =</v>
-      </c>
-      <c r="G14" s="38">
-        <f>'BACKPRO 1 (LSTM)'!$AO$24/6</f>
-        <v>5.1429490238842801E-2</v>
-      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="38">
-        <f>'BACKPRO 1 (LSTM)'!$BH$24/6</f>
-        <v>8.2054438948781283E-2</v>
-      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
-      <c r="P14" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q14" s="38">
-        <f>'BACKPRO 1 (LSTM)'!$CA$24/6</f>
-        <v>0.10895820919898953</v>
-      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
-      <c r="U14" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="V14" s="38">
-        <f>'BACKPRO 1 (LSTM)'!$CT$24/6</f>
-        <v>0.13108092748580291</v>
-      </c>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
-      <c r="Z14" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA14" s="38">
-        <f>'BACKPRO 1 (LSTM)'!$DM$24/6</f>
-        <v>0.15468329459286959</v>
-      </c>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
       <c r="AB14" s="38"/>
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
@@ -60096,7 +59678,9 @@
       <c r="BS14" s="38"/>
     </row>
     <row r="15" spans="1:71">
-      <c r="A15" s="38"/>
+      <c r="A15" s="38" t="s">
+        <v>172</v>
+      </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -60155,45 +59739,101 @@
       <c r="BS15" s="38"/>
     </row>
     <row r="16" spans="1:71">
-      <c r="A16" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="38">
+        <v>0</v>
+      </c>
+      <c r="B16" s="38">
+        <v>0</v>
+      </c>
+      <c r="C16" s="38">
+        <v>0</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0</v>
+      </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38">
-        <v>5</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+        <f>A24</f>
+        <v>-0.21354602441433568</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" ref="F16:I19" si="0">B24</f>
+        <v>-2.135460244143357E-9</v>
+      </c>
+      <c r="H16" s="38">
+        <f t="shared" si="0"/>
+        <v>-2.3404599589224872E-2</v>
+      </c>
+      <c r="I16" s="38">
+        <f t="shared" si="0"/>
+        <v>5.0725089420321619E-2</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38">
-        <v>4</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
+        <f t="shared" ref="K16:N19" si="1">F24</f>
+        <v>-0.54188163909120945</v>
+      </c>
+      <c r="L16" s="38">
+        <f t="shared" si="1"/>
+        <v>-5.4188163909120948E-9</v>
+      </c>
+      <c r="M16" s="38">
+        <f t="shared" si="1"/>
+        <v>-6.9009153968879605E-2</v>
+      </c>
+      <c r="N16" s="38">
+        <f t="shared" si="1"/>
+        <v>0.12578367135017146</v>
+      </c>
       <c r="P16" s="38">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+        <f t="shared" ref="P16:S19" si="2">K24</f>
+        <v>-0.92905385718146749</v>
+      </c>
+      <c r="Q16" s="38">
+        <f t="shared" si="2"/>
+        <v>-9.2905385718146764E-9</v>
+      </c>
+      <c r="R16" s="38">
+        <f t="shared" si="2"/>
+        <v>-0.11235461809198463</v>
+      </c>
+      <c r="S16" s="38">
+        <f t="shared" si="2"/>
+        <v>0.20743491606023234</v>
+      </c>
       <c r="T16" s="38"/>
       <c r="U16" s="38">
-        <v>2</v>
-      </c>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
+        <f t="shared" ref="U16:X19" si="3">P24</f>
+        <v>-1.3491922264601135</v>
+      </c>
+      <c r="V16" s="38">
+        <f t="shared" si="3"/>
+        <v>-1.3491922264601136E-8</v>
+      </c>
+      <c r="W16" s="38">
+        <f t="shared" si="3"/>
+        <v>-0.14840101754879759</v>
+      </c>
+      <c r="X16" s="38">
+        <f t="shared" si="3"/>
+        <v>0.28292375002381115</v>
+      </c>
       <c r="Z16" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
+        <f t="shared" ref="Z16:AC19" si="4">U24</f>
+        <v>-1.7950040423293732</v>
+      </c>
+      <c r="AA16" s="38">
+        <f t="shared" si="4"/>
+        <v>-1.7950040423293732E-8</v>
+      </c>
+      <c r="AB16" s="38">
+        <f t="shared" si="4"/>
+        <v>-0.22198386118790853</v>
+      </c>
+      <c r="AC16" s="38">
+        <f t="shared" si="4"/>
+        <v>0.33560747605047159</v>
+      </c>
       <c r="AD16" s="38"/>
       <c r="AE16" s="38"/>
       <c r="AF16" s="38"/>
@@ -60227,103 +59867,99 @@
     </row>
     <row r="17" spans="1:71">
       <c r="A17" s="38">
-        <f t="shared" ref="A17:D20" si="5">A2+A9</f>
-        <v>-0.21354602441433568</v>
+        <v>0</v>
       </c>
       <c r="B17" s="38">
-        <f t="shared" si="5"/>
-        <v>-2.135460244143357E-9</v>
+        <v>0</v>
       </c>
       <c r="C17" s="38">
-        <f t="shared" si="5"/>
-        <v>-2.3404599589224872E-2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="38">
-        <f t="shared" si="5"/>
-        <v>5.0725089420321619E-2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38">
-        <f t="shared" ref="F17:I20" si="6">F2+F9</f>
-        <v>-0.54188163909120945</v>
+        <f t="shared" si="0"/>
+        <v>1.9904112184216772E-2</v>
       </c>
       <c r="G17" s="38">
-        <f t="shared" si="6"/>
-        <v>-5.4188163909120948E-9</v>
+        <f t="shared" si="0"/>
+        <v>1.9904112184216772E-10</v>
       </c>
       <c r="H17" s="38">
-        <f t="shared" si="6"/>
-        <v>-6.9009153968879605E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.1814865302607457E-3</v>
       </c>
       <c r="I17" s="38">
-        <f t="shared" si="6"/>
-        <v>0.12578367135017146</v>
+        <f t="shared" si="0"/>
+        <v>-4.7279637874107399E-3</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="38">
-        <f t="shared" ref="K17:N20" si="7">K2+K9</f>
-        <v>-0.92905385718146749</v>
+        <f t="shared" si="1"/>
+        <v>5.0430137418323438E-2</v>
       </c>
       <c r="L17" s="38">
-        <f t="shared" si="7"/>
-        <v>-9.2905385718146764E-9</v>
+        <f t="shared" si="1"/>
+        <v>5.0430137418323445E-10</v>
       </c>
       <c r="M17" s="38">
-        <f t="shared" si="7"/>
-        <v>-0.11235461809198463</v>
+        <f t="shared" si="1"/>
+        <v>6.4214340581997065E-3</v>
       </c>
       <c r="N17" s="38">
-        <f t="shared" si="7"/>
-        <v>0.20743491606023234</v>
+        <f t="shared" si="1"/>
+        <v>-1.1706311744825431E-2</v>
       </c>
       <c r="P17" s="38">
-        <f t="shared" ref="P17:S20" si="8">P2+P9</f>
-        <v>-1.3491922264601135</v>
+        <f t="shared" si="2"/>
+        <v>8.5794162239799909E-2</v>
       </c>
       <c r="Q17" s="38">
-        <f t="shared" si="8"/>
-        <v>-1.3491922264601136E-8</v>
+        <f t="shared" si="2"/>
+        <v>8.5794162239799909E-10</v>
       </c>
       <c r="R17" s="38">
-        <f t="shared" si="8"/>
-        <v>-0.14840101754879759</v>
+        <f t="shared" si="2"/>
+        <v>1.0380576779515933E-2</v>
       </c>
       <c r="S17" s="38">
-        <f t="shared" si="8"/>
-        <v>0.28292375002381115</v>
+        <f t="shared" si="2"/>
+        <v>-1.9164276210545179E-2</v>
       </c>
       <c r="T17" s="38"/>
       <c r="U17" s="38">
-        <f t="shared" ref="U17:X20" si="9">U2+U9</f>
-        <v>-1.7950040423293732</v>
+        <f t="shared" si="3"/>
+        <v>0.12309777298684449</v>
       </c>
       <c r="V17" s="38">
-        <f t="shared" si="9"/>
-        <v>-1.7950040423293732E-8</v>
+        <f t="shared" si="3"/>
+        <v>1.2309777298684448E-9</v>
       </c>
       <c r="W17" s="38">
-        <f t="shared" si="9"/>
-        <v>-0.22198386118790853</v>
+        <f t="shared" si="3"/>
+        <v>1.3581095828699985E-2</v>
       </c>
       <c r="X17" s="38">
-        <f t="shared" si="9"/>
-        <v>0.33560747605047159</v>
+        <f t="shared" si="3"/>
+        <v>-2.5866844421014855E-2</v>
       </c>
       <c r="Z17" s="38">
-        <f t="shared" ref="Z17:AC20" si="10">Z2+Z9</f>
-        <v>-2.2676865457716957</v>
+        <f t="shared" si="4"/>
+        <v>0.16120182544373796</v>
       </c>
       <c r="AA17" s="38">
-        <f t="shared" si="10"/>
-        <v>-2.2676865457716956E-8</v>
+        <f t="shared" si="4"/>
+        <v>1.6120182544373794E-9</v>
       </c>
       <c r="AB17" s="38">
-        <f t="shared" si="10"/>
-        <v>-0.35193136605787478</v>
+        <f t="shared" si="4"/>
+        <v>1.9870306733720786E-2</v>
       </c>
       <c r="AC17" s="38">
-        <f t="shared" si="10"/>
-        <v>0.33560747605047159</v>
+        <f t="shared" si="4"/>
+        <v>-3.0369783528248363E-2</v>
       </c>
       <c r="AD17" s="38"/>
       <c r="AE17" s="38"/>
@@ -60358,103 +59994,99 @@
     </row>
     <row r="18" spans="1:71">
       <c r="A18" s="38">
-        <f t="shared" si="5"/>
-        <v>1.9904112184216772E-2</v>
+        <v>0</v>
       </c>
       <c r="B18" s="38">
-        <f t="shared" si="5"/>
-        <v>1.9904112184216772E-10</v>
+        <v>0</v>
       </c>
       <c r="C18" s="38">
-        <f t="shared" si="5"/>
-        <v>2.1814865302607457E-3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="38">
-        <f t="shared" si="5"/>
-        <v>-4.7279637874107399E-3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38">
-        <f t="shared" si="6"/>
-        <v>5.0430137418323438E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.6894179590235073E-2</v>
       </c>
       <c r="G18" s="38">
-        <f t="shared" si="6"/>
-        <v>5.0430137418323445E-10</v>
+        <f t="shared" si="0"/>
+        <v>2.6894179590235074E-10</v>
       </c>
       <c r="H18" s="38">
-        <f t="shared" si="6"/>
-        <v>6.4214340581997065E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.9475964552206383E-3</v>
       </c>
       <c r="I18" s="38">
-        <f t="shared" si="6"/>
-        <v>-1.1706311744825431E-2</v>
+        <f t="shared" si="0"/>
+        <v>-6.3883636716829516E-3</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="38">
-        <f t="shared" si="7"/>
-        <v>8.5794162239799909E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.7030662146289749E-2</v>
       </c>
       <c r="L18" s="38">
-        <f t="shared" si="7"/>
-        <v>8.5794162239799909E-10</v>
+        <f t="shared" si="1"/>
+        <v>6.7030662146289763E-10</v>
       </c>
       <c r="M18" s="38">
-        <f t="shared" si="7"/>
-        <v>1.0380576779515933E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.5223995515494502E-3</v>
       </c>
       <c r="N18" s="38">
-        <f t="shared" si="7"/>
-        <v>-1.9164276210545179E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.5563693211472321E-2</v>
       </c>
       <c r="P18" s="38">
-        <f t="shared" si="8"/>
-        <v>0.12309777298684449</v>
+        <f t="shared" si="2"/>
+        <v>0.11080144546897669</v>
       </c>
       <c r="Q18" s="38">
-        <f t="shared" si="8"/>
-        <v>1.2309777298684448E-9</v>
+        <f t="shared" si="2"/>
+        <v>1.108014454689767E-9</v>
       </c>
       <c r="R18" s="38">
-        <f t="shared" si="8"/>
-        <v>1.3581095828699985E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3422712201852881E-2</v>
       </c>
       <c r="S18" s="38">
-        <f t="shared" si="8"/>
-        <v>-2.5866844421014855E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.4794569739391488E-2</v>
       </c>
       <c r="T18" s="38"/>
       <c r="U18" s="38">
-        <f t="shared" si="9"/>
-        <v>0.16120182544373796</v>
+        <f t="shared" si="3"/>
+        <v>0.15035713401118941</v>
       </c>
       <c r="V18" s="38">
-        <f t="shared" si="9"/>
-        <v>1.6120182544373794E-9</v>
+        <f t="shared" si="3"/>
+        <v>1.5035713401118944E-9</v>
       </c>
       <c r="W18" s="38">
-        <f t="shared" si="9"/>
-        <v>1.9870306733720786E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.681645163210289E-2</v>
       </c>
       <c r="X18" s="38">
-        <f t="shared" si="9"/>
-        <v>-3.0369783528248363E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.1901782560265123E-2</v>
       </c>
       <c r="Z18" s="38">
-        <f t="shared" si="10"/>
-        <v>0.19826984406878903</v>
+        <f t="shared" si="4"/>
+        <v>0.17748604065420184</v>
       </c>
       <c r="AA18" s="38">
-        <f t="shared" si="10"/>
-        <v>1.9826984406878903E-9</v>
+        <f t="shared" si="4"/>
+        <v>1.7748604065420188E-9</v>
       </c>
       <c r="AB18" s="38">
-        <f t="shared" si="10"/>
-        <v>3.0060860637704225E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.1294175246764198E-2</v>
       </c>
       <c r="AC18" s="38">
-        <f t="shared" si="10"/>
-        <v>-3.0369783528248363E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.5107735911224451E-2</v>
       </c>
       <c r="AD18" s="38"/>
       <c r="AE18" s="38"/>
@@ -60489,103 +60121,99 @@
     </row>
     <row r="19" spans="1:71">
       <c r="A19" s="38">
-        <f t="shared" si="5"/>
-        <v>2.6894179590235073E-2</v>
+        <v>0</v>
       </c>
       <c r="B19" s="38">
-        <f t="shared" si="5"/>
-        <v>2.6894179590235074E-10</v>
+        <v>0</v>
       </c>
       <c r="C19" s="38">
-        <f t="shared" si="5"/>
-        <v>2.9475964552206383E-3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="38">
-        <f t="shared" si="5"/>
-        <v>-6.3883636716829516E-3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38">
-        <f t="shared" si="6"/>
-        <v>6.7030662146289749E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.0434795768048226E-2</v>
       </c>
       <c r="G19" s="38">
-        <f t="shared" si="6"/>
-        <v>6.7030662146289763E-10</v>
+        <f t="shared" si="0"/>
+        <v>3.0434795768048227E-10</v>
       </c>
       <c r="H19" s="38">
-        <f t="shared" si="6"/>
-        <v>8.5223995515494502E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.3356472474005265E-3</v>
       </c>
       <c r="I19" s="38">
-        <f t="shared" si="6"/>
-        <v>-1.5563693211472321E-2</v>
+        <f t="shared" si="0"/>
+        <v>-7.2293911397202024E-3</v>
       </c>
       <c r="J19" s="38"/>
       <c r="K19" s="38">
-        <f t="shared" si="7"/>
-        <v>0.11080144546897669</v>
+        <f t="shared" si="1"/>
+        <v>6.2895100413606062E-2</v>
       </c>
       <c r="L19" s="38">
-        <f t="shared" si="7"/>
-        <v>1.108014454689767E-9</v>
+        <f t="shared" si="1"/>
+        <v>6.2895100413606074E-10</v>
       </c>
       <c r="M19" s="38">
-        <f t="shared" si="7"/>
-        <v>1.3422712201852881E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8442587479998528E-3</v>
       </c>
       <c r="N19" s="38">
-        <f t="shared" si="7"/>
-        <v>-2.4794569739391488E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.4649921617671115E-2</v>
       </c>
       <c r="P19" s="38">
-        <f t="shared" si="8"/>
-        <v>0.15035713401118941</v>
+        <f t="shared" si="2"/>
+        <v>9.6025212592505821E-2</v>
       </c>
       <c r="Q19" s="38">
-        <f t="shared" si="8"/>
-        <v>1.5035713401118944E-9</v>
+        <f t="shared" si="2"/>
+        <v>9.6025212592505833E-10</v>
       </c>
       <c r="R19" s="38">
-        <f t="shared" si="8"/>
-        <v>1.681645163210289E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.1553306096304615E-2</v>
       </c>
       <c r="S19" s="38">
-        <f t="shared" si="8"/>
-        <v>-3.1901782560265123E-2</v>
+        <f t="shared" si="2"/>
+        <v>-2.16367733864633E-2</v>
       </c>
       <c r="T19" s="38"/>
       <c r="U19" s="38">
-        <f t="shared" si="9"/>
-        <v>0.17748604065420184</v>
+        <f t="shared" si="3"/>
+        <v>0.12811346450116651</v>
       </c>
       <c r="V19" s="38">
-        <f t="shared" si="9"/>
-        <v>1.7748604065420188E-9</v>
+        <f t="shared" si="3"/>
+        <v>1.2811346450116653E-9</v>
       </c>
       <c r="W19" s="38">
-        <f t="shared" si="9"/>
-        <v>2.1294175246764198E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.4306365637513276E-2</v>
       </c>
       <c r="X19" s="38">
-        <f t="shared" si="9"/>
-        <v>-3.5107735911224451E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.7402266132753858E-2</v>
       </c>
       <c r="Z19" s="38">
-        <f t="shared" si="10"/>
-        <v>0.17748604065420184</v>
+        <f t="shared" si="4"/>
+        <v>0.15503852800506784</v>
       </c>
       <c r="AA19" s="38">
-        <f t="shared" si="10"/>
-        <v>1.7748604065420188E-9</v>
+        <f t="shared" si="4"/>
+        <v>1.5503852800506788E-9</v>
       </c>
       <c r="AB19" s="38">
-        <f t="shared" si="10"/>
-        <v>2.1294175246764198E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.8750444208911494E-2</v>
       </c>
       <c r="AC19" s="38">
-        <f t="shared" si="10"/>
-        <v>-3.5107735911224451E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.0584130359757589E-2</v>
       </c>
       <c r="AD19" s="38"/>
       <c r="AE19" s="38"/>
@@ -60619,105 +60247,33 @@
       <c r="BS19" s="38"/>
     </row>
     <row r="20" spans="1:71">
-      <c r="A20" s="38">
-        <f t="shared" si="5"/>
-        <v>3.0434795768048226E-2</v>
-      </c>
-      <c r="B20" s="38">
-        <f t="shared" si="5"/>
-        <v>3.0434795768048227E-10</v>
-      </c>
-      <c r="C20" s="38">
-        <f t="shared" si="5"/>
-        <v>3.3356472474005265E-3</v>
-      </c>
-      <c r="D20" s="38">
-        <f t="shared" si="5"/>
-        <v>-7.2293911397202024E-3</v>
-      </c>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="38">
-        <f t="shared" si="6"/>
-        <v>6.2895100413606062E-2</v>
-      </c>
-      <c r="G20" s="38">
-        <f t="shared" si="6"/>
-        <v>6.2895100413606074E-10</v>
-      </c>
-      <c r="H20" s="38">
-        <f t="shared" si="6"/>
-        <v>7.8442587479998528E-3</v>
-      </c>
-      <c r="I20" s="38">
-        <f t="shared" si="6"/>
-        <v>-1.4649921617671115E-2</v>
-      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="38">
-        <f t="shared" si="7"/>
-        <v>9.6025212592505821E-2</v>
-      </c>
-      <c r="L20" s="38">
-        <f t="shared" si="7"/>
-        <v>9.6025212592505833E-10</v>
-      </c>
-      <c r="M20" s="38">
-        <f t="shared" si="7"/>
-        <v>1.1553306096304615E-2</v>
-      </c>
-      <c r="N20" s="38">
-        <f t="shared" si="7"/>
-        <v>-2.16367733864633E-2</v>
-      </c>
-      <c r="P20" s="38">
-        <f t="shared" si="8"/>
-        <v>0.12811346450116651</v>
-      </c>
-      <c r="Q20" s="38">
-        <f t="shared" si="8"/>
-        <v>1.2811346450116653E-9</v>
-      </c>
-      <c r="R20" s="38">
-        <f t="shared" si="8"/>
-        <v>1.4306365637513276E-2</v>
-      </c>
-      <c r="S20" s="38">
-        <f t="shared" si="8"/>
-        <v>-2.7402266132753858E-2</v>
-      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
       <c r="T20" s="38"/>
-      <c r="U20" s="38">
-        <f t="shared" si="9"/>
-        <v>0.15503852800506784</v>
-      </c>
-      <c r="V20" s="38">
-        <f t="shared" si="9"/>
-        <v>1.5503852800506788E-9</v>
-      </c>
-      <c r="W20" s="38">
-        <f t="shared" si="9"/>
-        <v>1.8750444208911494E-2</v>
-      </c>
-      <c r="X20" s="38">
-        <f t="shared" si="9"/>
-        <v>-3.0584130359757589E-2</v>
-      </c>
-      <c r="Z20" s="38">
-        <f t="shared" si="10"/>
-        <v>0.17250143228829026</v>
-      </c>
-      <c r="AA20" s="38">
-        <f t="shared" si="10"/>
-        <v>1.7250143228829031E-9</v>
-      </c>
-      <c r="AB20" s="38">
-        <f t="shared" si="10"/>
-        <v>2.3551258334380175E-2</v>
-      </c>
-      <c r="AC20" s="38">
-        <f t="shared" si="10"/>
-        <v>-3.0584130359757589E-2</v>
-      </c>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
       <c r="AD20" s="38"/>
       <c r="AE20" s="38"/>
       <c r="AF20" s="38"/>
@@ -60750,6 +60306,65 @@
       <c r="BS20" s="38"/>
     </row>
     <row r="21" spans="1:71">
+      <c r="A21" s="38" t="str">
+        <f>$F$21</f>
+        <v>E =</v>
+      </c>
+      <c r="B21" s="38">
+        <f>'BACKPRO 1 (LSTM)'!$V$24/6</f>
+        <v>2.2501421448655707E-2</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38" t="str">
+        <f>'BACKPRO 1 (LSTM)'!AO110</f>
+        <v>E =</v>
+      </c>
+      <c r="G21" s="38">
+        <f>'BACKPRO 1 (LSTM)'!$AO$24/6</f>
+        <v>5.1429490238842801E-2</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="38">
+        <f>'BACKPRO 1 (LSTM)'!$BH$24/6</f>
+        <v>8.2054438948781283E-2</v>
+      </c>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="P21" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q21" s="38">
+        <f>'BACKPRO 1 (LSTM)'!$CA$24/6</f>
+        <v>0.10895820919898953</v>
+      </c>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="V21" s="38">
+        <f>'BACKPRO 1 (LSTM)'!$CT$24/6</f>
+        <v>0.13108092748580291</v>
+      </c>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Z21" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA21" s="38">
+        <f>'BACKPRO 1 (LSTM)'!$DM$24/6</f>
+        <v>0.15468329459286959</v>
+      </c>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
       <c r="AD21" s="38"/>
       <c r="AE21" s="38"/>
       <c r="AF21" s="38"/>
@@ -60841,30 +60456,42 @@
       <c r="BS22" s="38"/>
     </row>
     <row r="23" spans="1:71">
-      <c r="A23" s="38"/>
+      <c r="A23" s="64" t="s">
+        <v>173</v>
+      </c>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="38">
+        <v>5</v>
+      </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="K23" s="38">
+        <v>4</v>
+      </c>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="P23" s="38">
+        <v>3</v>
+      </c>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
+      <c r="U23" s="38">
+        <v>2</v>
+      </c>
       <c r="V23" s="38"/>
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
-      <c r="Z23" s="38"/>
+      <c r="Z23" s="38">
+        <v>1</v>
+      </c>
       <c r="AA23" s="38"/>
       <c r="AB23" s="38"/>
       <c r="AC23" s="38"/>
@@ -60900,33 +60527,105 @@
       <c r="BS23" s="38"/>
     </row>
     <row r="24" spans="1:71">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="A24" s="38">
+        <f t="shared" ref="A24:D27" si="5">A9+A16</f>
+        <v>-0.21354602441433568</v>
+      </c>
+      <c r="B24" s="38">
+        <f t="shared" si="5"/>
+        <v>-2.135460244143357E-9</v>
+      </c>
+      <c r="C24" s="38">
+        <f t="shared" si="5"/>
+        <v>-2.3404599589224872E-2</v>
+      </c>
+      <c r="D24" s="38">
+        <f t="shared" si="5"/>
+        <v>5.0725089420321619E-2</v>
+      </c>
       <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
+      <c r="F24" s="38">
+        <f t="shared" ref="F24:I27" si="6">F9+F16</f>
+        <v>-0.54188163909120945</v>
+      </c>
+      <c r="G24" s="38">
+        <f t="shared" si="6"/>
+        <v>-5.4188163909120948E-9</v>
+      </c>
+      <c r="H24" s="38">
+        <f t="shared" si="6"/>
+        <v>-6.9009153968879605E-2</v>
+      </c>
+      <c r="I24" s="38">
+        <f t="shared" si="6"/>
+        <v>0.12578367135017146</v>
+      </c>
       <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="K24" s="38">
+        <f t="shared" ref="K24:N27" si="7">K9+K16</f>
+        <v>-0.92905385718146749</v>
+      </c>
+      <c r="L24" s="38">
+        <f t="shared" si="7"/>
+        <v>-9.2905385718146764E-9</v>
+      </c>
+      <c r="M24" s="38">
+        <f t="shared" si="7"/>
+        <v>-0.11235461809198463</v>
+      </c>
+      <c r="N24" s="38">
+        <f t="shared" si="7"/>
+        <v>0.20743491606023234</v>
+      </c>
+      <c r="P24" s="38">
+        <f t="shared" ref="P24:S27" si="8">P9+P16</f>
+        <v>-1.3491922264601135</v>
+      </c>
+      <c r="Q24" s="38">
+        <f t="shared" si="8"/>
+        <v>-1.3491922264601136E-8</v>
+      </c>
+      <c r="R24" s="38">
+        <f t="shared" si="8"/>
+        <v>-0.14840101754879759</v>
+      </c>
+      <c r="S24" s="38">
+        <f t="shared" si="8"/>
+        <v>0.28292375002381115</v>
+      </c>
       <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
+      <c r="U24" s="38">
+        <f t="shared" ref="U24:X27" si="9">U9+U16</f>
+        <v>-1.7950040423293732</v>
+      </c>
+      <c r="V24" s="38">
+        <f t="shared" si="9"/>
+        <v>-1.7950040423293732E-8</v>
+      </c>
+      <c r="W24" s="38">
+        <f t="shared" si="9"/>
+        <v>-0.22198386118790853</v>
+      </c>
+      <c r="X24" s="38">
+        <f t="shared" si="9"/>
+        <v>0.33560747605047159</v>
+      </c>
+      <c r="Z24" s="38">
+        <f t="shared" ref="Z24:AC27" si="10">Z9+Z16</f>
+        <v>-2.2676865457716957</v>
+      </c>
+      <c r="AA24" s="38">
+        <f t="shared" si="10"/>
+        <v>-2.2676865457716956E-8</v>
+      </c>
+      <c r="AB24" s="38">
+        <f t="shared" si="10"/>
+        <v>-0.35193136605787478</v>
+      </c>
+      <c r="AC24" s="38">
+        <f t="shared" si="10"/>
+        <v>0.33560747605047159</v>
+      </c>
       <c r="AD24" s="38"/>
       <c r="AE24" s="38"/>
       <c r="AF24" s="38"/>
@@ -60959,6 +60658,105 @@
       <c r="BS24" s="38"/>
     </row>
     <row r="25" spans="1:71">
+      <c r="A25" s="38">
+        <f t="shared" si="5"/>
+        <v>1.9904112184216772E-2</v>
+      </c>
+      <c r="B25" s="38">
+        <f t="shared" si="5"/>
+        <v>1.9904112184216772E-10</v>
+      </c>
+      <c r="C25" s="38">
+        <f t="shared" si="5"/>
+        <v>2.1814865302607457E-3</v>
+      </c>
+      <c r="D25" s="38">
+        <f t="shared" si="5"/>
+        <v>-4.7279637874107399E-3</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38">
+        <f t="shared" si="6"/>
+        <v>5.0430137418323438E-2</v>
+      </c>
+      <c r="G25" s="38">
+        <f t="shared" si="6"/>
+        <v>5.0430137418323445E-10</v>
+      </c>
+      <c r="H25" s="38">
+        <f t="shared" si="6"/>
+        <v>6.4214340581997065E-3</v>
+      </c>
+      <c r="I25" s="38">
+        <f t="shared" si="6"/>
+        <v>-1.1706311744825431E-2</v>
+      </c>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38">
+        <f t="shared" si="7"/>
+        <v>8.5794162239799909E-2</v>
+      </c>
+      <c r="L25" s="38">
+        <f t="shared" si="7"/>
+        <v>8.5794162239799909E-10</v>
+      </c>
+      <c r="M25" s="38">
+        <f t="shared" si="7"/>
+        <v>1.0380576779515933E-2</v>
+      </c>
+      <c r="N25" s="38">
+        <f t="shared" si="7"/>
+        <v>-1.9164276210545179E-2</v>
+      </c>
+      <c r="P25" s="38">
+        <f t="shared" si="8"/>
+        <v>0.12309777298684449</v>
+      </c>
+      <c r="Q25" s="38">
+        <f t="shared" si="8"/>
+        <v>1.2309777298684448E-9</v>
+      </c>
+      <c r="R25" s="38">
+        <f t="shared" si="8"/>
+        <v>1.3581095828699985E-2</v>
+      </c>
+      <c r="S25" s="38">
+        <f t="shared" si="8"/>
+        <v>-2.5866844421014855E-2</v>
+      </c>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38">
+        <f t="shared" si="9"/>
+        <v>0.16120182544373796</v>
+      </c>
+      <c r="V25" s="38">
+        <f t="shared" si="9"/>
+        <v>1.6120182544373794E-9</v>
+      </c>
+      <c r="W25" s="38">
+        <f t="shared" si="9"/>
+        <v>1.9870306733720786E-2</v>
+      </c>
+      <c r="X25" s="38">
+        <f t="shared" si="9"/>
+        <v>-3.0369783528248363E-2</v>
+      </c>
+      <c r="Z25" s="38">
+        <f t="shared" si="10"/>
+        <v>0.19826984406878903</v>
+      </c>
+      <c r="AA25" s="38">
+        <f t="shared" si="10"/>
+        <v>1.9826984406878903E-9</v>
+      </c>
+      <c r="AB25" s="38">
+        <f t="shared" si="10"/>
+        <v>3.0060860637704225E-2</v>
+      </c>
+      <c r="AC25" s="38">
+        <f t="shared" si="10"/>
+        <v>-3.0369783528248363E-2</v>
+      </c>
       <c r="AD25" s="38"/>
       <c r="AE25" s="38"/>
       <c r="AF25" s="38"/>
@@ -60991,6 +60789,105 @@
       <c r="BS25" s="38"/>
     </row>
     <row r="26" spans="1:71">
+      <c r="A26" s="38">
+        <f t="shared" si="5"/>
+        <v>2.6894179590235073E-2</v>
+      </c>
+      <c r="B26" s="38">
+        <f t="shared" si="5"/>
+        <v>2.6894179590235074E-10</v>
+      </c>
+      <c r="C26" s="38">
+        <f t="shared" si="5"/>
+        <v>2.9475964552206383E-3</v>
+      </c>
+      <c r="D26" s="38">
+        <f t="shared" si="5"/>
+        <v>-6.3883636716829516E-3</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38">
+        <f t="shared" si="6"/>
+        <v>6.7030662146289749E-2</v>
+      </c>
+      <c r="G26" s="38">
+        <f t="shared" si="6"/>
+        <v>6.7030662146289763E-10</v>
+      </c>
+      <c r="H26" s="38">
+        <f t="shared" si="6"/>
+        <v>8.5223995515494502E-3</v>
+      </c>
+      <c r="I26" s="38">
+        <f t="shared" si="6"/>
+        <v>-1.5563693211472321E-2</v>
+      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38">
+        <f t="shared" si="7"/>
+        <v>0.11080144546897669</v>
+      </c>
+      <c r="L26" s="38">
+        <f t="shared" si="7"/>
+        <v>1.108014454689767E-9</v>
+      </c>
+      <c r="M26" s="38">
+        <f t="shared" si="7"/>
+        <v>1.3422712201852881E-2</v>
+      </c>
+      <c r="N26" s="38">
+        <f t="shared" si="7"/>
+        <v>-2.4794569739391488E-2</v>
+      </c>
+      <c r="P26" s="38">
+        <f t="shared" si="8"/>
+        <v>0.15035713401118941</v>
+      </c>
+      <c r="Q26" s="38">
+        <f t="shared" si="8"/>
+        <v>1.5035713401118944E-9</v>
+      </c>
+      <c r="R26" s="38">
+        <f t="shared" si="8"/>
+        <v>1.681645163210289E-2</v>
+      </c>
+      <c r="S26" s="38">
+        <f t="shared" si="8"/>
+        <v>-3.1901782560265123E-2</v>
+      </c>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38">
+        <f t="shared" si="9"/>
+        <v>0.17748604065420184</v>
+      </c>
+      <c r="V26" s="38">
+        <f t="shared" si="9"/>
+        <v>1.7748604065420188E-9</v>
+      </c>
+      <c r="W26" s="38">
+        <f t="shared" si="9"/>
+        <v>2.1294175246764198E-2</v>
+      </c>
+      <c r="X26" s="38">
+        <f t="shared" si="9"/>
+        <v>-3.5107735911224451E-2</v>
+      </c>
+      <c r="Z26" s="38">
+        <f t="shared" si="10"/>
+        <v>0.17748604065420184</v>
+      </c>
+      <c r="AA26" s="38">
+        <f t="shared" si="10"/>
+        <v>1.7748604065420188E-9</v>
+      </c>
+      <c r="AB26" s="38">
+        <f t="shared" si="10"/>
+        <v>2.1294175246764198E-2</v>
+      </c>
+      <c r="AC26" s="38">
+        <f t="shared" si="10"/>
+        <v>-3.5107735911224451E-2</v>
+      </c>
       <c r="AD26" s="38"/>
       <c r="AE26" s="38"/>
       <c r="AF26" s="38"/>
@@ -61023,6 +60920,105 @@
       <c r="BS26" s="38"/>
     </row>
     <row r="27" spans="1:71">
+      <c r="A27" s="38">
+        <f t="shared" si="5"/>
+        <v>3.0434795768048226E-2</v>
+      </c>
+      <c r="B27" s="38">
+        <f t="shared" si="5"/>
+        <v>3.0434795768048227E-10</v>
+      </c>
+      <c r="C27" s="38">
+        <f t="shared" si="5"/>
+        <v>3.3356472474005265E-3</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" si="5"/>
+        <v>-7.2293911397202024E-3</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38">
+        <f t="shared" si="6"/>
+        <v>6.2895100413606062E-2</v>
+      </c>
+      <c r="G27" s="38">
+        <f t="shared" si="6"/>
+        <v>6.2895100413606074E-10</v>
+      </c>
+      <c r="H27" s="38">
+        <f t="shared" si="6"/>
+        <v>7.8442587479998528E-3</v>
+      </c>
+      <c r="I27" s="38">
+        <f t="shared" si="6"/>
+        <v>-1.4649921617671115E-2</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38">
+        <f t="shared" si="7"/>
+        <v>9.6025212592505821E-2</v>
+      </c>
+      <c r="L27" s="38">
+        <f t="shared" si="7"/>
+        <v>9.6025212592505833E-10</v>
+      </c>
+      <c r="M27" s="38">
+        <f t="shared" si="7"/>
+        <v>1.1553306096304615E-2</v>
+      </c>
+      <c r="N27" s="38">
+        <f t="shared" si="7"/>
+        <v>-2.16367733864633E-2</v>
+      </c>
+      <c r="P27" s="38">
+        <f t="shared" si="8"/>
+        <v>0.12811346450116651</v>
+      </c>
+      <c r="Q27" s="38">
+        <f t="shared" si="8"/>
+        <v>1.2811346450116653E-9</v>
+      </c>
+      <c r="R27" s="38">
+        <f t="shared" si="8"/>
+        <v>1.4306365637513276E-2</v>
+      </c>
+      <c r="S27" s="38">
+        <f t="shared" si="8"/>
+        <v>-2.7402266132753858E-2</v>
+      </c>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38">
+        <f t="shared" si="9"/>
+        <v>0.15503852800506784</v>
+      </c>
+      <c r="V27" s="38">
+        <f t="shared" si="9"/>
+        <v>1.5503852800506788E-9</v>
+      </c>
+      <c r="W27" s="38">
+        <f t="shared" si="9"/>
+        <v>1.8750444208911494E-2</v>
+      </c>
+      <c r="X27" s="38">
+        <f t="shared" si="9"/>
+        <v>-3.0584130359757589E-2</v>
+      </c>
+      <c r="Z27" s="38">
+        <f t="shared" si="10"/>
+        <v>0.17250143228829026</v>
+      </c>
+      <c r="AA27" s="38">
+        <f t="shared" si="10"/>
+        <v>1.7250143228829031E-9</v>
+      </c>
+      <c r="AB27" s="38">
+        <f t="shared" si="10"/>
+        <v>2.3551258334380175E-2</v>
+      </c>
+      <c r="AC27" s="38">
+        <f t="shared" si="10"/>
+        <v>-3.0584130359757589E-2</v>
+      </c>
       <c r="AD27" s="38"/>
       <c r="AE27" s="38"/>
       <c r="AF27" s="38"/>
@@ -61183,31 +61179,6 @@
       <c r="BS31" s="38"/>
     </row>
     <row r="32" spans="1:71">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
       <c r="AD32" s="38"/>
       <c r="AE32" s="38"/>
       <c r="AF32" s="38"/>
@@ -61239,7 +61210,7 @@
       <c r="BR32" s="38"/>
       <c r="BS32" s="38"/>
     </row>
-    <row r="33" spans="1:71">
+    <row r="33" spans="30:71">
       <c r="AE33" s="38"/>
       <c r="AF33" s="38"/>
       <c r="AG33" s="38"/>
@@ -61270,7 +61241,7 @@
       <c r="BR33" s="38"/>
       <c r="BS33" s="38"/>
     </row>
-    <row r="34" spans="1:71">
+    <row r="34" spans="30:71">
       <c r="AE34" s="38"/>
       <c r="AF34" s="38"/>
       <c r="AG34" s="38"/>
@@ -61301,7 +61272,7 @@
       <c r="BR34" s="38"/>
       <c r="BS34" s="38"/>
     </row>
-    <row r="35" spans="1:71">
+    <row r="35" spans="30:71">
       <c r="AE35" s="38"/>
       <c r="AF35" s="38"/>
       <c r="AG35" s="38"/>
@@ -61332,7 +61303,7 @@
       <c r="BR35" s="38"/>
       <c r="BS35" s="38"/>
     </row>
-    <row r="36" spans="1:71">
+    <row r="36" spans="30:71">
       <c r="AE36" s="38"/>
       <c r="AF36" s="38"/>
       <c r="AG36" s="38"/>
@@ -61363,7 +61334,7 @@
       <c r="BR36" s="38"/>
       <c r="BS36" s="38"/>
     </row>
-    <row r="37" spans="1:71">
+    <row r="37" spans="30:71">
       <c r="AE37" s="38"/>
       <c r="AF37" s="38"/>
       <c r="AG37" s="38"/>
@@ -61394,7 +61365,7 @@
       <c r="BR37" s="38"/>
       <c r="BS37" s="38"/>
     </row>
-    <row r="38" spans="1:71">
+    <row r="38" spans="30:71">
       <c r="AE38" s="38"/>
       <c r="AF38" s="38"/>
       <c r="AG38" s="38"/>
@@ -61425,7 +61396,7 @@
       <c r="BR38" s="38"/>
       <c r="BS38" s="38"/>
     </row>
-    <row r="39" spans="1:71">
+    <row r="39" spans="30:71">
       <c r="AE39" s="38"/>
       <c r="AF39" s="38"/>
       <c r="AG39" s="38"/>
@@ -61456,7 +61427,7 @@
       <c r="BR39" s="38"/>
       <c r="BS39" s="38"/>
     </row>
-    <row r="40" spans="1:71">
+    <row r="40" spans="30:71">
       <c r="AE40" s="38"/>
       <c r="AF40" s="38"/>
       <c r="AG40" s="38"/>
@@ -61487,7 +61458,7 @@
       <c r="BR40" s="38"/>
       <c r="BS40" s="38"/>
     </row>
-    <row r="41" spans="1:71">
+    <row r="41" spans="30:71">
       <c r="AE41" s="38"/>
       <c r="AF41" s="38"/>
       <c r="AG41" s="38"/>
@@ -61518,7 +61489,7 @@
       <c r="BR41" s="38"/>
       <c r="BS41" s="38"/>
     </row>
-    <row r="42" spans="1:71">
+    <row r="42" spans="30:71">
       <c r="AE42" s="38"/>
       <c r="AF42" s="38"/>
       <c r="AG42" s="38"/>
@@ -61549,7 +61520,7 @@
       <c r="BR42" s="38"/>
       <c r="BS42" s="38"/>
     </row>
-    <row r="43" spans="1:71">
+    <row r="43" spans="30:71">
       <c r="AE43" s="38"/>
       <c r="AF43" s="38"/>
       <c r="AG43" s="38"/>
@@ -61580,7 +61551,7 @@
       <c r="BR43" s="38"/>
       <c r="BS43" s="38"/>
     </row>
-    <row r="44" spans="1:71">
+    <row r="44" spans="30:71">
       <c r="AE44" s="38"/>
       <c r="AF44" s="38"/>
       <c r="AG44" s="38"/>
@@ -61611,7 +61582,7 @@
       <c r="BR44" s="38"/>
       <c r="BS44" s="38"/>
     </row>
-    <row r="45" spans="1:71">
+    <row r="45" spans="30:71">
       <c r="AE45" s="38"/>
       <c r="AF45" s="38"/>
       <c r="AG45" s="38"/>
@@ -61642,7 +61613,7 @@
       <c r="BR45" s="38"/>
       <c r="BS45" s="38"/>
     </row>
-    <row r="46" spans="1:71">
+    <row r="46" spans="30:71">
       <c r="AE46" s="38"/>
       <c r="AF46" s="38"/>
       <c r="AG46" s="38"/>
@@ -61681,36 +61652,7 @@
       <c r="BR46" s="38"/>
       <c r="BS46" s="38"/>
     </row>
-    <row r="47" spans="1:71">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
+    <row r="47" spans="30:71">
       <c r="AD47" s="38"/>
       <c r="AE47" s="38"/>
       <c r="AF47" s="38"/>
@@ -61750,36 +61692,7 @@
       <c r="BR47" s="38"/>
       <c r="BS47" s="38"/>
     </row>
-    <row r="48" spans="1:71">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38"/>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="38"/>
+    <row r="48" spans="30:71">
       <c r="AD48" s="38"/>
       <c r="AE48" s="38"/>
       <c r="AF48" s="38"/>
@@ -61820,35 +61733,6 @@
       <c r="BS48" s="38"/>
     </row>
     <row r="49" spans="1:71">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="38"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
@@ -61893,35 +61777,6 @@
       <c r="BS49" s="38"/>
     </row>
     <row r="50" spans="1:71">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="38"/>
       <c r="AD50" s="38"/>
       <c r="AE50" s="38"/>
       <c r="AF50" s="38"/>
@@ -62928,7 +62783,7 @@
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -62947,19 +62802,19 @@
     </row>
     <row r="2" spans="1:17">
       <c r="G2">
-        <f>'Bobot Error untuk squence'!Z17</f>
+        <f>'Bobot Error untuk squence'!Z24</f>
         <v>-2.2676865457716957</v>
       </c>
       <c r="H2">
-        <f>'Bobot Error untuk squence'!AA17</f>
+        <f>'Bobot Error untuk squence'!AA24</f>
         <v>-2.2676865457716956E-8</v>
       </c>
       <c r="I2">
-        <f>'Bobot Error untuk squence'!AB17</f>
+        <f>'Bobot Error untuk squence'!AB24</f>
         <v>-0.35193136605787478</v>
       </c>
       <c r="J2">
-        <f>'Bobot Error untuk squence'!AC17</f>
+        <f>'Bobot Error untuk squence'!AC24</f>
         <v>0.33560747605047159</v>
       </c>
       <c r="M2" t="s">
@@ -62973,61 +62828,61 @@
         <v>179</v>
       </c>
       <c r="Q2">
-        <f>0+'Bobot Error untuk squence'!$AA$14</f>
+        <f>0+'Bobot Error untuk squence'!$AA$21</f>
         <v>0.15468329459286959</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="G3">
-        <f>'Bobot Error untuk squence'!Z18</f>
+        <f>'Bobot Error untuk squence'!Z25</f>
         <v>0.19826984406878903</v>
       </c>
       <c r="H3">
-        <f>'Bobot Error untuk squence'!AA18</f>
+        <f>'Bobot Error untuk squence'!AA25</f>
         <v>1.9826984406878903E-9</v>
       </c>
       <c r="I3">
-        <f>'Bobot Error untuk squence'!AB18</f>
+        <f>'Bobot Error untuk squence'!AB25</f>
         <v>3.0060860637704225E-2</v>
       </c>
       <c r="J3">
-        <f>'Bobot Error untuk squence'!AC18</f>
+        <f>'Bobot Error untuk squence'!AC25</f>
         <v>-3.0369783528248363E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="G4">
-        <f>'Bobot Error untuk squence'!Z19</f>
+        <f>'Bobot Error untuk squence'!Z26</f>
         <v>0.17748604065420184</v>
       </c>
       <c r="H4">
-        <f>'Bobot Error untuk squence'!AA19</f>
+        <f>'Bobot Error untuk squence'!AA26</f>
         <v>1.7748604065420188E-9</v>
       </c>
       <c r="I4">
-        <f>'Bobot Error untuk squence'!AB19</f>
+        <f>'Bobot Error untuk squence'!AB26</f>
         <v>2.1294175246764198E-2</v>
       </c>
       <c r="J4">
-        <f>'Bobot Error untuk squence'!AC19</f>
+        <f>'Bobot Error untuk squence'!AC26</f>
         <v>-3.5107735911224451E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="G5">
-        <f>'Bobot Error untuk squence'!Z20</f>
+        <f>'Bobot Error untuk squence'!Z27</f>
         <v>0.17250143228829026</v>
       </c>
       <c r="H5">
-        <f>'Bobot Error untuk squence'!AA20</f>
+        <f>'Bobot Error untuk squence'!AA27</f>
         <v>1.7250143228829031E-9</v>
       </c>
       <c r="I5">
-        <f>'Bobot Error untuk squence'!AB20</f>
+        <f>'Bobot Error untuk squence'!AB27</f>
         <v>2.3551258334380175E-2</v>
       </c>
       <c r="J5">
-        <f>'Bobot Error untuk squence'!AC20</f>
+        <f>'Bobot Error untuk squence'!AC27</f>
         <v>-3.0584130359757589E-2</v>
       </c>
     </row>
@@ -63054,19 +62909,19 @@
         <v>0.18439808699999999</v>
       </c>
       <c r="G7">
-        <f>G2*$N$2</f>
+        <f t="shared" ref="G7:J10" si="0">G2*$N$2</f>
         <v>-0.11338432728858479</v>
       </c>
       <c r="H7" s="30">
-        <f>H2*$N$2</f>
+        <f t="shared" si="0"/>
         <v>-1.1338432728858478E-9</v>
       </c>
       <c r="I7" s="30">
-        <f>I2*$N$2</f>
+        <f t="shared" si="0"/>
         <v>-1.7596568302893741E-2</v>
       </c>
       <c r="J7" s="30">
-        <f>J2*$N$2</f>
+        <f t="shared" si="0"/>
         <v>1.678037380252358E-2</v>
       </c>
       <c r="M7" s="30">
@@ -63074,15 +62929,15 @@
         <v>-0.13232995871141523</v>
       </c>
       <c r="N7" s="30">
-        <f t="shared" ref="N7:P7" si="0">B7-H7</f>
+        <f t="shared" ref="N7:P7" si="1">B7-H7</f>
         <v>0.85036060313384321</v>
       </c>
       <c r="O7" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6858613302893745E-2</v>
       </c>
       <c r="P7" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1676177131974764</v>
       </c>
     </row>
@@ -63104,35 +62959,35 @@
         <v>7.9506913999999998E-2</v>
       </c>
       <c r="G8" s="30">
-        <f>G3*$N$2</f>
+        <f t="shared" si="0"/>
         <v>9.9134922034394522E-3</v>
       </c>
       <c r="H8" s="30">
-        <f>H3*$N$2</f>
+        <f t="shared" si="0"/>
         <v>9.9134922034394515E-11</v>
       </c>
       <c r="I8" s="30">
-        <f>I3*$N$2</f>
+        <f t="shared" si="0"/>
         <v>1.5030430318852114E-3</v>
       </c>
       <c r="J8" s="30">
-        <f>J3*$N$2</f>
+        <f t="shared" si="0"/>
         <v>-1.5184891764124181E-3</v>
       </c>
       <c r="M8" s="30">
-        <f t="shared" ref="M8:M10" si="1">A8-G8</f>
+        <f t="shared" ref="M8:M10" si="2">A8-G8</f>
         <v>0.85810690579656057</v>
       </c>
       <c r="N8" s="30">
-        <f t="shared" ref="N8:N10" si="2">B8-H8</f>
+        <f t="shared" ref="N8:N10" si="3">B8-H8</f>
         <v>0.86042975390086507</v>
       </c>
       <c r="O8" s="30">
-        <f t="shared" ref="O8:O10" si="3">C8-I8</f>
+        <f t="shared" ref="O8:O10" si="4">C8-I8</f>
         <v>-0.38108396803188521</v>
       </c>
       <c r="P8" s="30">
-        <f t="shared" ref="P8:P10" si="4">D8-J8</f>
+        <f t="shared" ref="P8:P10" si="5">D8-J8</f>
         <v>8.1025403176412422E-2</v>
       </c>
     </row>
@@ -63154,35 +63009,35 @@
         <v>0.25112624</v>
       </c>
       <c r="G9" s="30">
-        <f>G4*$N$2</f>
+        <f t="shared" si="0"/>
         <v>8.8743020327100922E-3</v>
       </c>
       <c r="H9" s="30">
-        <f>H4*$N$2</f>
+        <f t="shared" si="0"/>
         <v>8.8743020327100942E-11</v>
       </c>
       <c r="I9" s="30">
-        <f>I4*$N$2</f>
+        <f t="shared" si="0"/>
         <v>1.0647087623382099E-3</v>
       </c>
       <c r="J9" s="30">
-        <f>J4*$N$2</f>
+        <f t="shared" si="0"/>
         <v>-1.7553867955612226E-3</v>
       </c>
       <c r="M9" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.21531846303271007</v>
       </c>
       <c r="N9" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.248561660088743</v>
       </c>
       <c r="O9" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.6317955762338208E-2</v>
       </c>
       <c r="P9" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2528816267955612</v>
       </c>
     </row>
@@ -63204,49 +63059,54 @@
         <v>-0.59373879200000002</v>
       </c>
       <c r="G10" s="30">
-        <f>G5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>8.6250716144145138E-3</v>
       </c>
       <c r="H10" s="30">
-        <f>H5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>8.6250716144145165E-11</v>
       </c>
       <c r="I10" s="30">
-        <f>I5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>1.1775629167190089E-3</v>
       </c>
       <c r="J10" s="30">
-        <f>J5*$N$2</f>
+        <f t="shared" si="0"/>
         <v>-1.5292065179878796E-3</v>
       </c>
       <c r="M10" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83424931138558545</v>
       </c>
       <c r="N10" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.32420606508625072</v>
       </c>
       <c r="O10" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90654526608328101</v>
       </c>
       <c r="P10" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.59220958548201219</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="C13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="141" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="159" t="s">
-        <v>217</v>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="D14" s="141" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="12:34">
@@ -63600,8 +63460,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1"/>
+    <hyperlink ref="D14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>